--- a/korbinian/examples/settings/korbinian_run_settings_schweris_mp.xlsx
+++ b/korbinian/examples/settings/korbinian_run_settings_schweris_mp.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="200">
-  <si>
-    <t>uniprot_list</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="194">
   <si>
     <t>protein_lists</t>
   </si>
@@ -42,12 +39,6 @@
     <t>The proteins to be analysed are grouped in a numbered list.</t>
   </si>
   <si>
-    <t>For comparing two or more protein lists.</t>
-  </si>
-  <si>
-    <t>Here you can name the protein lists that you are analysing.</t>
-  </si>
-  <si>
     <t>If "TRUE", a list of accessions downloaded from uniprot will be compared against UniRef clusters (e.g. UniRef50, each &gt;50% amino acid identity), and a nonredundant list will be created, using the UniRef "reference sequence" if available. A uniprot flatfile containing the proteins of interest will be created from this list of non-redundant proteins (e.g. List##_selected_flatfile.txt), by copying the records from a larger flatfile (e.g. all membrane proteins). Leave "FALSE" if the selected UniProt flatfile already exists, for example if it has been downloaded directly from UniProt.</t>
   </si>
   <si>
@@ -75,9 +66,6 @@
     <t>If "TRUE", two or more protein lists will be compared (e.g. single-pass vs multi-pass), and a number of figures created and saved.</t>
   </si>
   <si>
-    <t>OLD fuctions, not currently in use</t>
-  </si>
-  <si>
     <t>overwrite_selected_ff</t>
   </si>
   <si>
@@ -297,9 +285,6 @@
     <t>TMD/nonTMD conservation plotting run settings</t>
   </si>
   <si>
-    <t>Old run settings</t>
-  </si>
-  <si>
     <t>run_parse_large_flatfile_with_list_uniprot_accessions</t>
   </si>
   <si>
@@ -309,9 +294,6 @@
     <t>run_create_csv_from_uniprot_flatfile</t>
   </si>
   <si>
-    <t>run_retrieve_simap_feature_table_and_homologues_from_list_in_csv</t>
-  </si>
-  <si>
     <t>run_parse_simap_to_csv</t>
   </si>
   <si>
@@ -330,30 +312,12 @@
     <t>run_compare_lists</t>
   </si>
   <si>
-    <t>old_calculate_TMD_conservation</t>
-  </si>
-  <si>
-    <t>old_calculate_TMD_conservation_by_gappedIdentity</t>
-  </si>
-  <si>
-    <t>old_calculate_TMD_conservation_moment</t>
-  </si>
-  <si>
-    <t>old_conduct_stat_analysis_with_all_seqs_or_nonredundant_seqs</t>
-  </si>
-  <si>
-    <t>old_fix_dfout05_simapcsv_by_adding_query_md5</t>
-  </si>
-  <si>
     <t>parameter</t>
   </si>
   <si>
     <t>1p_min_n_hits_for_data_analysis</t>
   </si>
   <si>
-    <t>old_run_stat_analysis_sim_ratios_in_dfout05</t>
-  </si>
-  <si>
     <t>stat_analysis_all_seqs_or_nonred_seqs</t>
   </si>
   <si>
@@ -510,9 +474,6 @@
     <t>OMPdb_parse_OMPdb_all_selected_to_csv</t>
   </si>
   <si>
-    <t>OMPdb_get_omp_TM_indices_and_slice_from_summary_table</t>
-  </si>
-  <si>
     <t>Protein list settings (UniProt/OMPdb)</t>
   </si>
   <si>
@@ -525,9 +486,6 @@
     <t>If true, the list of failed downloads (e.g. "D:\Databases\main\summaries\05\List05_failed_downloads.txt") will be ignored, and download will be attempted anyway.</t>
   </si>
   <si>
-    <t>slice_TMDs_from_homologues</t>
-  </si>
-  <si>
     <t>If "TRUE", the homologues for each TMD will be sliced out of the query, match and markup sequences from the SIMAP data. This is necessary for both the create_fasta or calculate_AAIMON_ratios.</t>
   </si>
   <si>
@@ -616,6 +574,30 @@
   </si>
   <si>
     <t>download_feature_tables</t>
+  </si>
+  <si>
+    <t>simap_dir</t>
+  </si>
+  <si>
+    <t>D:\Databases\simap</t>
+  </si>
+  <si>
+    <t>run_download_homologues</t>
+  </si>
+  <si>
+    <t>OMPdb_get_TM_indices_and_slice</t>
+  </si>
+  <si>
+    <t>protein_list_number</t>
+  </si>
+  <si>
+    <t>Only for comparing two or more protein lists.</t>
+  </si>
+  <si>
+    <t>Only for comparing two or more protein lists. Here you can name the protein lists that you are analysing.</t>
+  </si>
+  <si>
+    <t>run_slice_TMDs_from_homologues</t>
   </si>
 </sst>
 </file>
@@ -992,7 +974,105 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="58">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1607,69 +1687,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="52.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="4" customWidth="1"/>
     <col min="3" max="3" width="85.5703125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="53"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="B3" s="37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>8</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
@@ -1677,53 +1757,53 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="27"/>
     </row>
     <row r="8" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B9" s="70">
         <v>16</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1732,91 +1812,91 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B13" s="39"/>
       <c r="C13" s="55"/>
     </row>
     <row r="14" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="56"/>
     </row>
     <row r="15" spans="1:3" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B15" s="70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="68"/>
     </row>
     <row r="16" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="32"/>
     </row>
     <row r="17" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B17" s="70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B18" s="70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B19" s="70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B21" s="70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1825,31 +1905,31 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B23" s="41"/>
       <c r="C23" s="57"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="64" t="s">
-        <v>97</v>
+        <v>188</v>
       </c>
       <c r="B24" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="65" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="66" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B25" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="66" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1858,64 +1938,64 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B27" s="43"/>
       <c r="C27" s="59"/>
     </row>
     <row r="28" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B28" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B29" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B30" s="70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B31" s="70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B32" s="70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1925,230 +2005,157 @@
     </row>
     <row r="34" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B34" s="45"/>
       <c r="C34" s="60"/>
     </row>
     <row r="35" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B35" s="70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" s="61" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B36" s="70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" s="61" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B37" s="70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" s="61" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="62"/>
       <c r="C38" s="62"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="27"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="B43" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B44" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1 B6 B46:B1048576">
-    <cfRule type="containsText" dxfId="43" priority="388" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="B1 B6 B39:B1048576">
+    <cfRule type="containsText" dxfId="57" priority="441" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="containsText" dxfId="42" priority="386" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="56" priority="439" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="41" priority="385" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="55" priority="438" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="containsText" dxfId="40" priority="384" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="54" priority="437" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="containsText" dxfId="39" priority="383" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="53" priority="436" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40:B45 B35 B37 B17:B18">
-    <cfRule type="containsText" dxfId="38" priority="382" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="B35 B37 B17:B18">
+    <cfRule type="containsText" dxfId="52" priority="435" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="containsText" dxfId="37" priority="372" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="51" priority="425" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="36" priority="306" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="50" priority="359" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="containsText" dxfId="35" priority="191" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="49" priority="244" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="34" priority="190" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="48" priority="243" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="containsText" dxfId="33" priority="78" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="47" priority="131" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="containsText" dxfId="32" priority="65" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="46" priority="118" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="containsText" dxfId="30" priority="45" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="45" priority="98" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="29" priority="35" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="44" priority="88" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="28" priority="33" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="43" priority="86" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="containsText" dxfId="27" priority="20" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="26" priority="15" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="42" priority="37" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="40" priority="24" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="39" priority="23" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B24)))</formula>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="containsText" dxfId="29" priority="15" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="containsText" dxfId="27" priority="14" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="23" priority="12" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
@@ -2168,10 +2175,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2183,113 +2190,121 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="55"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="A8" s="18" t="s">
         <v>153</v>
       </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="55"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>161</v>
+        <v>140</v>
+      </c>
+      <c r="B9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="B10" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>161</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B9)))</formula>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="containsText" dxfId="32" priority="2" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B10)))</formula>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2301,8 +2316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,34 +2329,34 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="53"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="54"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" s="37">
         <v>50</v>
@@ -2350,24 +2365,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2376,41 +2391,41 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="55"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="56"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="56"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="56"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B12" s="40" t="b">
         <v>0</v>
@@ -2419,27 +2434,27 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="56"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B14" s="40">
         <v>1000</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B15" s="40">
         <v>1.0000000000000001E-5</v>
@@ -2448,7 +2463,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B16" s="40">
         <v>5000</v>
@@ -2457,7 +2472,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B17" s="40">
         <v>3000</v>
@@ -2466,21 +2481,21 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C19" s="56"/>
     </row>
@@ -2490,67 +2505,67 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="76" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B21" s="77"/>
       <c r="C21" s="78"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="79" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B22" s="80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="81"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="79" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B23" s="80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="81"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="79" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B24" s="80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="81"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="79" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B25" s="80" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C25" s="81"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="79" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B26" s="80">
         <v>10</v>
       </c>
       <c r="C26" s="81" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="79" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B27" s="80">
         <v>10</v>
       </c>
       <c r="C27" s="81" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2559,67 +2574,67 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B29" s="41"/>
       <c r="C29" s="57"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" s="58" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="58"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B34" s="42">
         <v>60</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B35" s="42">
         <v>10</v>
@@ -2628,7 +2643,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B36" s="42">
         <v>10</v>
@@ -2637,64 +2652,64 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B38" s="42">
         <v>0.4</v>
       </c>
       <c r="C38" s="58" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B39" s="42">
         <v>1</v>
       </c>
       <c r="C39" s="58" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" s="58"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" s="58"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C42" s="58" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2703,36 +2718,36 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="71" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B44" s="72"/>
       <c r="C44" s="73"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="74" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B45" s="75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" s="75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="74" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B46" s="75" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C46" s="75" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="74" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B47" s="75">
         <v>2</v>
@@ -2743,7 +2758,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="74" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B48" s="75">
         <v>2</v>
@@ -2754,7 +2769,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="74" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B49" s="75">
         <v>0.7</v>
@@ -2765,7 +2780,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="74" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B50" s="75">
         <v>1</v>
@@ -2776,7 +2791,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="74" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B51" s="75">
         <v>0.2</v>
@@ -2787,7 +2802,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="74" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B52" s="75">
         <v>0.2</v>
@@ -2798,18 +2813,18 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="74" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B53" s="75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" s="75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="74" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B54" s="75">
         <v>20</v>
@@ -2820,18 +2835,18 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="74" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B55" s="75" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C55" s="75" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="74" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B56" s="75">
         <v>1.1000000000000001</v>
@@ -2842,35 +2857,35 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="74" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B57" s="75">
         <v>0</v>
       </c>
       <c r="C57" s="75" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="74" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B58" s="75">
         <v>0</v>
       </c>
       <c r="C58" s="75" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="74" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B59" s="75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" s="75" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2879,23 +2894,23 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B61" s="43"/>
       <c r="C61" s="59"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C62" s="25"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B63" s="44">
         <v>2</v>
@@ -2904,7 +2919,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B64" s="44">
         <v>24</v>
@@ -2913,7 +2928,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B65" s="44">
         <v>20</v>
@@ -2926,14 +2941,14 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B67" s="45"/>
       <c r="C67" s="60"/>
     </row>
     <row r="68" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B68" s="46">
         <v>30</v>
@@ -2942,16 +2957,16 @@
     </row>
     <row r="69" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B69" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69" s="61"/>
     </row>
     <row r="70" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B70" s="46">
         <v>3.05</v>
@@ -2960,7 +2975,7 @@
     </row>
     <row r="71" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B71" s="46">
         <v>20</v>
@@ -2969,7 +2984,7 @@
     </row>
     <row r="72" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B72" s="46">
         <v>31</v>
@@ -2978,25 +2993,25 @@
     </row>
     <row r="73" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B73" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73" s="61"/>
     </row>
     <row r="74" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B74" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" s="61"/>
     </row>
     <row r="75" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B75" s="46">
         <v>0.05</v>
@@ -3005,7 +3020,7 @@
     </row>
     <row r="76" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B76" s="46">
         <v>3</v>
@@ -3014,16 +3029,16 @@
     </row>
     <row r="77" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B77" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C77" s="61"/>
     </row>
     <row r="78" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B78" s="46">
         <v>1.4550000000000001</v>
@@ -3032,7 +3047,7 @@
     </row>
     <row r="79" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B79" s="46">
         <v>31</v>
@@ -3041,16 +3056,16 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B80" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80" s="61"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B81" s="46">
         <v>0.55500000000000005</v>
@@ -3059,7 +3074,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B82" s="46">
         <v>0.5</v>
@@ -3068,7 +3083,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B83" s="46">
         <v>1.75</v>
@@ -3077,23 +3092,23 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B84" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C84" s="61"/>
     </row>
     <row r="86" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B86" s="48"/>
       <c r="C86" s="27"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="28" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B87" s="49">
         <v>0</v>
@@ -3102,7 +3117,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B88" s="49">
         <v>-12</v>
@@ -3111,7 +3126,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B89" s="49">
         <v>-2</v>
@@ -3120,16 +3135,16 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B90" s="49" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C90" s="29"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B91" s="49">
         <v>-0.2</v>
@@ -3138,7 +3153,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B92" s="49">
         <v>-1</v>
@@ -3147,7 +3162,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B93" s="49">
         <v>-1</v>
@@ -3156,7 +3171,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B94" s="49">
         <v>0</v>
@@ -3165,32 +3180,32 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="28" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B95" s="49" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C95" s="29"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="34" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B97" s="50"/>
       <c r="C97" s="30"/>
     </row>
     <row r="98" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B98" s="51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" s="33"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B99" s="51">
         <v>5</v>
@@ -3199,25 +3214,25 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B100" s="51" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C100" s="33"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B101" s="51" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C101" s="51"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/korbinian/examples/settings/korbinian_run_settings_schweris_mp.xlsx
+++ b/korbinian/examples/settings/korbinian_run_settings_schweris_mp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="3195" windowWidth="14265" windowHeight="7620"/>
+    <workbookView xWindow="3195" yWindow="3375" windowWidth="14265" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="run_settings" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="193">
   <si>
     <t>protein_lists</t>
   </si>
@@ -102,9 +102,6 @@
     <t>all</t>
   </si>
   <si>
-    <t>gappedIdentity</t>
-  </si>
-  <si>
     <t>suppress_error_logging_to_console</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
     <t>overwrite_previous_gap_analysis</t>
   </si>
   <si>
-    <t>allowed_gaps_per_tmd</t>
-  </si>
-  <si>
     <t>max_number_of_tmds</t>
   </si>
   <si>
@@ -336,39 +330,9 @@
     <t>mp_xlim_max01</t>
   </si>
   <si>
-    <t>fa_database</t>
-  </si>
-  <si>
-    <t>fa_identity_method</t>
-  </si>
-  <si>
     <t>fa_X_allowed_in_sel_seq</t>
   </si>
   <si>
-    <t>cr_database</t>
-  </si>
-  <si>
-    <t>cr_min_identity_of_TMD_initial_filter</t>
-  </si>
-  <si>
-    <t>cr_min_identity_of_TMD_final_filter</t>
-  </si>
-  <si>
-    <t>cr_X_allowed_in_full_seq</t>
-  </si>
-  <si>
-    <t>cr_min_len_query_aln_seq_excl_TMD</t>
-  </si>
-  <si>
-    <t>cr_identity_method</t>
-  </si>
-  <si>
-    <t>cr_maximum_identity_of_full_protein</t>
-  </si>
-  <si>
-    <t>cr_randomised_tmd</t>
-  </si>
-  <si>
     <t>fa_X_allowed_in_full_seq</t>
   </si>
   <si>
@@ -378,12 +342,6 @@
     <t>fa_min_identity_of_full_protein</t>
   </si>
   <si>
-    <t>cr_max_n_gaps_in_match_TMD</t>
-  </si>
-  <si>
-    <t>cr_max_n_gaps_in_query_TMD</t>
-  </si>
-  <si>
     <t>fa_max_n_gaps_in_match_TMD</t>
   </si>
   <si>
@@ -408,24 +366,12 @@
     <t>SIMAP homologue filtering for fasta (fa) output</t>
   </si>
   <si>
-    <t>filter_selected_seq_based_on_hydrophobicity</t>
-  </si>
-  <si>
-    <t>max_hydrophilicity_Hessa</t>
-  </si>
-  <si>
-    <t>maximum hydrophilicity of the selected sequence (BUT NOT THE SURROUNDING SEQ!). Hydrophobicity is calculated with Hessa scale, negative value means favourable membrane insertion. Seqs that have mean hydrophobicity score above the cutoff will be excluded from the alignment.</t>
-  </si>
-  <si>
     <t>your_name</t>
   </si>
   <si>
     <t>ASCII text! Identifier to determine who downloaded SIMAP homologues</t>
   </si>
   <si>
-    <t>not used!</t>
-  </si>
-  <si>
     <t>0.4 = 40% aa identity excluding gaps</t>
   </si>
   <si>
@@ -549,15 +495,6 @@
     <t>analyse_signal_peptides</t>
   </si>
   <si>
-    <t>cr_minimum_length_match_sequence</t>
-  </si>
-  <si>
-    <t>cr_minimum_length_non_TMD_sequence</t>
-  </si>
-  <si>
-    <t>not in use</t>
-  </si>
-  <si>
     <t>overwrite_sliced_homologues</t>
   </si>
   <si>
@@ -598,6 +535,66 @@
   </si>
   <si>
     <t>run_slice_TMDs_from_homologues</t>
+  </si>
+  <si>
+    <t>Number of concurrent processes to be run, using multiple CPU cores if available.</t>
+  </si>
+  <si>
+    <t>gap_min_identity_of_full_protein</t>
+  </si>
+  <si>
+    <t>gap_max_identity_of_full_protein</t>
+  </si>
+  <si>
+    <t>gap_min_n_gaps_in_TMD</t>
+  </si>
+  <si>
+    <t>gap_max_n_gaps_in_TMD</t>
+  </si>
+  <si>
+    <t>gap_allowed_gaps_per_tmd</t>
+  </si>
+  <si>
+    <t>run_gather_gap_densities</t>
+  </si>
+  <si>
+    <t>fa_max_n_gaps_in_match_TMD_plus_surr</t>
+  </si>
+  <si>
+    <t>Fasta (fa) output for gap analysis.</t>
+  </si>
+  <si>
+    <t>save_fasta_for_gap_analysis</t>
+  </si>
+  <si>
+    <t>fa_min_n_gaps_in_match_TMD_plus_surr</t>
+  </si>
+  <si>
+    <t>run_fastagap_save</t>
+  </si>
+  <si>
+    <t>cr_max_n_gaps_in_TMD</t>
+  </si>
+  <si>
+    <t>cr_min_len_nonTMD</t>
+  </si>
+  <si>
+    <t>cr_min_identity_of_TMD</t>
+  </si>
+  <si>
+    <t>linked to fa setting above</t>
+  </si>
+  <si>
+    <t>fa_max_hydrophilicity_Hessa</t>
+  </si>
+  <si>
+    <t>maximum hydrophilicity of the selected sequence (BUT NOT THE SURROUNDING SEQ!). Hydrophobicity is calculated with Hessa scale, negative value means favourable membrane insertion. Seqs that have mean hydrophobicity score above the cutoff will be excluded from the alignment. Typically, anything above 12 is unlikely to be a TMD.</t>
+  </si>
+  <si>
+    <t>cr_max_hydrophilicity_Hessa</t>
+  </si>
+  <si>
+    <t>gap_max_hydrophilicity_Hessa</t>
   </si>
 </sst>
 </file>
@@ -793,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -970,32 +967,17 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="55">
     <dxf>
       <fill>
         <patternFill>
@@ -1687,44 +1669,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="4" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="85.5703125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="53"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B3" s="37">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="C3" s="54" t="s">
         <v>6</v>
@@ -1738,7 +1720,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1749,7 +1731,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
@@ -1757,53 +1739,53 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="27"/>
     </row>
     <row r="8" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="B9" s="70">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1812,14 +1794,14 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B13" s="39"/>
       <c r="C13" s="55"/>
     </row>
     <row r="14" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B14" s="70" t="s">
         <v>5</v>
@@ -1828,7 +1810,7 @@
     </row>
     <row r="15" spans="1:3" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B15" s="70" t="s">
         <v>5</v>
@@ -1837,7 +1819,7 @@
     </row>
     <row r="16" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="B16" s="70" t="s">
         <v>5</v>
@@ -1846,7 +1828,7 @@
     </row>
     <row r="17" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B17" s="70" t="s">
         <v>5</v>
@@ -1857,7 +1839,7 @@
     </row>
     <row r="18" spans="1:3" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B18" s="70" t="s">
         <v>5</v>
@@ -1868,7 +1850,7 @@
     </row>
     <row r="19" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B19" s="70" t="s">
         <v>5</v>
@@ -1879,7 +1861,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B20" s="70" t="s">
         <v>5</v>
@@ -1890,7 +1872,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B21" s="70" t="s">
         <v>5</v>
@@ -1905,14 +1887,14 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B23" s="41"/>
       <c r="C23" s="57"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="64" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B24" s="70" t="s">
         <v>5</v>
@@ -1923,7 +1905,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B25" s="70" t="s">
         <v>5</v>
@@ -1938,234 +1920,277 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B27" s="43"/>
       <c r="C27" s="59"/>
     </row>
     <row r="28" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="B28" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B29" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B30" s="70" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B31" s="70" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B32" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="62"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="62"/>
+      <c r="A33" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="25"/>
     </row>
     <row r="34" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="60"/>
+      <c r="A34" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="25"/>
     </row>
     <row r="35" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="62"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="62"/>
+    </row>
+    <row r="36" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="45"/>
+      <c r="C36" s="60"/>
+    </row>
+    <row r="37" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B37" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="61" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="62"/>
-      <c r="C38" s="62"/>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="62"/>
+      <c r="C40" s="62"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1 B6 B39:B1048576">
-    <cfRule type="containsText" dxfId="57" priority="441" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="B1 B6 B41:B1048576">
+    <cfRule type="containsText" dxfId="32" priority="634" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="containsText" dxfId="56" priority="439" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="31" priority="632" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="55" priority="438" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="30" priority="631" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="containsText" dxfId="54" priority="437" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B33)))</formula>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="containsText" dxfId="29" priority="630" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="containsText" dxfId="28" priority="629" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39 B17:B18">
+    <cfRule type="containsText" dxfId="27" priority="628" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="containsText" dxfId="53" priority="436" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="26" priority="618" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35 B37 B17:B18">
-    <cfRule type="containsText" dxfId="52" priority="435" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="containsText" dxfId="51" priority="425" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="50" priority="359" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="25" priority="552" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="containsText" dxfId="49" priority="244" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="24" priority="437" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="48" priority="243" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="23" priority="436" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="containsText" dxfId="47" priority="131" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="22" priority="324" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="containsText" dxfId="46" priority="118" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="21" priority="311" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="containsText" dxfId="45" priority="98" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="44" priority="88" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="20" priority="281" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="43" priority="86" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="19" priority="279" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="42" priority="37" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="18" priority="230" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="containsText" dxfId="17" priority="124" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="containsText" dxfId="16" priority="106" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="containsText" dxfId="40" priority="24" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="15" priority="61" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="containsText" dxfId="39" priority="23" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="containsText" dxfId="29" priority="15" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="containsText" dxfId="27" priority="14" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="14" priority="46" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B31)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="23" priority="12" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B25)))</formula>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="containsText" dxfId="13" priority="18" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B24)))</formula>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2178,7 +2203,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,120 +2215,120 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="55"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B10" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="containsText" dxfId="32" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2314,10 +2339,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,18 +2354,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="53"/>
@@ -2368,10 +2393,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2382,7 +2407,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2391,14 +2416,14 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="55"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="40" t="s">
         <v>5</v>
@@ -2416,7 +2441,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B11" s="40" t="s">
         <v>5</v>
@@ -2443,18 +2468,18 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="40">
         <v>1000</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="40">
         <v>1.0000000000000001E-5</v>
@@ -2463,7 +2488,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="40">
         <v>5000</v>
@@ -2472,7 +2497,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="40">
         <v>3000</v>
@@ -2481,21 +2506,21 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B18" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" s="56"/>
     </row>
@@ -2505,14 +2530,14 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="76" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B21" s="77"/>
       <c r="C21" s="78"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="79" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B22" s="80" t="s">
         <v>4</v>
@@ -2521,7 +2546,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="79" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B23" s="80" t="s">
         <v>4</v>
@@ -2530,16 +2555,16 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="79" t="s">
-        <v>144</v>
-      </c>
-      <c r="B24" s="80" t="s">
-        <v>5</v>
+        <v>126</v>
+      </c>
+      <c r="B24" s="82" t="s">
+        <v>4</v>
       </c>
       <c r="C24" s="81"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="79" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B25" s="80" t="s">
         <v>26</v>
@@ -2548,24 +2573,24 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="79" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B26" s="80">
         <v>10</v>
       </c>
       <c r="C26" s="81" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="79" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B27" s="80">
         <v>10</v>
       </c>
       <c r="C27" s="81" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2574,180 +2599,172 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B29" s="41"/>
       <c r="C29" s="57"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B30" s="42" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B31" s="42" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B32" s="42" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="58" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="58"/>
+        <v>189</v>
+      </c>
+      <c r="B33" s="42">
+        <v>12</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B34" s="42">
-        <v>60</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>132</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C34" s="58"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B35" s="42">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C35" s="58"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B36" s="42">
-        <v>10</v>
-      </c>
-      <c r="C36" s="58"/>
+        <v>0.8</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="42" t="s">
-        <v>28</v>
+        <v>106</v>
+      </c>
+      <c r="B37" s="42">
+        <v>1</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" s="42">
-        <v>0.4</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>136</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="58"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" s="42">
-        <v>1</v>
-      </c>
-      <c r="C39" s="58" t="s">
-        <v>137</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="58"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="58"/>
+      <c r="A40" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B40" s="41"/>
+      <c r="C40" s="57"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" s="58"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="58" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="38"/>
-      <c r="C43" s="8"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="71" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44" s="72"/>
-      <c r="C44" s="73"/>
+        <v>183</v>
+      </c>
+      <c r="B42" s="42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="58"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" s="42">
+        <v>4</v>
+      </c>
+      <c r="C43" s="58"/>
+    </row>
+    <row r="44" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="38"/>
+      <c r="C44" s="8"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="75" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="75" t="s">
-        <v>4</v>
-      </c>
+      <c r="A45" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="72"/>
+      <c r="C45" s="73"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="74" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="B46" s="75" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C46" s="75" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="74" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="B47" s="75">
         <v>2</v>
@@ -2758,43 +2775,46 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="74" t="s">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="B48" s="75">
-        <v>2</v>
-      </c>
-      <c r="C48" s="75">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="C48" s="83" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="74" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B49" s="75">
-        <v>0.7</v>
-      </c>
-      <c r="C49" s="75">
-        <v>0.4</v>
+        <f>B36</f>
+        <v>0.8</v>
+      </c>
+      <c r="C49" s="83" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="74" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="B50" s="75">
+        <f>B37</f>
         <v>1</v>
       </c>
-      <c r="C50" s="75">
-        <v>1</v>
+      <c r="C50" s="83" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="74" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="B51" s="75">
-        <v>0.2</v>
+        <f>B49-0.4</f>
+        <v>0.4</v>
       </c>
       <c r="C51" s="75">
         <v>0.3</v>
@@ -2802,183 +2822,181 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="74" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="B52" s="75">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="C52" s="75">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="B53" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="75" t="s">
-        <v>5</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="38"/>
+      <c r="C53" s="8"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="B54" s="75">
-        <v>20</v>
-      </c>
-      <c r="C54" s="75">
-        <v>20</v>
-      </c>
+      <c r="A54" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="43"/>
+      <c r="C54" s="59"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="B55" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="C55" s="75" t="s">
-        <v>28</v>
-      </c>
+      <c r="A55" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="25"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" s="75">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C56" s="75">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="A56" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B56" s="44">
+        <v>2</v>
+      </c>
+      <c r="C56" s="25"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="74" t="s">
+      <c r="A57" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" s="44">
+        <f>B36</f>
+        <v>0.8</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" s="44">
+        <f>B37</f>
+        <v>1</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" s="44">
+        <v>1</v>
+      </c>
+      <c r="C59" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B57" s="75">
-        <v>0</v>
-      </c>
-      <c r="C57" s="75" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="B58" s="75">
-        <v>0</v>
-      </c>
-      <c r="C58" s="75" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="75" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="38"/>
-      <c r="C60" s="8"/>
+      <c r="B60" s="44">
+        <v>2</v>
+      </c>
+      <c r="C60" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="43"/>
-      <c r="C61" s="59"/>
+      <c r="A61" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="44">
+        <v>24</v>
+      </c>
+      <c r="C61" s="25"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B62" s="44" t="s">
-        <v>4</v>
+        <v>50</v>
+      </c>
+      <c r="B62" s="44">
+        <v>20</v>
       </c>
       <c r="C62" s="25"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="B63" s="44">
-        <v>2</v>
-      </c>
-      <c r="C63" s="25"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" s="44">
-        <v>24</v>
-      </c>
-      <c r="C64" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="38"/>
+      <c r="C64" s="8"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B65" s="44">
-        <v>20</v>
-      </c>
-      <c r="C65" s="25"/>
+      <c r="A65" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="45"/>
+      <c r="C65" s="60"/>
     </row>
     <row r="66" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="38"/>
-      <c r="C66" s="8"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="45"/>
-      <c r="C67" s="60"/>
+      <c r="A66" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="46">
+        <v>30</v>
+      </c>
+      <c r="C66" s="61"/>
+    </row>
+    <row r="67" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="61"/>
     </row>
     <row r="68" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
         <v>73</v>
       </c>
       <c r="B68" s="46">
-        <v>30</v>
+        <v>3.05</v>
       </c>
       <c r="C68" s="61"/>
     </row>
     <row r="69" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69" s="46" t="s">
-        <v>4</v>
+        <v>97</v>
+      </c>
+      <c r="B69" s="46">
+        <v>20</v>
       </c>
       <c r="C69" s="61"/>
     </row>
     <row r="70" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70" s="46">
-        <v>3.05</v>
+        <v>31</v>
       </c>
       <c r="C70" s="61"/>
     </row>
     <row r="71" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B71" s="46">
-        <v>20</v>
+        <v>75</v>
+      </c>
+      <c r="B71" s="46" t="s">
+        <v>4</v>
       </c>
       <c r="C71" s="61"/>
     </row>
@@ -2986,8 +3004,8 @@
       <c r="A72" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="46">
-        <v>31</v>
+      <c r="B72" s="46" t="s">
+        <v>5</v>
       </c>
       <c r="C72" s="61"/>
     </row>
@@ -2995,8 +3013,8 @@
       <c r="A73" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="46" t="s">
-        <v>4</v>
+      <c r="B73" s="46">
+        <v>0.05</v>
       </c>
       <c r="C73" s="61"/>
     </row>
@@ -3004,8 +3022,8 @@
       <c r="A74" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B74" s="46" t="s">
-        <v>5</v>
+      <c r="B74" s="46">
+        <v>3</v>
       </c>
       <c r="C74" s="61"/>
     </row>
@@ -3013,8 +3031,8 @@
       <c r="A75" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="46">
-        <v>0.05</v>
+      <c r="B75" s="46" t="s">
+        <v>4</v>
       </c>
       <c r="C75" s="61"/>
     </row>
@@ -3023,7 +3041,7 @@
         <v>80</v>
       </c>
       <c r="B76" s="46">
-        <v>3</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="C76" s="61"/>
     </row>
@@ -3031,208 +3049,190 @@
       <c r="A77" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B77" s="46" t="s">
-        <v>4</v>
+      <c r="B77" s="46">
+        <v>31</v>
       </c>
       <c r="C77" s="61"/>
     </row>
-    <row r="78" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="46">
-        <v>1.4550000000000001</v>
+      <c r="B78" s="46" t="s">
+        <v>5</v>
       </c>
       <c r="C78" s="61"/>
     </row>
-    <row r="79" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
         <v>83</v>
       </c>
       <c r="B79" s="46">
-        <v>31</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="C79" s="61"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80" s="46" t="s">
-        <v>5</v>
+        <v>102</v>
+      </c>
+      <c r="B80" s="46">
+        <v>0.5</v>
       </c>
       <c r="C80" s="61"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B81" s="46">
-        <v>0.55500000000000005</v>
+        <v>1.75</v>
       </c>
       <c r="C81" s="61"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B82" s="46">
-        <v>0.5</v>
+        <v>25</v>
+      </c>
+      <c r="B82" s="46" t="s">
+        <v>4</v>
       </c>
       <c r="C82" s="61"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B83" s="46">
-        <v>1.75</v>
-      </c>
-      <c r="C83" s="61"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B84" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="61"/>
-    </row>
-    <row r="86" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B86" s="48"/>
-      <c r="C86" s="27"/>
+    <row r="84" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" s="48"/>
+      <c r="C84" s="27"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B85" s="49">
+        <v>0</v>
+      </c>
+      <c r="C85" s="29"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" s="49">
+        <v>-12</v>
+      </c>
+      <c r="C86" s="29"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B87" s="49">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C87" s="29"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B88" s="49">
-        <v>-12</v>
+        <v>35</v>
+      </c>
+      <c r="B88" s="49" t="s">
+        <v>40</v>
       </c>
       <c r="C88" s="29"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B89" s="49">
-        <v>-2</v>
+        <v>-0.2</v>
       </c>
       <c r="C89" s="29"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B90" s="49" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="B90" s="49">
+        <v>-1</v>
       </c>
       <c r="C90" s="29"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B91" s="49">
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="C91" s="29"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B92" s="49">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C92" s="29"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B93" s="49">
-        <v>-1</v>
+        <v>101</v>
+      </c>
+      <c r="B93" s="49" t="s">
+        <v>41</v>
       </c>
       <c r="C93" s="29"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B94" s="49">
-        <v>0</v>
-      </c>
-      <c r="C94" s="29"/>
-    </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B95" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C95" s="29"/>
+      <c r="A95" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B95" s="50"/>
+      <c r="C95" s="30"/>
+    </row>
+    <row r="96" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="33"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B97" s="50"/>
-      <c r="C97" s="30"/>
-    </row>
-    <row r="98" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" s="51">
+        <v>5</v>
+      </c>
+      <c r="C97" s="33"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B98" s="51" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C98" s="33"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B99" s="51">
-        <v>5</v>
-      </c>
-      <c r="C99" s="33"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B100" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C100" s="33"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C101" s="51"/>
+      <c r="C99" s="51"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/korbinian/examples/settings/korbinian_run_settings_schweris_mp.xlsx
+++ b/korbinian/examples/settings/korbinian_run_settings_schweris_mp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="3375" windowWidth="14265" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="3195" yWindow="3375" windowWidth="14265" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="run_settings" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="194">
   <si>
     <t>protein_lists</t>
   </si>
@@ -595,6 +595,9 @@
   </si>
   <si>
     <t>gap_max_hydrophilicity_Hessa</t>
+  </si>
+  <si>
+    <t>maximum hydrophilicity of the selected sequence (BUT NOT THE SURROUNDING SEQ!). Hydrophobicity is calculated with Hessa scale, negative value means favourable membrane insertion. Seqs that have mean hydrophobicity score above the cutoff will be excluded from the alignment. Typically, anything above 12 is unlikely to be a TMD for alpha helical proteins, and above 30 for beta-barrel proteins.</t>
   </si>
 </sst>
 </file>
@@ -790,7 +793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -973,11 +976,28 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="57">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1671,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,7 +1769,7 @@
         <v>139</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>140</v>
@@ -1952,7 +1972,7 @@
         <v>91</v>
       </c>
       <c r="B30" s="70" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>54</v>
@@ -1994,7 +2014,7 @@
         <v>184</v>
       </c>
       <c r="B34" s="70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" s="25"/>
     </row>
@@ -2049,148 +2069,168 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1 B6 B41:B1048576">
-    <cfRule type="containsText" dxfId="32" priority="634" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="56" priority="646" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="containsText" dxfId="31" priority="632" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="55" priority="644" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="30" priority="631" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="54" priority="643" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="containsText" dxfId="29" priority="630" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="53" priority="642" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="containsText" dxfId="28" priority="629" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="52" priority="641" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39 B17:B18">
-    <cfRule type="containsText" dxfId="27" priority="628" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="51" priority="640" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="containsText" dxfId="26" priority="618" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="50" priority="630" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="25" priority="552" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="49" priority="564" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="containsText" dxfId="24" priority="437" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="48" priority="449" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="23" priority="436" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="47" priority="448" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="containsText" dxfId="22" priority="324" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="46" priority="336" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="containsText" dxfId="21" priority="311" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="45" priority="323" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="20" priority="281" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="44" priority="293" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="19" priority="279" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="43" priority="291" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="18" priority="230" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="42" priority="242" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="17" priority="124" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="41" priority="136" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="16" priority="106" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="40" priority="118" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="containsText" dxfId="15" priority="61" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="39" priority="73" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="containsText" dxfId="36" priority="29" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="containsText" dxfId="33" priority="24" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="containsText" dxfId="32" priority="23" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="containsText" dxfId="31" priority="14" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="containsText" dxfId="28" priority="15" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="containsText" dxfId="14" priority="46" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B31)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="containsText" dxfId="13" priority="18" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B21)))</formula>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2318,17 +2358,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2341,8 +2381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2641,11 +2681,11 @@
       <c r="A33" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="42">
-        <v>12</v>
+      <c r="B33" s="84">
+        <v>30</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2670,7 +2710,7 @@
       <c r="A36" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="42">
+      <c r="B36" s="84">
         <v>0.8</v>
       </c>
       <c r="C36" s="58" t="s">
@@ -2681,7 +2721,7 @@
       <c r="A37" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="42">
+      <c r="B37" s="84">
         <v>1</v>
       </c>
       <c r="C37" s="58" t="s">
@@ -2736,7 +2776,7 @@
         <v>180</v>
       </c>
       <c r="B43" s="42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43" s="58"/>
     </row>
@@ -2778,7 +2818,8 @@
         <v>191</v>
       </c>
       <c r="B48" s="75">
-        <v>12</v>
+        <f>B33</f>
+        <v>30</v>
       </c>
       <c r="C48" s="83" t="s">
         <v>190</v>
@@ -2929,7 +2970,8 @@
         <v>192</v>
       </c>
       <c r="B63" s="44">
-        <v>12</v>
+        <f>B33</f>
+        <v>30</v>
       </c>
       <c r="C63" s="25" t="s">
         <v>190</v>
@@ -3232,7 +3274,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/korbinian/examples/settings/korbinian_run_settings_schweris_mp.xlsx
+++ b/korbinian/examples/settings/korbinian_run_settings_schweris_mp.xlsx
@@ -10,13 +10,14 @@
     <sheet name="run_settings" sheetId="1" r:id="rId1"/>
     <sheet name="file_locations" sheetId="3" r:id="rId2"/>
     <sheet name="variables" sheetId="2" r:id="rId3"/>
+    <sheet name="figs_settings" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="219">
   <si>
     <t>protein_lists</t>
   </si>
@@ -384,12 +385,6 @@
     <t>do you want redundant selected (e.g. TMD) sequences to be removed before saving to fasta</t>
   </si>
   <si>
-    <t>uniprot_dir</t>
-  </si>
-  <si>
-    <t>directory with uniprot files</t>
-  </si>
-  <si>
     <t>run_setup_df_file_locations</t>
   </si>
   <si>
@@ -405,9 +400,6 @@
     <t>D:\Schweris\Projects\Programming\Python\programs\eaSimap.jar</t>
   </si>
   <si>
-    <t>D:\Databases\D_uniprot</t>
-  </si>
-  <si>
     <t>add_user_subseqs</t>
   </si>
   <si>
@@ -598,13 +590,97 @@
   </si>
   <si>
     <t>maximum hydrophilicity of the selected sequence (BUT NOT THE SURROUNDING SEQ!). Hydrophobicity is calculated with Hessa scale, negative value means favourable membrane insertion. Seqs that have mean hydrophobicity score above the cutoff will be excluded from the alignment. Typically, anything above 12 is unlikely to be a TMD for alpha helical proteins, and above 30 for beta-barrel proteins.</t>
+  </si>
+  <si>
+    <t>clustal_path</t>
+  </si>
+  <si>
+    <t>D:\Databases\programs\clustal-omega\clustalo.exe</t>
+  </si>
+  <si>
+    <t>run_calc_fastagap_densities</t>
+  </si>
+  <si>
+    <t>save_fig_to_pdf</t>
+  </si>
+  <si>
+    <t>save_fig_to_png</t>
+  </si>
+  <si>
+    <t>Fig01_Histogram_of_mean_AAIMON_and_AASMON_ratios_SP_vs_MP</t>
+  </si>
+  <si>
+    <t>Fig02_Histogram_of_standard_deviations_for_AAIMON_and_AASMON</t>
+  </si>
+  <si>
+    <t>(std_among_homologues_for_each_protein)</t>
+  </si>
+  <si>
+    <t>Fig03_Scattergram_comparing_mean_AAIMON_and_AASMON</t>
+  </si>
+  <si>
+    <t>Fig04_Scattergram_comparing_standard_deviation_AAIMON_and_AASMON</t>
+  </si>
+  <si>
+    <t>Fig05_Scattergram_comparing_number_of_TMDs_with_mean_AAIMON</t>
+  </si>
+  <si>
+    <t>Fig06_Scattergram_comparing_seqlen_with_mean_AAIMON</t>
+  </si>
+  <si>
+    <t>Fig07_Scattergram_comparing_nonTMD_SW_align_len_mean_with_mean_AAIMON</t>
+  </si>
+  <si>
+    <t>Fig08_Scattergram_comparing_total_number_of_simap_hits_with_mean_AAIMON</t>
+  </si>
+  <si>
+    <t>note_that_the_total_hits_comes_from_SIMAP,_so_this_doesn't_say_anything_about_how_much_data_is_available_for_each_protein</t>
+  </si>
+  <si>
+    <t>Fig09_Histogram_of_mean_AAIMON_ratios_for_each_TMD_separately</t>
+  </si>
+  <si>
+    <t>Fig10_Line_histogram_of_mean_AAIMON_ratios_for_each_TMD_separately</t>
+  </si>
+  <si>
+    <t>Fig11_Line_histogram_of_mean_AAIMON_ratios_for_selected_TMDs,_highlighting_difference_for_TM07</t>
+  </si>
+  <si>
+    <t>Fig12_TMD_1-5_only</t>
+  </si>
+  <si>
+    <t>Fig13_TMD_5-10_only</t>
+  </si>
+  <si>
+    <t>Fig14_TMD_10-15_only</t>
+  </si>
+  <si>
+    <t>Fig15_TMD_15-20_only</t>
+  </si>
+  <si>
+    <t>Fig16_ONLY_proteins_with_7_TMDs</t>
+  </si>
+  <si>
+    <t>Fig17_Less_than_12_TMDs_vs_at_least_12_TMDs</t>
+  </si>
+  <si>
+    <t>Fig18_Boxplot_of_all_TMDs</t>
+  </si>
+  <si>
+    <t>Fig19_Show_only_GPCRs_in_full_dataset</t>
+  </si>
+  <si>
+    <t>Fig20_Show_GPCRs_vs_full_dataset</t>
+  </si>
+  <si>
+    <t>Fig21_Boxplot_only_GPCRs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,6 +700,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -793,7 +876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -979,179 +1062,17 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <fill>
         <patternFill>
@@ -1689,21 +1610,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:AF46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="85.5703125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="27.140625" style="62" customWidth="1"/>
+    <col min="5" max="16" width="9.140625" style="62"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>96</v>
       </c>
@@ -1713,26 +1636,68 @@
       <c r="C1" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+    </row>
+    <row r="2" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="53"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B3" s="37">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="C3" s="54" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
@@ -1740,10 +1705,26 @@
         <v>2</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
@@ -1751,102 +1732,369 @@
         <v>3</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+    </row>
+    <row r="6" spans="1:32" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="27"/>
-    </row>
-    <row r="8" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="62"/>
+      <c r="AC7" s="62"/>
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="62"/>
+    </row>
+    <row r="8" spans="1:32" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B8" s="70" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="62"/>
+      <c r="AF8" s="62"/>
+    </row>
+    <row r="9" spans="1:32" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B9" s="70">
         <v>14</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="62"/>
+      <c r="AF9" s="62"/>
+    </row>
+    <row r="10" spans="1:32" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="62"/>
+      <c r="AF10" s="62"/>
+    </row>
+    <row r="11" spans="1:32" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="62"/>
+      <c r="AD11" s="62"/>
+      <c r="AE11" s="62"/>
+      <c r="AF11" s="62"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="C12" s="62"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="62"/>
+      <c r="AD12" s="62"/>
+      <c r="AE12" s="62"/>
+      <c r="AF12" s="62"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B13" s="39"/>
       <c r="C13" s="55"/>
-    </row>
-    <row r="14" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="62"/>
+      <c r="AE13" s="62"/>
+      <c r="AF13" s="62"/>
+    </row>
+    <row r="14" spans="1:32" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B14" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="56"/>
-    </row>
-    <row r="15" spans="1:3" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+    </row>
+    <row r="15" spans="1:32" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B15" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="68"/>
-    </row>
-    <row r="16" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="62"/>
+      <c r="AF15" s="62"/>
+    </row>
+    <row r="16" spans="1:32" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B16" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="32"/>
-    </row>
-    <row r="17" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="62"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="62"/>
+      <c r="AF16" s="62"/>
+    </row>
+    <row r="17" spans="1:32" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>87</v>
       </c>
@@ -1856,8 +2104,37 @@
       <c r="C17" s="56" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="62"/>
+      <c r="AD17" s="62"/>
+      <c r="AE17" s="62"/>
+      <c r="AF17" s="62"/>
+    </row>
+    <row r="18" spans="1:32" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>88</v>
       </c>
@@ -1867,10 +2144,39 @@
       <c r="C18" s="68" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="62"/>
+    </row>
+    <row r="19" spans="1:32" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B19" s="70" t="s">
         <v>5</v>
@@ -1878,8 +2184,37 @@
       <c r="C19" s="32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="62"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>89</v>
       </c>
@@ -1889,32 +2224,96 @@
       <c r="C20" s="56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="62"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="62"/>
+      <c r="AD20" s="62"/>
+      <c r="AE20" s="62"/>
+      <c r="AF20" s="62"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B21" s="70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="62"/>
+      <c r="AC21" s="62"/>
+      <c r="AD21" s="62"/>
+      <c r="AE21" s="62"/>
+      <c r="AF21" s="62"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="C22" s="62"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="62"/>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="62"/>
+      <c r="AD22" s="62"/>
+      <c r="AE22" s="62"/>
+      <c r="AF22" s="62"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>84</v>
       </c>
       <c r="B23" s="41"/>
       <c r="C23" s="57"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="62"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="62"/>
+      <c r="AF23" s="62"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="64" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B24" s="70" t="s">
         <v>5</v>
@@ -1922,8 +2321,24 @@
       <c r="C24" s="65" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="62"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="62"/>
+      <c r="AD24" s="62"/>
+      <c r="AE24" s="62"/>
+      <c r="AF24" s="62"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="66" t="s">
         <v>90</v>
       </c>
@@ -1933,32 +2348,77 @@
       <c r="C25" s="66" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="62"/>
+      <c r="AA25" s="62"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="62"/>
+      <c r="AD25" s="62"/>
+      <c r="AE25" s="62"/>
+      <c r="AF25" s="62"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="62"/>
       <c r="C26" s="62"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>85</v>
       </c>
       <c r="B27" s="43"/>
       <c r="C27" s="59"/>
     </row>
-    <row r="28" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B28" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="62"/>
+      <c r="T28" s="62"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="62"/>
+      <c r="AA28" s="62"/>
+      <c r="AB28" s="62"/>
+      <c r="AC28" s="62"/>
+      <c r="AD28" s="62"/>
+      <c r="AE28" s="62"/>
+      <c r="AF28" s="62"/>
+    </row>
+    <row r="29" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B29" s="70" t="s">
         <v>5</v>
@@ -1966,231 +2426,648 @@
       <c r="C29" s="25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="62"/>
+      <c r="AA29" s="62"/>
+      <c r="AB29" s="62"/>
+      <c r="AC29" s="62"/>
+      <c r="AD29" s="62"/>
+      <c r="AE29" s="62"/>
+      <c r="AF29" s="62"/>
+    </row>
+    <row r="30" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B30" s="70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="62"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="62"/>
+      <c r="AA30" s="62"/>
+      <c r="AB30" s="62"/>
+      <c r="AC30" s="62"/>
+      <c r="AD30" s="62"/>
+      <c r="AE30" s="62"/>
+      <c r="AF30" s="62"/>
+    </row>
+    <row r="31" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B31" s="70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="62"/>
+      <c r="T31" s="62"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="62"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="62"/>
+      <c r="Z31" s="62"/>
+      <c r="AA31" s="62"/>
+      <c r="AB31" s="62"/>
+      <c r="AC31" s="62"/>
+      <c r="AD31" s="62"/>
+      <c r="AE31" s="62"/>
+      <c r="AF31" s="62"/>
+    </row>
+    <row r="32" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="B32" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="25"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="62"/>
+      <c r="T32" s="62"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="62"/>
+      <c r="Y32" s="62"/>
+      <c r="Z32" s="62"/>
+      <c r="AA32" s="62"/>
+      <c r="AB32" s="62"/>
+      <c r="AC32" s="62"/>
+      <c r="AD32" s="62"/>
+      <c r="AE32" s="62"/>
+      <c r="AF32" s="62"/>
+    </row>
+    <row r="33" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="B33" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="25"/>
-    </row>
-    <row r="34" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B34" s="70" t="s">
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="62"/>
+      <c r="AA33" s="62"/>
+      <c r="AB33" s="62"/>
+      <c r="AC33" s="62"/>
+      <c r="AD33" s="62"/>
+      <c r="AE33" s="62"/>
+      <c r="AF33" s="62"/>
+    </row>
+    <row r="34" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="62"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="62"/>
+      <c r="Z34" s="62"/>
+      <c r="AA34" s="62"/>
+      <c r="AB34" s="62"/>
+      <c r="AC34" s="62"/>
+      <c r="AD34" s="62"/>
+      <c r="AE34" s="62"/>
+      <c r="AF34" s="62"/>
+    </row>
+    <row r="35" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="45"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="62"/>
+      <c r="AA35" s="62"/>
+      <c r="AB35" s="62"/>
+      <c r="AC35" s="62"/>
+      <c r="AD35" s="62"/>
+      <c r="AE35" s="62"/>
+      <c r="AF35" s="62"/>
+    </row>
+    <row r="36" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="62"/>
+      <c r="T36" s="62"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="62"/>
+      <c r="W36" s="62"/>
+      <c r="X36" s="62"/>
+      <c r="Y36" s="62"/>
+      <c r="Z36" s="62"/>
+      <c r="AA36" s="62"/>
+      <c r="AB36" s="62"/>
+      <c r="AC36" s="62"/>
+      <c r="AD36" s="62"/>
+      <c r="AE36" s="62"/>
+      <c r="AF36" s="62"/>
+    </row>
+    <row r="37" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="25"/>
-    </row>
-    <row r="35" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="62"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="62"/>
-    </row>
-    <row r="36" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="60"/>
-    </row>
-    <row r="37" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="70" t="s">
-        <v>5</v>
-      </c>
       <c r="C37" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
+      <c r="T37" s="62"/>
+      <c r="U37" s="62"/>
+      <c r="V37" s="62"/>
+      <c r="W37" s="62"/>
+      <c r="X37" s="62"/>
+      <c r="Y37" s="62"/>
+      <c r="Z37" s="62"/>
+      <c r="AA37" s="62"/>
+      <c r="AB37" s="62"/>
+      <c r="AC37" s="62"/>
+      <c r="AD37" s="62"/>
+      <c r="AE37" s="62"/>
+      <c r="AF37" s="62"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B38" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="62"/>
+      <c r="S38" s="62"/>
+      <c r="T38" s="62"/>
+      <c r="U38" s="62"/>
+      <c r="V38" s="62"/>
+      <c r="W38" s="62"/>
+      <c r="X38" s="62"/>
+      <c r="Y38" s="62"/>
+      <c r="Z38" s="62"/>
+      <c r="AA38" s="62"/>
+      <c r="AB38" s="62"/>
+      <c r="AC38" s="62"/>
+      <c r="AD38" s="62"/>
+      <c r="AE38" s="62"/>
+      <c r="AF38" s="62"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="62"/>
+      <c r="S39" s="62"/>
+      <c r="T39" s="62"/>
+      <c r="U39" s="62"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="62"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="62"/>
+      <c r="AD39" s="62"/>
+      <c r="AE39" s="62"/>
+      <c r="AF39" s="62"/>
+    </row>
+    <row r="40" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="61" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="62"/>
-      <c r="C40" s="62"/>
+      <c r="C40" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="62"/>
+      <c r="T40" s="62"/>
+      <c r="U40" s="62"/>
+      <c r="V40" s="62"/>
+      <c r="W40" s="62"/>
+      <c r="X40" s="62"/>
+      <c r="Y40" s="62"/>
+      <c r="Z40" s="62"/>
+      <c r="AA40" s="62"/>
+      <c r="AB40" s="62"/>
+      <c r="AC40" s="62"/>
+      <c r="AD40" s="62"/>
+      <c r="AE40" s="62"/>
+      <c r="AF40" s="62"/>
+    </row>
+    <row r="41" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="85" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="86"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="62"/>
+      <c r="T41" s="62"/>
+      <c r="U41" s="62"/>
+      <c r="V41" s="62"/>
+      <c r="W41" s="62"/>
+      <c r="X41" s="62"/>
+      <c r="Y41" s="62"/>
+      <c r="Z41" s="62"/>
+      <c r="AA41" s="62"/>
+      <c r="AB41" s="62"/>
+      <c r="AC41" s="62"/>
+      <c r="AD41" s="62"/>
+      <c r="AE41" s="62"/>
+      <c r="AF41" s="62"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="86"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="62"/>
+      <c r="S42" s="62"/>
+      <c r="T42" s="62"/>
+      <c r="U42" s="62"/>
+      <c r="V42" s="62"/>
+      <c r="W42" s="62"/>
+      <c r="X42" s="62"/>
+      <c r="Y42" s="62"/>
+      <c r="Z42" s="62"/>
+      <c r="AA42" s="62"/>
+      <c r="AB42" s="62"/>
+      <c r="AC42" s="62"/>
+      <c r="AD42" s="62"/>
+      <c r="AE42" s="62"/>
+      <c r="AF42" s="62"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Q43" s="62"/>
+      <c r="R43" s="62"/>
+      <c r="S43" s="62"/>
+      <c r="T43" s="62"/>
+      <c r="U43" s="62"/>
+      <c r="V43" s="62"/>
+      <c r="W43" s="62"/>
+      <c r="X43" s="62"/>
+      <c r="Y43" s="62"/>
+      <c r="Z43" s="62"/>
+      <c r="AA43" s="62"/>
+      <c r="AB43" s="62"/>
+      <c r="AC43" s="62"/>
+      <c r="AD43" s="62"/>
+      <c r="AE43" s="62"/>
+      <c r="AF43" s="62"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Q44" s="62"/>
+      <c r="R44" s="62"/>
+      <c r="S44" s="62"/>
+      <c r="T44" s="62"/>
+      <c r="U44" s="62"/>
+      <c r="V44" s="62"/>
+      <c r="W44" s="62"/>
+      <c r="X44" s="62"/>
+      <c r="Y44" s="62"/>
+      <c r="Z44" s="62"/>
+      <c r="AA44" s="62"/>
+      <c r="AB44" s="62"/>
+      <c r="AC44" s="62"/>
+      <c r="AD44" s="62"/>
+      <c r="AE44" s="62"/>
+      <c r="AF44" s="62"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Q45" s="62"/>
+      <c r="R45" s="62"/>
+      <c r="S45" s="62"/>
+      <c r="T45" s="62"/>
+      <c r="U45" s="62"/>
+      <c r="V45" s="62"/>
+      <c r="W45" s="62"/>
+      <c r="X45" s="62"/>
+      <c r="Y45" s="62"/>
+      <c r="Z45" s="62"/>
+      <c r="AA45" s="62"/>
+      <c r="AB45" s="62"/>
+      <c r="AC45" s="62"/>
+      <c r="AD45" s="62"/>
+      <c r="AE45" s="62"/>
+      <c r="AF45" s="62"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Q46" s="62"/>
+      <c r="R46" s="62"/>
+      <c r="S46" s="62"/>
+      <c r="T46" s="62"/>
+      <c r="U46" s="62"/>
+      <c r="V46" s="62"/>
+      <c r="W46" s="62"/>
+      <c r="X46" s="62"/>
+      <c r="Y46" s="62"/>
+      <c r="Z46" s="62"/>
+      <c r="AA46" s="62"/>
+      <c r="AB46" s="62"/>
+      <c r="AC46" s="62"/>
+      <c r="AD46" s="62"/>
+      <c r="AE46" s="62"/>
+      <c r="AF46" s="62"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1 B6 B41:B1048576">
-    <cfRule type="containsText" dxfId="56" priority="646" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="B1 B6 B43:B1048576">
+    <cfRule type="containsText" dxfId="32" priority="733" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="containsText" dxfId="55" priority="644" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="31" priority="731" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="54" priority="643" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="30" priority="730" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="containsText" dxfId="53" priority="642" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B35)))</formula>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="containsText" dxfId="29" priority="729" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="containsText" dxfId="52" priority="641" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B40)))</formula>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="containsText" dxfId="28" priority="728" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B39)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39 B17:B18">
-    <cfRule type="containsText" dxfId="51" priority="640" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="B38 B17:B18">
+    <cfRule type="containsText" dxfId="27" priority="727" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="containsText" dxfId="50" priority="630" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="49" priority="564" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="B19:B20">
+    <cfRule type="containsText" dxfId="26" priority="651" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="containsText" dxfId="48" priority="449" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="25" priority="536" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="47" priority="448" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="24" priority="535" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="containsText" dxfId="46" priority="336" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="23" priority="423" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B9)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="containsText" dxfId="22" priority="378" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="containsText" dxfId="21" priority="329" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="containsText" dxfId="20" priority="223" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="containsText" dxfId="19" priority="116" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="containsText" dxfId="45" priority="323" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="18" priority="43" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="44" priority="293" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="43" priority="291" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="42" priority="242" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="41" priority="136" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="40" priority="118" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="containsText" dxfId="39" priority="73" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="containsText" dxfId="36" priority="29" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="33" priority="24" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="32" priority="23" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="containsText" dxfId="31" priority="14" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="containsText" dxfId="28" priority="15" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B34)))</formula>
+  <conditionalFormatting sqref="B40:B42">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
@@ -2198,39 +3075,34 @@
       <formula>NOT(ISERROR(SEARCH("TRUE",B30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B30)))</formula>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:B29">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:B33">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B31)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B31)))</formula>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B37)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B33)))</formula>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2243,7 +3115,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2269,7 +3141,7 @@
         <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
         <v>117</v>
@@ -2277,21 +3149,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2299,7 +3171,7 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
@@ -2310,65 +3182,62 @@
         <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="55"/>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" t="s">
-        <v>123</v>
-      </c>
+      <c r="A9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="55"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B10" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B11" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2381,8 +3250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2481,7 +3350,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B11" s="40" t="s">
         <v>5</v>
@@ -2546,13 +3415,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B18" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2570,14 +3439,14 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="76" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B21" s="77"/>
       <c r="C21" s="78"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="79" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B22" s="80" t="s">
         <v>4</v>
@@ -2586,7 +3455,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="79" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B23" s="80" t="s">
         <v>4</v>
@@ -2595,7 +3464,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="79" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B24" s="82" t="s">
         <v>4</v>
@@ -2604,7 +3473,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="79" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B25" s="80" t="s">
         <v>26</v>
@@ -2613,24 +3482,24 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="79" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B26" s="80">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C26" s="81" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="79" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B27" s="80">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C27" s="81" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2679,13 +3548,13 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B33" s="84">
         <v>30</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2711,7 +3580,7 @@
         <v>107</v>
       </c>
       <c r="B36" s="84">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C36" s="58" t="s">
         <v>118</v>
@@ -2748,14 +3617,14 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B40" s="41"/>
       <c r="C40" s="57"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B41" s="42" t="s">
         <v>4</v>
@@ -2764,7 +3633,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B42" s="42">
         <v>1</v>
@@ -2773,10 +3642,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B43" s="42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C43" s="58"/>
     </row>
@@ -2804,7 +3673,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="74" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B47" s="75">
         <v>2</v>
@@ -2815,47 +3684,47 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="74" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B48" s="75">
         <f>B33</f>
         <v>30</v>
       </c>
       <c r="C48" s="83" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="74" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B49" s="75">
         <f>B36</f>
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C49" s="83" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="74" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B50" s="75">
         <f>B37</f>
         <v>1</v>
       </c>
       <c r="C50" s="83" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="74" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B51" s="75">
         <f>B49-0.4</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C51" s="75">
         <v>0.3</v>
@@ -2863,7 +3732,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="74" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B52" s="75">
         <v>20</v>
@@ -2894,7 +3763,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B56" s="44">
         <v>2</v>
@@ -2903,31 +3772,31 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B57" s="44">
         <f>B36</f>
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B58" s="44">
         <f>B37</f>
         <v>1</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B59" s="44">
         <v>1</v>
@@ -2938,7 +3807,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B60" s="44">
         <v>2</v>
@@ -2967,14 +3836,14 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B63" s="44">
         <f>B33</f>
         <v>30</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3274,11 +4143,252 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="87"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="87"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B23">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/korbinian/examples/settings/korbinian_run_settings_schweris_mp.xlsx
+++ b/korbinian/examples/settings/korbinian_run_settings_schweris_mp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="3375" windowWidth="14265" windowHeight="7440"/>
+    <workbookView xWindow="3195" yWindow="3435" windowWidth="14265" windowHeight="7380" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="run_settings" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="variables" sheetId="2" r:id="rId3"/>
     <sheet name="figs_settings" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="237">
   <si>
     <t>protein_lists</t>
   </si>
@@ -601,12 +601,6 @@
     <t>run_calc_fastagap_densities</t>
   </si>
   <si>
-    <t>save_fig_to_pdf</t>
-  </si>
-  <si>
-    <t>save_fig_to_png</t>
-  </si>
-  <si>
     <t>Fig01_Histogram_of_mean_AAIMON_and_AASMON_ratios_SP_vs_MP</t>
   </si>
   <si>
@@ -634,9 +628,6 @@
     <t>Fig08_Scattergram_comparing_total_number_of_simap_hits_with_mean_AAIMON</t>
   </si>
   <si>
-    <t>note_that_the_total_hits_comes_from_SIMAP,_so_this_doesn't_say_anything_about_how_much_data_is_available_for_each_protein</t>
-  </si>
-  <si>
     <t>Fig09_Histogram_of_mean_AAIMON_ratios_for_each_TMD_separately</t>
   </si>
   <si>
@@ -674,13 +665,76 @@
   </si>
   <si>
     <t>Fig21_Boxplot_only_GPCRs</t>
+  </si>
+  <si>
+    <t>cutoff_max_characterising_each_homol_TMD</t>
+  </si>
+  <si>
+    <t>cutoff_min_characterising_each_homol_TMD</t>
+  </si>
+  <si>
+    <t>specify_number_of_bins_characterising_TMDs</t>
+  </si>
+  <si>
+    <t>100 is equivalent to one bin every 1% identity</t>
+  </si>
+  <si>
+    <t>save_df_characterising_each_homol_TMD</t>
+  </si>
+  <si>
+    <t>"run_gather_AAIMON_ratios = TRUE" is required!!  AAIMON and AAIMON_n of each TMD and homologue is saved as zipped pickle, a second df is saved containing binned data in 1% identity steps and 95% confidence intervals</t>
+  </si>
+  <si>
+    <t>note_that_the_total_hits_comes_from_SIMAP,_so_this_doesn't_say_anything_about_how_much_data_is_available_for_each_protein; total_hits = n_homol_TM01</t>
+  </si>
+  <si>
+    <t>Fig22_Boxplot_comparing_number_of_TMDs_with_mean_AAIMON</t>
+  </si>
+  <si>
+    <t>Fig23_Boxplot_comparing_seqlen_with_mean_AAIMON</t>
+  </si>
+  <si>
+    <t>Email settings</t>
+  </si>
+  <si>
+    <t>send_email_when_finished</t>
+  </si>
+  <si>
+    <t>send_email_to</t>
+  </si>
+  <si>
+    <t>email_message</t>
+  </si>
+  <si>
+    <t>mark.teese@tum.de</t>
+  </si>
+  <si>
+    <t>Your korbinian run has finished.</t>
+  </si>
+  <si>
+    <t>save_pdf</t>
+  </si>
+  <si>
+    <t>save_png</t>
+  </si>
+  <si>
+    <t>Fig98_Scatterplot_AAIMON_vs_perc_ident_all_homol_all_proteins</t>
+  </si>
+  <si>
+    <t>Fig99_Linegraph_CI_95_AAIMON_vs_perc_ident_all_homol_all_proteins</t>
+  </si>
+  <si>
+    <t>min_n_homol_for_figs</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -711,8 +765,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -863,6 +925,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -873,10 +941,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1068,11 +1137,260 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="67">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1610,10 +1928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF46"/>
+  <dimension ref="A1:AF48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,7 +1993,7 @@
         <v>166</v>
       </c>
       <c r="B3" s="37">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="C3" s="54" t="s">
         <v>6</v>
@@ -2246,7 +2564,7 @@
         <v>122</v>
       </c>
       <c r="B21" s="70" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>11</v>
@@ -2461,7 +2779,7 @@
         <v>91</v>
       </c>
       <c r="B30" s="70" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>54</v>
@@ -2538,12 +2856,14 @@
     </row>
     <row r="32" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="B32" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="25"/>
+      <c r="C32" s="25" t="s">
+        <v>221</v>
+      </c>
       <c r="D32" s="62"/>
       <c r="E32" s="62"/>
       <c r="F32" s="62"/>
@@ -2576,7 +2896,7 @@
     </row>
     <row r="33" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B33" s="70" t="s">
         <v>5</v>
@@ -2613,9 +2933,13 @@
       <c r="AF33" s="62"/>
     </row>
     <row r="34" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="62"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="62"/>
+      <c r="A34" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="25"/>
       <c r="D34" s="62"/>
       <c r="E34" s="62"/>
       <c r="F34" s="62"/>
@@ -2647,11 +2971,9 @@
       <c r="AF34" s="62"/>
     </row>
     <row r="35" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="60"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="62"/>
       <c r="E35" s="62"/>
       <c r="F35" s="62"/>
@@ -2683,15 +3005,11 @@
       <c r="AF35" s="62"/>
     </row>
     <row r="36" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="61" t="s">
-        <v>56</v>
-      </c>
+      <c r="A36" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="45"/>
+      <c r="C36" s="60"/>
       <c r="D36" s="62"/>
       <c r="E36" s="62"/>
       <c r="F36" s="62"/>
@@ -2722,15 +3040,15 @@
       <c r="AE36" s="62"/>
       <c r="AF36" s="62"/>
     </row>
-    <row r="37" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B37" s="70" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37" s="61" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D37" s="62"/>
       <c r="E37" s="62"/>
@@ -2762,16 +3080,29 @@
       <c r="AE37" s="62"/>
       <c r="AF37" s="62"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B38" s="70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" s="61" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
       <c r="Q38" s="62"/>
       <c r="R38" s="62"/>
       <c r="S38" s="62"/>
@@ -2790,8 +3121,15 @@
       <c r="AF38" s="62"/>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A39" s="62"/>
-      <c r="C39" s="62"/>
+      <c r="A39" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="61" t="s">
+        <v>15</v>
+      </c>
       <c r="Q39" s="62"/>
       <c r="R39" s="62"/>
       <c r="S39" s="62"/>
@@ -2809,29 +3147,9 @@
       <c r="AE39" s="62"/>
       <c r="AF39" s="62"/>
     </row>
-    <row r="40" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="85" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A40" s="62"/>
+      <c r="C40" s="62"/>
       <c r="Q40" s="62"/>
       <c r="R40" s="62"/>
       <c r="S40" s="62"/>
@@ -2851,12 +3169,14 @@
     </row>
     <row r="41" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="85" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="B41" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="86"/>
+      <c r="C41" s="86" t="s">
+        <v>55</v>
+      </c>
       <c r="D41" s="62"/>
       <c r="E41" s="62"/>
       <c r="F41" s="62"/>
@@ -2887,14 +3207,27 @@
       <c r="AE41" s="62"/>
       <c r="AF41" s="62"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>93</v>
+    <row r="42" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="85" t="s">
+        <v>176</v>
       </c>
       <c r="B42" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="86"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="62"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="62"/>
       <c r="Q42" s="62"/>
       <c r="R42" s="62"/>
       <c r="S42" s="62"/>
@@ -2913,6 +3246,13 @@
       <c r="AF42" s="62"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="86"/>
       <c r="Q43" s="62"/>
       <c r="R43" s="62"/>
       <c r="S43" s="62"/>
@@ -2948,7 +3288,25 @@
       <c r="AE44" s="62"/>
       <c r="AF44" s="62"/>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="B45" s="90"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="62"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="62"/>
       <c r="Q45" s="62"/>
       <c r="R45" s="62"/>
       <c r="S45" s="62"/>
@@ -2967,6 +3325,12 @@
       <c r="AF45" s="62"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A46" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="Q46" s="62"/>
       <c r="R46" s="62"/>
       <c r="S46" s="62"/>
@@ -2984,129 +3348,195 @@
       <c r="AE46" s="62"/>
       <c r="AF46" s="62"/>
     </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="B47" s="92" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="62"/>
+      <c r="S47" s="62"/>
+      <c r="T47" s="62"/>
+      <c r="U47" s="62"/>
+      <c r="V47" s="62"/>
+      <c r="W47" s="62"/>
+      <c r="X47" s="62"/>
+      <c r="Y47" s="62"/>
+      <c r="Z47" s="62"/>
+      <c r="AA47" s="62"/>
+      <c r="AB47" s="62"/>
+      <c r="AC47" s="62"/>
+      <c r="AD47" s="62"/>
+      <c r="AE47" s="62"/>
+      <c r="AF47" s="62"/>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A48" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q48" s="62"/>
+      <c r="R48" s="62"/>
+      <c r="S48" s="62"/>
+      <c r="T48" s="62"/>
+      <c r="U48" s="62"/>
+      <c r="V48" s="62"/>
+      <c r="W48" s="62"/>
+      <c r="X48" s="62"/>
+      <c r="Y48" s="62"/>
+      <c r="Z48" s="62"/>
+      <c r="AA48" s="62"/>
+      <c r="AB48" s="62"/>
+      <c r="AC48" s="62"/>
+      <c r="AD48" s="62"/>
+      <c r="AE48" s="62"/>
+      <c r="AF48" s="62"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1 B6 B43:B1048576">
-    <cfRule type="containsText" dxfId="32" priority="733" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="B1 B6 B44 B49:B1048576">
+    <cfRule type="containsText" dxfId="60" priority="766" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="containsText" dxfId="31" priority="731" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="59" priority="764" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="30" priority="730" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="58" priority="763" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="containsText" dxfId="29" priority="729" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B34)))</formula>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="containsText" dxfId="57" priority="762" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
-    <cfRule type="containsText" dxfId="28" priority="728" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B39)))</formula>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="containsText" dxfId="56" priority="761" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B40)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38 B17:B18">
-    <cfRule type="containsText" dxfId="27" priority="727" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="B39 B17:B18">
+    <cfRule type="containsText" dxfId="55" priority="760" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="containsText" dxfId="26" priority="651" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="54" priority="684" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="containsText" dxfId="25" priority="536" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="53" priority="569" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="24" priority="535" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="52" priority="568" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="containsText" dxfId="23" priority="423" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="51" priority="456" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="22" priority="378" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="50" priority="411" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="21" priority="329" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="49" priority="362" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="20" priority="223" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="48" priority="256" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="containsText" dxfId="19" priority="116" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B36)))</formula>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="containsText" dxfId="47" priority="149" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="containsText" dxfId="18" priority="43" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="46" priority="76" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40:B42">
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B30)))</formula>
+  <conditionalFormatting sqref="B41:B43">
+    <cfRule type="containsText" dxfId="44" priority="42" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="43" priority="39" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="42" priority="38" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B28)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B33">
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="B34">
+    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="containsText" dxfId="39" priority="33" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="containsText" dxfId="35" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B32)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="containsText" dxfId="31" priority="9" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:B48">
+    <cfRule type="containsText" dxfId="26" priority="4" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B31)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B47" r:id="rId1" display="martin.ortner@tum.de"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3227,17 +3657,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3248,10 +3678,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4010,140 +4440,169 @@
       </c>
       <c r="C82" s="61"/>
     </row>
-    <row r="84" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="26" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B83" s="46">
+        <v>4500</v>
+      </c>
+      <c r="C83" s="61"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B84" s="46">
+        <v>50</v>
+      </c>
+      <c r="C84" s="61"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B85" s="46">
+        <v>100</v>
+      </c>
+      <c r="C85" s="61" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B84" s="48"/>
-      <c r="C84" s="27"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B85" s="49">
-        <v>0</v>
-      </c>
-      <c r="C85" s="29"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B86" s="49">
-        <v>-12</v>
-      </c>
-      <c r="C86" s="29"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B87" s="49">
-        <v>-2</v>
-      </c>
-      <c r="C87" s="29"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="27"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B88" s="49" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="B88" s="49">
+        <v>0</v>
       </c>
       <c r="C88" s="29"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B89" s="49">
-        <v>-0.2</v>
+        <v>-12</v>
       </c>
       <c r="C89" s="29"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B90" s="49">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C90" s="29"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B91" s="49">
-        <v>-1</v>
+        <v>35</v>
+      </c>
+      <c r="B91" s="49" t="s">
+        <v>40</v>
       </c>
       <c r="C91" s="29"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B92" s="49">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="C92" s="29"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B93" s="49">
+        <v>-1</v>
+      </c>
+      <c r="C93" s="29"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B94" s="49">
+        <v>-1</v>
+      </c>
+      <c r="C94" s="29"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95" s="49">
+        <v>0</v>
+      </c>
+      <c r="C95" s="29"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B93" s="49" t="s">
+      <c r="B96" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C93" s="29"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="34" t="s">
+      <c r="C96" s="29"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B95" s="50"/>
-      <c r="C95" s="30"/>
-    </row>
-    <row r="96" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
+      <c r="B98" s="50"/>
+      <c r="C98" s="30"/>
+    </row>
+    <row r="99" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B96" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="33"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
+      <c r="B99" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="33"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B97" s="51">
-        <v>5</v>
-      </c>
-      <c r="C97" s="33"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
+      <c r="B100" s="51">
+        <v>5</v>
+      </c>
+      <c r="C100" s="33"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B98" s="51" t="s">
+      <c r="B101" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C98" s="33"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
+      <c r="C101" s="33"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="51" t="s">
+      <c r="B102" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C99" s="51"/>
+      <c r="C102" s="51"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4154,239 +4613,417 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.5703125" customWidth="1"/>
+    <col min="1" max="1" width="77.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="B2" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="87"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="70"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="B3" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="87"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="70"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="88" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="70">
+        <v>50</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B5" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>199</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B9" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>212</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B29" s="70" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" s="70" t="s">
+      <c r="C29" s="70" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B8" s="70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B9" s="70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B10" s="70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>204</v>
-      </c>
-      <c r="B11" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B12" s="70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B13" s="70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B14" s="70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>209</v>
-      </c>
-      <c r="B15" s="70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>210</v>
-      </c>
-      <c r="B16" s="70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B17" s="70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>212</v>
-      </c>
-      <c r="B18" s="70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>213</v>
-      </c>
-      <c r="B19" s="70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>214</v>
-      </c>
-      <c r="B20" s="70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>215</v>
-      </c>
-      <c r="B21" s="70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B22" s="70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>217</v>
-      </c>
-      <c r="B23" s="70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>218</v>
-      </c>
-      <c r="B24" s="70" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="B1:C1">
+    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B23">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B4)))</formula>
+  <conditionalFormatting sqref="B2:C4">
+    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B24)))</formula>
+  <conditionalFormatting sqref="B5:C5">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B2)))</formula>
+  <conditionalFormatting sqref="B6:C27">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:C28">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/korbinian/examples/settings/korbinian_run_settings_schweris_mp.xlsx
+++ b/korbinian/examples/settings/korbinian_run_settings_schweris_mp.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="585" windowWidth="25605" windowHeight="14535"/>
+    <workbookView xWindow="0" yWindow="645" windowWidth="25605" windowHeight="14475"/>
   </bookViews>
   <sheets>
-    <sheet name="run_settings" sheetId="1" r:id="rId1"/>
-    <sheet name="file_locations" sheetId="3" r:id="rId2"/>
+    <sheet name="run" sheetId="1" r:id="rId1"/>
+    <sheet name="files" sheetId="3" r:id="rId2"/>
     <sheet name="variables" sheetId="2" r:id="rId3"/>
-    <sheet name="figs_settings" sheetId="4" r:id="rId4"/>
+    <sheet name="figs" sheetId="4" r:id="rId4"/>
+    <sheet name="lists" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="243">
   <si>
     <t>protein_lists</t>
   </si>
@@ -69,9 +70,6 @@
     <t>If "TRUE", figures will be created describing the AAIMON ratios (and other variables) of the list of proteins.</t>
   </si>
   <si>
-    <t>If "TRUE", two or more protein lists will be compared (e.g. single-pass vs multi-pass), and a number of figures created and saved.</t>
-  </si>
-  <si>
     <t>uniref_cluster_cutoff</t>
   </si>
   <si>
@@ -87,9 +85,6 @@
     <t>overwrite_csv_file_av_cons_ratios_hits</t>
   </si>
   <si>
-    <t>["patent","Patent","synthetic","Synthetic","artificial","Artificial","bad sequence","low quality"]</t>
-  </si>
-  <si>
     <t>gap_open_penalty_min</t>
   </si>
   <si>
@@ -177,9 +172,6 @@
     <t xml:space="preserve">Java Executable String (usually "java", or %JAVAJRE%, depending on java_home settings in Windows). </t>
   </si>
   <si>
-    <t>UniProt non-redundancy parameters</t>
-  </si>
-  <si>
     <t>SIMAP homologue download parameters</t>
   </si>
   <si>
@@ -240,33 +232,6 @@
     <t>Analysis run settings</t>
   </si>
   <si>
-    <t>run_parse_large_flatfile_with_list_uniprot_accessions</t>
-  </si>
-  <si>
-    <t>run_retrieve_uniprot_data_for_acc_list_in_xlsx_file</t>
-  </si>
-  <si>
-    <t>run_create_csv_from_uniprot_flatfile</t>
-  </si>
-  <si>
-    <t>run_parse_simap_to_csv</t>
-  </si>
-  <si>
-    <t>run_calculate_AAIMON_ratios</t>
-  </si>
-  <si>
-    <t>run_calculate_gap_densities</t>
-  </si>
-  <si>
-    <t>run_create_graph_of_gap_density</t>
-  </si>
-  <si>
-    <t>run_save_figures_describing_proteins_in_list</t>
-  </si>
-  <si>
-    <t>run_compare_lists</t>
-  </si>
-  <si>
     <t>parameter</t>
   </si>
   <si>
@@ -342,12 +307,6 @@
     <t>do you want redundant selected (e.g. TMD) sequences to be removed before saving to fasta</t>
   </si>
   <si>
-    <t>run_setup_df_file_locations</t>
-  </si>
-  <si>
-    <t>run_create_fasta</t>
-  </si>
-  <si>
     <t>slice_juxtamembrane_regions</t>
   </si>
   <si>
@@ -423,9 +382,6 @@
     <t>Number of amino acids after the TMD, for slicing "TMD_plus_surr" sequence.</t>
   </si>
   <si>
-    <t>homologue parsing and slicing settings</t>
-  </si>
-  <si>
     <t>cr_min_identity_of_full_protein</t>
   </si>
   <si>
@@ -435,9 +391,6 @@
     <t>Mark Teese</t>
   </si>
   <si>
-    <t>run_gather_AAIMON_ratios</t>
-  </si>
-  <si>
     <t>overwrite_simap_parsed_to_csv</t>
   </si>
   <si>
@@ -468,9 +421,6 @@
     <t>D:\Databases\simap</t>
   </si>
   <si>
-    <t>run_download_homologues</t>
-  </si>
-  <si>
     <t>OMPdb_get_TM_indices_and_slice</t>
   </si>
   <si>
@@ -483,9 +433,6 @@
     <t>Only for comparing two or more protein lists. Here you can name the protein lists that you are analysing.</t>
   </si>
   <si>
-    <t>run_slice_TMDs_from_homologues</t>
-  </si>
-  <si>
     <t>Number of concurrent processes to be run, using multiple CPU cores if available.</t>
   </si>
   <si>
@@ -504,9 +451,6 @@
     <t>gap_allowed_gaps_per_tmd</t>
   </si>
   <si>
-    <t>run_gather_gap_densities</t>
-  </si>
-  <si>
     <t>fa_max_n_gaps_in_match_TMD_plus_surr</t>
   </si>
   <si>
@@ -519,9 +463,6 @@
     <t>fa_min_n_gaps_in_match_TMD_plus_surr</t>
   </si>
   <si>
-    <t>run_fastagap_save</t>
-  </si>
-  <si>
     <t>cr_max_n_gaps_in_TMD</t>
   </si>
   <si>
@@ -555,9 +496,6 @@
     <t>D:\Databases\programs\clustal-omega\clustalo.exe</t>
   </si>
   <si>
-    <t>run_calc_fastagap_densities</t>
-  </si>
-  <si>
     <t>Fig01_Histogram_of_mean_AAIMON_and_AASMON_ratios_SP_vs_MP</t>
   </si>
   <si>
@@ -687,9 +625,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>run_filter_truncated_alignments</t>
-  </si>
-  <si>
     <t>run_keyword_analysis</t>
   </si>
   <si>
@@ -733,6 +668,90 @@
   </si>
   <si>
     <t>Special analysis settings</t>
+  </si>
+  <si>
+    <t>["patent","synthetic","artificial","bad sequence","low quality"]</t>
+  </si>
+  <si>
+    <t>Protein list non-redundancy parameters</t>
+  </si>
+  <si>
+    <t>Homologue parsing and slicing settings</t>
+  </si>
+  <si>
+    <t>OMPdb_topology_reliability_cutoff</t>
+  </si>
+  <si>
+    <t>gather_pretty_alignments</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>max_lipo_list</t>
+  </si>
+  <si>
+    <t>max_lipo_homol</t>
+  </si>
+  <si>
+    <t>min_homol</t>
+  </si>
+  <si>
+    <t>rand_TM</t>
+  </si>
+  <si>
+    <t>rand_nonTM</t>
+  </si>
+  <si>
+    <t>prepare_protein_list</t>
+  </si>
+  <si>
+    <t>download_homologues</t>
+  </si>
+  <si>
+    <t>parse_large_flatfile_with_list_uniprot_accessions</t>
+  </si>
+  <si>
+    <t>retrieve_uniprot_data_for_acc_list_in_xlsx_file</t>
+  </si>
+  <si>
+    <t>create_csv_from_uniprot_flatfile</t>
+  </si>
+  <si>
+    <t>parse_simap_to_csv</t>
+  </si>
+  <si>
+    <t>slice_TMDs_from_homologues</t>
+  </si>
+  <si>
+    <t>calculate_AAIMON_ratios</t>
+  </si>
+  <si>
+    <t>gather_AAIMON_ratios</t>
+  </si>
+  <si>
+    <t>save_figures_describing_proteins_in_list</t>
+  </si>
+  <si>
+    <t>filter_truncated_alignments</t>
+  </si>
+  <si>
+    <t>create_fasta</t>
+  </si>
+  <si>
+    <t>save_fastagap</t>
+  </si>
+  <si>
+    <t>calc_fastagap_densities</t>
+  </si>
+  <si>
+    <t>create_graph_of_gap_density</t>
+  </si>
+  <si>
+    <t>calculate_gap_densities</t>
+  </si>
+  <si>
+    <t>gather_gap_densities</t>
   </si>
 </sst>
 </file>
@@ -1853,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" activeCellId="3" sqref="B20:B21 B24:B25 B25 B28:B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1869,13 +1888,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" s="84"/>
       <c r="E1" s="84"/>
@@ -1893,7 +1912,7 @@
     </row>
     <row r="2" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="52"/>
@@ -1913,10 +1932,10 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B3" s="36">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C3" s="53" t="s">
         <v>6</v>
@@ -1946,7 +1965,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="61"/>
       <c r="R4" s="61"/>
@@ -1973,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="61"/>
       <c r="R5" s="61"/>
@@ -1997,7 +2016,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B7" s="47"/>
       <c r="C7" s="26"/>
@@ -2020,13 +2039,13 @@
     </row>
     <row r="8" spans="1:32" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D8" s="61"/>
       <c r="E8" s="61"/>
@@ -2060,13 +2079,13 @@
     </row>
     <row r="9" spans="1:32" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B9" s="69">
         <v>14</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D9" s="61"/>
       <c r="E9" s="61"/>
@@ -2100,13 +2119,13 @@
     </row>
     <row r="10" spans="1:32" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D10" s="61"/>
       <c r="E10" s="61"/>
@@ -2140,13 +2159,13 @@
     </row>
     <row r="11" spans="1:32" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D11" s="61"/>
       <c r="E11" s="61"/>
@@ -2200,7 +2219,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B13" s="38"/>
       <c r="C13" s="54"/>
@@ -2223,7 +2242,7 @@
     </row>
     <row r="14" spans="1:32" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B14" s="69" t="s">
         <v>5</v>
@@ -2261,7 +2280,7 @@
     </row>
     <row r="15" spans="1:32" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B15" s="69" t="s">
         <v>5</v>
@@ -2299,13 +2318,13 @@
     </row>
     <row r="16" spans="1:32" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B16" s="69" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="D16" s="61"/>
       <c r="E16" s="61"/>
@@ -2339,7 +2358,7 @@
     </row>
     <row r="17" spans="1:32" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>72</v>
+        <v>228</v>
       </c>
       <c r="B17" s="69" t="s">
         <v>5</v>
@@ -2379,7 +2398,7 @@
     </row>
     <row r="18" spans="1:32" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="B18" s="69" t="s">
         <v>5</v>
@@ -2419,7 +2438,7 @@
     </row>
     <row r="19" spans="1:32" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B19" s="69" t="s">
         <v>5</v>
@@ -2459,7 +2478,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="B20" s="69" t="s">
         <v>5</v>
@@ -2486,10 +2505,10 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>106</v>
+        <v>226</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>11</v>
@@ -2533,7 +2552,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B23" s="40"/>
       <c r="C23" s="56"/>
@@ -2556,7 +2575,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="63" t="s">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="B24" s="69" t="s">
         <v>5</v>
@@ -2583,7 +2602,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="65" t="s">
-        <v>75</v>
+        <v>231</v>
       </c>
       <c r="B25" s="69" t="s">
         <v>5</v>
@@ -2614,20 +2633,20 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="58"/>
     </row>
     <row r="28" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="B28" s="69" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D28" s="61"/>
       <c r="E28" s="61"/>
@@ -2661,13 +2680,13 @@
     </row>
     <row r="29" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D29" s="61"/>
       <c r="E29" s="61"/>
@@ -2701,13 +2720,13 @@
     </row>
     <row r="30" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>137</v>
+        <v>234</v>
       </c>
       <c r="B30" s="69" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D30" s="61"/>
       <c r="E30" s="61"/>
@@ -2741,13 +2760,13 @@
     </row>
     <row r="31" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="B31" s="69" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="D31" s="61"/>
       <c r="E31" s="61"/>
@@ -2781,7 +2800,7 @@
     </row>
     <row r="32" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="B32" s="69" t="s">
         <v>5</v>
@@ -2819,10 +2838,10 @@
     </row>
     <row r="33" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="B33" s="69" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" s="24" t="s">
         <v>14</v>
@@ -2893,7 +2912,7 @@
     </row>
     <row r="35" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B35" s="44"/>
       <c r="C35" s="59"/>
@@ -2929,7 +2948,7 @@
     </row>
     <row r="36" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B36" s="69" t="s">
         <v>5</v>
@@ -2967,14 +2986,12 @@
     </row>
     <row r="37" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="B37" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="60" t="s">
-        <v>43</v>
-      </c>
+      <c r="C37" s="60"/>
       <c r="D37" s="61"/>
       <c r="E37" s="61"/>
       <c r="F37" s="61"/>
@@ -3007,12 +3024,14 @@
     </row>
     <row r="38" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="B38" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="60"/>
+      <c r="C38" s="60" t="s">
+        <v>41</v>
+      </c>
       <c r="D38" s="61"/>
       <c r="E38" s="61"/>
       <c r="F38" s="61"/>
@@ -3045,7 +3064,7 @@
     </row>
     <row r="39" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="B39" s="69" t="s">
         <v>5</v>
@@ -3083,14 +3102,12 @@
     </row>
     <row r="40" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="60" t="s">
-        <v>45</v>
-      </c>
+      <c r="C40" s="60"/>
       <c r="D40" s="61"/>
       <c r="E40" s="61"/>
       <c r="F40" s="61"/>
@@ -3123,13 +3140,13 @@
     </row>
     <row r="41" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="B41" s="69" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D41" s="61"/>
       <c r="E41" s="61"/>
@@ -3163,12 +3180,14 @@
     </row>
     <row r="42" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="B42" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="60"/>
+      <c r="C42" s="60" t="s">
+        <v>42</v>
+      </c>
       <c r="D42" s="61"/>
       <c r="E42" s="61"/>
       <c r="F42" s="61"/>
@@ -3199,14 +3218,27 @@
       <c r="AE42" s="61"/>
       <c r="AF42" s="61"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="B43" s="69" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="60"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="61"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="61"/>
       <c r="Q43" s="61"/>
       <c r="R43" s="61"/>
       <c r="S43" s="61"/>
@@ -3226,14 +3258,12 @@
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="B44" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="60" t="s">
-        <v>15</v>
-      </c>
+      <c r="C44" s="60"/>
       <c r="Q44" s="61"/>
       <c r="R44" s="61"/>
       <c r="S44" s="61"/>
@@ -3271,7 +3301,7 @@
     </row>
     <row r="46" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="86" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="B46" s="87"/>
       <c r="C46" s="88"/>
@@ -3307,7 +3337,7 @@
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="61" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="B47" s="69" t="s">
         <v>5</v>
@@ -3331,10 +3361,10 @@
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="61" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B48" s="89" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="Q48" s="61"/>
       <c r="R48" s="61"/>
@@ -3355,10 +3385,10 @@
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="61" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="Q49" s="61"/>
       <c r="R49" s="61"/>
@@ -3378,92 +3408,112 @@
       <c r="AF49" s="61"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1 B6 B50:B1048576 B33 B37:B45">
-    <cfRule type="containsText" dxfId="40" priority="895" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="B1 B6 B50:B1048576 B38:B45">
+    <cfRule type="containsText" dxfId="56" priority="979" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="containsText" dxfId="39" priority="893" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="55" priority="977" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="38" priority="892" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="54" priority="976" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="containsText" dxfId="37" priority="891" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="53" priority="975" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44 B17:B18">
-    <cfRule type="containsText" dxfId="36" priority="889" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="B17:B18">
+    <cfRule type="containsText" dxfId="52" priority="973" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="containsText" dxfId="35" priority="698" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="51" priority="782" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="34" priority="697" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="50" priority="781" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="containsText" dxfId="33" priority="585" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="49" priority="669" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="containsText" dxfId="32" priority="205" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="31" priority="175" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="48" priority="259" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:B43">
-    <cfRule type="containsText" dxfId="30" priority="171" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B41)))</formula>
+  <conditionalFormatting sqref="B42:B44">
+    <cfRule type="containsText" dxfId="47" priority="255" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B49">
-    <cfRule type="containsText" dxfId="29" priority="133" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="46" priority="217" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="28" priority="103" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="45" priority="187" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B15)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="containsText" dxfId="43" priority="64" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="containsText" dxfId="42" priority="47" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="27" priority="44" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="41" priority="45" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="containsText" dxfId="26" priority="10" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="24" priority="14" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="40" priority="33" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="31" priority="12" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B32 B24:B25 B20:B21">
+  <conditionalFormatting sqref="B21">
+    <cfRule type="containsText" dxfId="29" priority="8" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:B25">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:B33">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B20)))</formula>
     </cfRule>
@@ -3493,117 +3543,117 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="54"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B10" s="69" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B11" s="69" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3614,10 +3664,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3629,72 +3679,72 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="52"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="36">
         <v>50</v>
       </c>
       <c r="C3" s="53"/>
     </row>
-    <row r="4" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="37"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="54"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="36">
+        <v>85</v>
+      </c>
+      <c r="C4" s="53"/>
+    </row>
+    <row r="5" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="37"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="55"/>
+      <c r="A6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="54"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="55"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="55"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>5</v>
@@ -3703,87 +3753,87 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="39">
-        <v>2000</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>42</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="55"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11" s="39">
-        <v>5000</v>
-      </c>
-      <c r="C11" s="55"/>
+        <v>2000</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" s="39">
-        <v>3000</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>234</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="C12" s="55"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="39">
+        <v>3000</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>118</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="55"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>235</v>
+        <v>34</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C15" s="55"/>
     </row>
-    <row r="16" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="37"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="77"/>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="55"/>
+    </row>
+    <row r="17" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="37"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="78" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="80"/>
+      <c r="A18" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="76"/>
+      <c r="C18" s="77"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="78" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B19" s="79" t="s">
         <v>4</v>
@@ -3792,120 +3842,120 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="79" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="80"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="79" t="s">
-        <v>21</v>
+        <v>94</v>
+      </c>
+      <c r="B21" s="81" t="s">
+        <v>4</v>
       </c>
       <c r="C21" s="80"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="79">
-        <v>30</v>
-      </c>
-      <c r="C22" s="80" t="s">
-        <v>131</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B22" s="79" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="80"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="78" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B23" s="79">
         <v>30</v>
       </c>
       <c r="C23" s="80" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" s="79" t="b">
+        <v>116</v>
+      </c>
+      <c r="B24" s="79">
+        <v>30</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="79" t="b">
         <v>0</v>
       </c>
-      <c r="C24" s="80"/>
-    </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="37"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="56"/>
+      <c r="C25" s="80"/>
+    </row>
+    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="37"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="57" t="s">
-        <v>104</v>
-      </c>
+      <c r="A27" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="40"/>
+      <c r="C27" s="56"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B28" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="57" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B29" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="57" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="B30" s="83">
-        <v>30</v>
+        <v>84</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>4</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>174</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="41">
-        <v>2</v>
-      </c>
-      <c r="C31" s="57"/>
+        <v>150</v>
+      </c>
+      <c r="B31" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B32" s="41">
         <v>2</v>
@@ -3914,38 +3964,38 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="83">
-        <v>0.4</v>
-      </c>
-      <c r="C33" s="57" t="s">
-        <v>102</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B33" s="41">
+        <v>2</v>
+      </c>
+      <c r="C33" s="57"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="83">
+        <v>0.4</v>
+      </c>
+      <c r="C34" s="57" t="s">
         <v>90</v>
-      </c>
-      <c r="B34" s="83">
-        <v>1</v>
-      </c>
-      <c r="C34" s="57" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="57"/>
+        <v>78</v>
+      </c>
+      <c r="B35" s="83">
+        <v>1</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B36" s="41" t="s">
         <v>5</v>
@@ -3953,526 +4003,526 @@
       <c r="C36" s="57"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="56"/>
+      <c r="A37" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="57"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="57"/>
+      <c r="A38" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="40"/>
+      <c r="C38" s="56"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B39" s="41">
-        <v>1</v>
+        <v>144</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>4</v>
       </c>
       <c r="C39" s="57"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B40" s="41">
+        <v>1</v>
+      </c>
+      <c r="C40" s="57"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="41">
         <v>6</v>
       </c>
-      <c r="C40" s="57"/>
-    </row>
-    <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="37"/>
-      <c r="C41" s="8"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="71"/>
-      <c r="C42" s="72"/>
+      <c r="C41" s="57"/>
+    </row>
+    <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="37"/>
+      <c r="C42" s="8"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="74" t="s">
-        <v>4</v>
-      </c>
+      <c r="A43" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="71"/>
+      <c r="C43" s="72"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="73" t="s">
-        <v>166</v>
-      </c>
-      <c r="B44" s="74">
-        <v>2</v>
-      </c>
-      <c r="C44" s="74">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="B44" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="74" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="73" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="B45" s="74">
-        <f>B30</f>
-        <v>30</v>
-      </c>
-      <c r="C45" s="82" t="s">
-        <v>171</v>
+        <v>2</v>
+      </c>
+      <c r="C45" s="74">
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="73" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="B46" s="74">
-        <f>B33</f>
-        <v>0.4</v>
+        <f>B31</f>
+        <v>0.5</v>
       </c>
       <c r="C46" s="82" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="73" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B47" s="74">
         <f>B34</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C47" s="82" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="73" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="B48" s="74">
-        <f>B46-0.4</f>
-        <v>0</v>
-      </c>
-      <c r="C48" s="74">
-        <v>0.3</v>
+        <f>B35</f>
+        <v>1</v>
+      </c>
+      <c r="C48" s="82" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="73" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B49" s="74">
+        <f>B47-0.4</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="74">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="74">
         <v>20</v>
       </c>
-      <c r="C49" s="74">
+      <c r="C50" s="74">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="37"/>
-      <c r="C50" s="8"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="58"/>
+    <row r="51" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="37"/>
+      <c r="C51" s="8"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="24"/>
+      <c r="A52" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="42"/>
+      <c r="C52" s="58"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B53" s="43">
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>4</v>
       </c>
       <c r="C53" s="24"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B54" s="43">
-        <f>B33</f>
-        <v>0.4</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>169</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C54" s="24"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B55" s="43">
         <f>B34</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B56" s="43">
+        <f>B35</f>
         <v>1</v>
       </c>
-      <c r="C56" s="24">
-        <v>1</v>
+      <c r="C56" s="24" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B57" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="B58" s="43">
-        <v>24</v>
-      </c>
-      <c r="C58" s="24"/>
+        <v>2</v>
+      </c>
+      <c r="C58" s="24">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B59" s="43">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C59" s="24"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B60" s="43">
-        <f>B30</f>
-        <v>30</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="37"/>
-      <c r="C61" s="8"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" s="44"/>
-      <c r="C62" s="59"/>
-    </row>
-    <row r="63" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B63" s="45">
-        <v>30</v>
-      </c>
-      <c r="C63" s="60"/>
+        <v>20</v>
+      </c>
+      <c r="C60" s="24"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61" s="43">
+        <f>B31</f>
+        <v>0.5</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="37"/>
+      <c r="C62" s="8"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="44"/>
+      <c r="C63" s="59"/>
     </row>
     <row r="64" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="45" t="s">
-        <v>4</v>
+        <v>54</v>
+      </c>
+      <c r="B64" s="45">
+        <v>30</v>
       </c>
       <c r="C64" s="60"/>
     </row>
     <row r="65" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B65" s="45">
-        <v>3.05</v>
+        <v>55</v>
+      </c>
+      <c r="B65" s="45" t="s">
+        <v>4</v>
       </c>
       <c r="C65" s="60"/>
     </row>
     <row r="66" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B66" s="45">
-        <v>20</v>
+        <v>3.05</v>
       </c>
       <c r="C66" s="60"/>
     </row>
     <row r="67" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B67" s="45">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C67" s="60"/>
     </row>
     <row r="68" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B68" s="45" t="s">
-        <v>4</v>
+        <v>57</v>
+      </c>
+      <c r="B68" s="45">
+        <v>31</v>
       </c>
       <c r="C68" s="60"/>
     </row>
     <row r="69" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69" s="60"/>
     </row>
     <row r="70" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B70" s="45">
-        <v>0.05</v>
+        <v>59</v>
+      </c>
+      <c r="B70" s="45" t="s">
+        <v>5</v>
       </c>
       <c r="C70" s="60"/>
     </row>
     <row r="71" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B71" s="45">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="C71" s="60"/>
     </row>
     <row r="72" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B72" s="45" t="s">
-        <v>4</v>
+        <v>61</v>
+      </c>
+      <c r="B72" s="45">
+        <v>3</v>
       </c>
       <c r="C72" s="60"/>
     </row>
     <row r="73" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B73" s="45">
-        <v>1.4550000000000001</v>
+        <v>62</v>
+      </c>
+      <c r="B73" s="45" t="s">
+        <v>4</v>
       </c>
       <c r="C73" s="60"/>
     </row>
     <row r="74" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B74" s="45">
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="C74" s="60"/>
+    </row>
+    <row r="75" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" s="45">
         <v>31</v>
-      </c>
-      <c r="C74" s="60"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B75" s="45" t="s">
-        <v>5</v>
       </c>
       <c r="C75" s="60"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B76" s="45">
-        <v>0.55500000000000005</v>
+        <v>65</v>
+      </c>
+      <c r="B76" s="45" t="s">
+        <v>5</v>
       </c>
       <c r="C76" s="60"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B77" s="45">
-        <v>0.5</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="C77" s="60"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B78" s="45">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="C78" s="60"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B79" s="45" t="s">
-        <v>4</v>
+        <v>75</v>
+      </c>
+      <c r="B79" s="45">
+        <v>1.75</v>
       </c>
       <c r="C79" s="60"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="B80" s="45">
-        <v>4500</v>
+        <v>19</v>
+      </c>
+      <c r="B80" s="45" t="s">
+        <v>4</v>
       </c>
       <c r="C80" s="60"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="B81" s="45">
-        <v>50</v>
+        <v>4500</v>
       </c>
       <c r="C81" s="60"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B82" s="45">
-        <v>100</v>
-      </c>
-      <c r="C82" s="60" t="s">
-        <v>203</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C82" s="60"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="B83" s="45">
-        <v>0.9</v>
+        <v>100</v>
       </c>
       <c r="C83" s="60" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B84" s="45">
-        <v>50</v>
+        <v>0.9</v>
       </c>
       <c r="C84" s="60" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="B85" s="45">
+        <v>50</v>
+      </c>
+      <c r="C85" s="60" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B86" s="45">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C85" s="60" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B87" s="47"/>
-      <c r="C87" s="26"/>
+      <c r="C86" s="60" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B88" s="48">
-        <v>0</v>
-      </c>
-      <c r="C88" s="28"/>
+      <c r="A88" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B88" s="47"/>
+      <c r="C88" s="26"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B89" s="48">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="C89" s="28"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B90" s="48">
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="C90" s="28"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B91" s="48" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="B91" s="48">
+        <v>-2</v>
       </c>
       <c r="C91" s="28"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B92" s="48">
-        <v>-0.2</v>
+        <v>23</v>
+      </c>
+      <c r="B92" s="48" t="s">
+        <v>28</v>
       </c>
       <c r="C92" s="28"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B93" s="48">
-        <v>-1</v>
+        <v>-0.2</v>
       </c>
       <c r="C93" s="28"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B94" s="48">
         <v>-1</v>
@@ -4481,42 +4531,51 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B95" s="48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C95" s="28"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B96" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="B96" s="48">
+        <v>0</v>
       </c>
       <c r="C96" s="28"/>
     </row>
-    <row r="97" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97"/>
-      <c r="B97" s="46"/>
-      <c r="C97" s="5"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B98" s="49"/>
-      <c r="C98" s="29"/>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B97" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" s="28"/>
+    </row>
+    <row r="98" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98"/>
+      <c r="B98" s="46"/>
+      <c r="C98" s="5"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
-      <c r="B99" s="50"/>
-      <c r="C99" s="32"/>
+      <c r="A99" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B99" s="49"/>
+      <c r="C99" s="29"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="11"/>
+      <c r="B100" s="50"/>
+      <c r="C100" s="32"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4529,8 +4588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4542,21 +4601,21 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="85" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="B2" s="69" t="s">
         <v>5</v>
@@ -4579,7 +4638,7 @@
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="85" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="B3" s="69" t="s">
         <v>4</v>
@@ -4602,7 +4661,7 @@
     </row>
     <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="85" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="B4" s="69">
         <v>50</v>
@@ -4625,7 +4684,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="B5" s="69" t="s">
         <v>4</v>
@@ -4636,7 +4695,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>4</v>
@@ -4645,12 +4704,12 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B7" s="69" t="s">
         <v>4</v>
@@ -4661,7 +4720,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="B8" s="69" t="s">
         <v>4</v>
@@ -4672,7 +4731,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B9" s="69" t="s">
         <v>4</v>
@@ -4683,7 +4742,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B10" s="69" t="s">
         <v>4</v>
@@ -4694,7 +4753,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B11" s="69" t="s">
         <v>4</v>
@@ -4705,7 +4764,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B12" s="69" t="s">
         <v>4</v>
@@ -4714,12 +4773,12 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="B13" s="69" t="s">
         <v>4</v>
@@ -4730,7 +4789,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B14" s="69" t="s">
         <v>4</v>
@@ -4741,7 +4800,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="B15" s="69" t="s">
         <v>4</v>
@@ -4752,7 +4811,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B16" s="69" t="s">
         <v>4</v>
@@ -4763,7 +4822,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="B17" s="69" t="s">
         <v>4</v>
@@ -4774,7 +4833,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="B18" s="69" t="s">
         <v>4</v>
@@ -4785,7 +4844,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="B19" s="69" t="s">
         <v>4</v>
@@ -4796,7 +4855,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B20" s="69" t="s">
         <v>4</v>
@@ -4807,7 +4866,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="B21" s="69" t="s">
         <v>4</v>
@@ -4818,7 +4877,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="B22" s="69" t="s">
         <v>4</v>
@@ -4829,7 +4888,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="B23" s="69" t="s">
         <v>4</v>
@@ -4840,7 +4899,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="B24" s="69" t="s">
         <v>4</v>
@@ -4851,7 +4910,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B25" s="69" t="s">
         <v>4</v>
@@ -4862,7 +4921,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B26" s="69" t="s">
         <v>4</v>
@@ -4873,7 +4932,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="B27" s="69" t="s">
         <v>4</v>
@@ -4884,7 +4943,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B28" s="69" t="s">
         <v>4</v>
@@ -4895,7 +4954,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>4</v>
@@ -4906,18 +4965,18 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B30" s="69" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="B31" s="69" t="s">
         <v>4</v>
@@ -4928,7 +4987,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="B32" s="69" t="s">
         <v>4</v>
@@ -4939,7 +4998,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="B33" s="69" t="s">
         <v>4</v>
@@ -4950,60 +5009,746 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="containsText" dxfId="16" priority="26" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="19" priority="27" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C4">
-    <cfRule type="containsText" dxfId="15" priority="22" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="18" priority="23" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C27">
-    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28 C32:C33">
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",C28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B31)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C30">
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="C29">
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",C29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B30">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="10" style="46" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="46">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="46">
+        <v>3</v>
+      </c>
+      <c r="D2" s="46">
+        <v>0.12</v>
+      </c>
+      <c r="E2" s="46">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F2" s="46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="34">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="46">
+        <v>3</v>
+      </c>
+      <c r="D3" s="46">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E3" s="46">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F3" s="46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="34">
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="46">
+        <v>12</v>
+      </c>
+      <c r="C4" s="46">
+        <v>12</v>
+      </c>
+      <c r="D4" s="46">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E4" s="46">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F4" s="46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="34">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="34">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="34">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="34">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="34">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="34">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="34">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="34">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="34">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="34">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="34">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="34">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="34">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="34">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="34">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="34">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="34">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="34">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="34">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="34">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="34">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="34">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="34">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="34">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="34">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="34">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="34">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="34">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="34">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="34">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="34">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="34">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="34">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="34">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="34">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="34">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="34">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="34">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="34">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="34">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="34">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="34">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="34">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="34">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="34">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="34">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="34">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="34">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="34">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="34">
+        <f t="shared" ref="A68:A100" si="1">A67+1</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="34">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="34">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="34">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="34">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="34">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="34">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="34">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="34">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="34">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="34">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="34">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="34">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="34">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="34">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="34">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="34">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="34">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="34">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="34">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="34">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="34">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="34">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="34">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="34">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="34">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="34">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="34">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="34">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="34">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="34">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="34">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="34">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/korbinian/examples/settings/korbinian_run_settings_schweris_mp.xlsx
+++ b/korbinian/examples/settings/korbinian_run_settings_schweris_mp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="645" windowWidth="25605" windowHeight="14475"/>
+    <workbookView xWindow="0" yWindow="885" windowWidth="25605" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="run" sheetId="1" r:id="rId1"/>
@@ -23,29 +23,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="253">
   <si>
     <t>protein_lists</t>
   </si>
   <si>
-    <t>protein_list_names</t>
-  </si>
-  <si>
-    <t>[77,79,22]</t>
-  </si>
-  <si>
-    <t>["singlepass","multipass","beta-barrel"]</t>
-  </si>
-  <si>
     <t>TRUE</t>
   </si>
   <si>
     <t>FALSE</t>
   </si>
   <si>
-    <t>The proteins to be analysed are grouped in a numbered list.</t>
-  </si>
-  <si>
     <t>If "TRUE", a list of accessions downloaded from uniprot will be compared against UniRef clusters (e.g. UniRef50, each &gt;50% amino acid identity), and a nonredundant list will be created, using the UniRef "reference sequence" if available. A uniprot flatfile containing the proteins of interest will be created from this list of non-redundant proteins (e.g. List##_selected_flatfile.txt), by copying the records from a larger flatfile (e.g. all membrane proteins). Leave "FALSE" if the selected UniProt flatfile already exists, for example if it has been downloaded directly from UniProt.</t>
   </si>
   <si>
@@ -430,9 +418,6 @@
     <t>Only for comparing two or more protein lists.</t>
   </si>
   <si>
-    <t>Only for comparing two or more protein lists. Here you can name the protein lists that you are analysing.</t>
-  </si>
-  <si>
     <t>Number of concurrent processes to be run, using multiple CPU cores if available.</t>
   </si>
   <si>
@@ -478,15 +463,6 @@
     <t>fa_max_hydrophilicity_Hessa</t>
   </si>
   <si>
-    <t>maximum hydrophilicity of the selected sequence (BUT NOT THE SURROUNDING SEQ!). Hydrophobicity is calculated with Hessa scale, negative value means favourable membrane insertion. Seqs that have mean hydrophobicity score above the cutoff will be excluded from the alignment. Typically, anything above 12 is unlikely to be a TMD.</t>
-  </si>
-  <si>
-    <t>cr_max_hydrophilicity_Hessa</t>
-  </si>
-  <si>
-    <t>gap_max_hydrophilicity_Hessa</t>
-  </si>
-  <si>
     <t>maximum hydrophilicity of the selected sequence (BUT NOT THE SURROUNDING SEQ!). Hydrophobicity is calculated with Hessa scale, negative value means favourable membrane insertion. Seqs that have mean hydrophobicity score above the cutoff will be excluded from the alignment. Typically, anything above 12 is unlikely to be a TMD for alpha helical proteins, and above 30 for beta-barrel proteins.</t>
   </si>
   <si>
@@ -511,18 +487,6 @@
     <t>Fig04_Scattergram_comparing_standard_deviation_AAIMON_and_AASMON</t>
   </si>
   <si>
-    <t>Fig05_Scattergram_comparing_number_of_TMDs_with_mean_AAIMON</t>
-  </si>
-  <si>
-    <t>Fig06_Scattergram_comparing_seqlen_with_mean_AAIMON</t>
-  </si>
-  <si>
-    <t>Fig07_Scattergram_comparing_nonTMD_SW_align_len_mean_with_mean_AAIMON</t>
-  </si>
-  <si>
-    <t>Fig08_Scattergram_comparing_total_number_of_simap_hits_with_mean_AAIMON</t>
-  </si>
-  <si>
     <t>Fig09_Histogram_of_mean_AAIMON_ratios_for_each_TMD_separately</t>
   </si>
   <si>
@@ -628,9 +592,6 @@
     <t>run_keyword_analysis</t>
   </si>
   <si>
-    <t>truncation_cutoff</t>
-  </si>
-  <si>
     <t>1 = filter OFF; 0.9 allows only sequence with 95% nonTMD coverage</t>
   </si>
   <si>
@@ -752,12 +713,84 @@
   </si>
   <si>
     <t>gather_gap_densities</t>
+  </si>
+  <si>
+    <t>max_TMDs</t>
+  </si>
+  <si>
+    <t>min_TMDs</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>list_description</t>
+  </si>
+  <si>
+    <t>singlepass</t>
+  </si>
+  <si>
+    <t>multipass</t>
+  </si>
+  <si>
+    <t>betabarrel</t>
+  </si>
+  <si>
+    <t>minimum number of proteins in list for figs, KW analysis, etc</t>
+  </si>
+  <si>
+    <t>min_n_proteins_in_list</t>
+  </si>
+  <si>
+    <t>min_perc_nonTMD_coverage</t>
+  </si>
+  <si>
+    <t>singlepass_w_SiPe</t>
+  </si>
+  <si>
+    <t>multipass_w_SiPe</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>testing_mode</t>
+  </si>
+  <si>
+    <t>The proteins to be analysed are grouped in a numbered list. Replace with "compare" if running compare_lists.</t>
+  </si>
+  <si>
+    <t>[1,2,3]</t>
+  </si>
+  <si>
+    <t>singlepass_yeast_SiPe</t>
+  </si>
+  <si>
+    <t>singlepass_Ecoli</t>
+  </si>
+  <si>
+    <t>Fig06_Boxplot_comparing_seqlen_with_mean_AAIMON</t>
+  </si>
+  <si>
+    <t>Fig07_Boxplot_comparing_nonTMD_SW_align_len_mean_with_mean_AAIMON</t>
+  </si>
+  <si>
+    <t>Fig05_Boxplot_comparing_number_of_TMDs_with_mean_AAIMON</t>
+  </si>
+  <si>
+    <t>Fig08_Boxplot_comparing_total_number_of_simap_hits_with_mean_AAIMON</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -791,7 +824,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -948,6 +981,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -962,7 +1007,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1138,9 +1183,6 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1159,12 +1201,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="61">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1870,10 +1962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF49"/>
+  <dimension ref="A1:AF48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,57 +1980,57 @@
   <sheetData>
     <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
+        <v>35</v>
+      </c>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
     </row>
     <row r="2" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="52"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="36">
-        <v>3</v>
+        <v>129</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>252</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>6</v>
+        <v>244</v>
       </c>
       <c r="Q3" s="61"/>
       <c r="R3" s="61"/>
@@ -1962,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>2</v>
+        <v>245</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="61"/>
       <c r="R4" s="61"/>
@@ -1984,42 +2076,55 @@
       <c r="AE4" s="61"/>
       <c r="AF4" s="61"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:32" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="26"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+    </row>
+    <row r="7" spans="1:32" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="61"/>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="61"/>
-      <c r="AB5" s="61"/>
-      <c r="AC5" s="61"/>
-      <c r="AD5" s="61"/>
-      <c r="AE5" s="61"/>
-      <c r="AF5" s="61"/>
-    </row>
-    <row r="6" spans="1:32" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="26"/>
+      <c r="C7" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
       <c r="Q7" s="61"/>
       <c r="R7" s="61"/>
       <c r="S7" s="61"/>
@@ -2039,13 +2144,13 @@
     </row>
     <row r="8" spans="1:32" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="69" t="s">
-        <v>5</v>
+        <v>122</v>
+      </c>
+      <c r="B8" s="69">
+        <v>14</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D8" s="61"/>
       <c r="E8" s="61"/>
@@ -2079,13 +2184,13 @@
     </row>
     <row r="9" spans="1:32" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="69">
-        <v>14</v>
+        <v>106</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>105</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="D9" s="61"/>
       <c r="E9" s="61"/>
@@ -2119,13 +2224,13 @@
     </row>
     <row r="10" spans="1:32" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B10" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>109</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>112</v>
       </c>
       <c r="D10" s="61"/>
       <c r="E10" s="61"/>
@@ -2157,29 +2262,9 @@
       <c r="AE10" s="61"/>
       <c r="AF10" s="61"/>
     </row>
-    <row r="11" spans="1:32" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="61"/>
+      <c r="C11" s="61"/>
       <c r="Q11" s="61"/>
       <c r="R11" s="61"/>
       <c r="S11" s="61"/>
@@ -2198,8 +2283,11 @@
       <c r="AF11" s="61"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
-      <c r="C12" s="61"/>
+      <c r="A12" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="54"/>
       <c r="Q12" s="61"/>
       <c r="R12" s="61"/>
       <c r="S12" s="61"/>
@@ -2217,12 +2305,27 @@
       <c r="AE12" s="61"/>
       <c r="AF12" s="61"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="54"/>
+    <row r="13" spans="1:32" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
       <c r="Q13" s="61"/>
       <c r="R13" s="61"/>
       <c r="S13" s="61"/>
@@ -2240,14 +2343,14 @@
       <c r="AE13" s="61"/>
       <c r="AF13" s="61"/>
     </row>
-    <row r="14" spans="1:32" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>99</v>
+    <row r="14" spans="1:32" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="55"/>
+        <v>2</v>
+      </c>
+      <c r="C14" s="67"/>
       <c r="D14" s="61"/>
       <c r="E14" s="61"/>
       <c r="F14" s="61"/>
@@ -2278,14 +2381,16 @@
       <c r="AE14" s="61"/>
       <c r="AF14" s="61"/>
     </row>
-    <row r="15" spans="1:32" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>100</v>
+    <row r="15" spans="1:32" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="67"/>
+        <v>2</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>192</v>
+      </c>
       <c r="D15" s="61"/>
       <c r="E15" s="61"/>
       <c r="F15" s="61"/>
@@ -2316,15 +2421,15 @@
       <c r="AE15" s="61"/>
       <c r="AF15" s="61"/>
     </row>
-    <row r="16" spans="1:32" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
-        <v>132</v>
+    <row r="16" spans="1:32" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>215</v>
       </c>
       <c r="B16" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="55" t="s">
         <v>5</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>205</v>
       </c>
       <c r="D16" s="61"/>
       <c r="E16" s="61"/>
@@ -2356,15 +2461,15 @@
       <c r="AE16" s="61"/>
       <c r="AF16" s="61"/>
     </row>
-    <row r="17" spans="1:32" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>228</v>
+    <row r="17" spans="1:32" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>4</v>
       </c>
       <c r="D17" s="61"/>
       <c r="E17" s="61"/>
@@ -2396,15 +2501,15 @@
       <c r="AE17" s="61"/>
       <c r="AF17" s="61"/>
     </row>
-    <row r="18" spans="1:32" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>229</v>
+    <row r="18" spans="1:32" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>121</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="67" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>3</v>
       </c>
       <c r="D18" s="61"/>
       <c r="E18" s="61"/>
@@ -2436,29 +2541,16 @@
       <c r="AE18" s="61"/>
       <c r="AF18" s="61"/>
     </row>
-    <row r="19" spans="1:32" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>125</v>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>217</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
+        <v>2</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>6</v>
+      </c>
       <c r="Q19" s="61"/>
       <c r="R19" s="61"/>
       <c r="S19" s="61"/>
@@ -2477,14 +2569,14 @@
       <c r="AF19" s="61"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>230</v>
+      <c r="A20" s="30" t="s">
+        <v>213</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>7</v>
       </c>
       <c r="Q20" s="61"/>
       <c r="R20" s="61"/>
@@ -2504,15 +2596,8 @@
       <c r="AF20" s="61"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="B21" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>11</v>
-      </c>
+      <c r="A21" s="61"/>
+      <c r="C21" s="61"/>
       <c r="Q21" s="61"/>
       <c r="R21" s="61"/>
       <c r="S21" s="61"/>
@@ -2531,8 +2616,11 @@
       <c r="AF21" s="61"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
-      <c r="C22" s="61"/>
+      <c r="A22" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="40"/>
+      <c r="C22" s="56"/>
       <c r="Q22" s="61"/>
       <c r="R22" s="61"/>
       <c r="S22" s="61"/>
@@ -2551,11 +2639,15 @@
       <c r="AF22" s="61"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="56"/>
+      <c r="A23" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>8</v>
+      </c>
       <c r="Q23" s="61"/>
       <c r="R23" s="61"/>
       <c r="S23" s="61"/>
@@ -2574,14 +2666,14 @@
       <c r="AF23" s="61"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
-        <v>227</v>
+      <c r="A24" s="65" t="s">
+        <v>218</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="64" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>9</v>
       </c>
       <c r="Q24" s="61"/>
       <c r="R24" s="61"/>
@@ -2601,52 +2693,65 @@
       <c r="AF24" s="61"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
-        <v>231</v>
-      </c>
-      <c r="B25" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="61"/>
-      <c r="V25" s="61"/>
-      <c r="W25" s="61"/>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="61"/>
-      <c r="Z25" s="61"/>
-      <c r="AA25" s="61"/>
-      <c r="AB25" s="61"/>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="61"/>
-      <c r="AE25" s="61"/>
-      <c r="AF25" s="61"/>
+      <c r="A25" s="61"/>
+      <c r="C25" s="61"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
-      <c r="C26" s="61"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="58"/>
+      <c r="A26" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="58"/>
+    </row>
+    <row r="27" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="61"/>
+      <c r="AC27" s="61"/>
+      <c r="AD27" s="61"/>
+      <c r="AE27" s="61"/>
+      <c r="AF27" s="61"/>
     </row>
     <row r="28" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B28" s="69" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="D28" s="61"/>
       <c r="E28" s="61"/>
@@ -2680,13 +2785,13 @@
     </row>
     <row r="29" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B29" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D29" s="61"/>
       <c r="E29" s="61"/>
@@ -2720,13 +2825,13 @@
     </row>
     <row r="30" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="B30" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="D30" s="61"/>
       <c r="E30" s="61"/>
@@ -2760,14 +2865,12 @@
     </row>
     <row r="31" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B31" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>184</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C31" s="24"/>
       <c r="D31" s="61"/>
       <c r="E31" s="61"/>
       <c r="F31" s="61"/>
@@ -2798,14 +2901,16 @@
       <c r="AE31" s="61"/>
       <c r="AF31" s="61"/>
     </row>
-    <row r="32" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="B32" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="24"/>
+        <v>1</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="D32" s="61"/>
       <c r="E32" s="61"/>
       <c r="F32" s="61"/>
@@ -2836,16 +2941,10 @@
       <c r="AE32" s="61"/>
       <c r="AF32" s="61"/>
     </row>
-    <row r="33" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B33" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>14</v>
-      </c>
+    <row r="33" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="61"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="61"/>
       <c r="D33" s="61"/>
       <c r="E33" s="61"/>
       <c r="F33" s="61"/>
@@ -2877,9 +2976,11 @@
       <c r="AF33" s="61"/>
     </row>
     <row r="34" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="61"/>
+      <c r="A34" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" s="44"/>
+      <c r="C34" s="59"/>
       <c r="D34" s="61"/>
       <c r="E34" s="61"/>
       <c r="F34" s="61"/>
@@ -2911,11 +3012,13 @@
       <c r="AF34" s="61"/>
     </row>
     <row r="35" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="59"/>
+      <c r="A35" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B35" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="60"/>
       <c r="D35" s="61"/>
       <c r="E35" s="61"/>
       <c r="F35" s="61"/>
@@ -2948,10 +3051,10 @@
     </row>
     <row r="36" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="B36" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C36" s="60"/>
       <c r="D36" s="61"/>
@@ -2986,12 +3089,14 @@
     </row>
     <row r="37" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B37" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="60"/>
+        <v>2</v>
+      </c>
+      <c r="C37" s="60" t="s">
+        <v>37</v>
+      </c>
       <c r="D37" s="61"/>
       <c r="E37" s="61"/>
       <c r="F37" s="61"/>
@@ -3024,14 +3129,12 @@
     </row>
     <row r="38" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B38" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="60" t="s">
-        <v>41</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C38" s="60"/>
       <c r="D38" s="61"/>
       <c r="E38" s="61"/>
       <c r="F38" s="61"/>
@@ -3064,10 +3167,10 @@
     </row>
     <row r="39" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B39" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C39" s="60"/>
       <c r="D39" s="61"/>
@@ -3102,12 +3205,14 @@
     </row>
     <row r="40" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B40" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="60"/>
+        <v>2</v>
+      </c>
+      <c r="C40" s="60" t="s">
+        <v>39</v>
+      </c>
       <c r="D40" s="61"/>
       <c r="E40" s="61"/>
       <c r="F40" s="61"/>
@@ -3140,13 +3245,13 @@
     </row>
     <row r="41" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B41" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C41" s="60" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D41" s="61"/>
       <c r="E41" s="61"/>
@@ -3180,14 +3285,12 @@
     </row>
     <row r="42" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B42" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="60" t="s">
-        <v>42</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C42" s="60"/>
       <c r="D42" s="61"/>
       <c r="E42" s="61"/>
       <c r="F42" s="61"/>
@@ -3218,27 +3321,14 @@
       <c r="AE42" s="61"/>
       <c r="AF42" s="61"/>
     </row>
-    <row r="43" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B43" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C43" s="60"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="61"/>
-      <c r="L43" s="61"/>
-      <c r="M43" s="61"/>
-      <c r="N43" s="61"/>
-      <c r="O43" s="61"/>
-      <c r="P43" s="61"/>
       <c r="Q43" s="61"/>
       <c r="R43" s="61"/>
       <c r="S43" s="61"/>
@@ -3257,13 +3347,6 @@
       <c r="AF43" s="61"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="B44" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="60"/>
       <c r="Q44" s="61"/>
       <c r="R44" s="61"/>
       <c r="S44" s="61"/>
@@ -3281,7 +3364,25 @@
       <c r="AE44" s="61"/>
       <c r="AF44" s="61"/>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="85" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="86"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="61"/>
       <c r="Q45" s="61"/>
       <c r="R45" s="61"/>
       <c r="S45" s="61"/>
@@ -3299,25 +3400,13 @@
       <c r="AE45" s="61"/>
       <c r="AF45" s="61"/>
     </row>
-    <row r="46" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="86" t="s">
-        <v>188</v>
-      </c>
-      <c r="B46" s="87"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="61"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="61"/>
-      <c r="N46" s="61"/>
-      <c r="O46" s="61"/>
-      <c r="P46" s="61"/>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A46" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="69" t="s">
+        <v>1</v>
+      </c>
       <c r="Q46" s="61"/>
       <c r="R46" s="61"/>
       <c r="S46" s="61"/>
@@ -3337,10 +3426,10 @@
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="61" t="s">
-        <v>189</v>
-      </c>
-      <c r="B47" s="69" t="s">
-        <v>5</v>
+        <v>178</v>
+      </c>
+      <c r="B47" s="88" t="s">
+        <v>180</v>
       </c>
       <c r="Q47" s="61"/>
       <c r="R47" s="61"/>
@@ -3361,10 +3450,10 @@
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="B48" s="89" t="s">
-        <v>192</v>
+        <v>179</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="Q48" s="61"/>
       <c r="R48" s="61"/>
@@ -3383,143 +3472,149 @@
       <c r="AE48" s="61"/>
       <c r="AF48" s="61"/>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A49" s="61" t="s">
-        <v>191</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="61"/>
-      <c r="S49" s="61"/>
-      <c r="T49" s="61"/>
-      <c r="U49" s="61"/>
-      <c r="V49" s="61"/>
-      <c r="W49" s="61"/>
-      <c r="X49" s="61"/>
-      <c r="Y49" s="61"/>
-      <c r="Z49" s="61"/>
-      <c r="AA49" s="61"/>
-      <c r="AB49" s="61"/>
-      <c r="AC49" s="61"/>
-      <c r="AD49" s="61"/>
-      <c r="AE49" s="61"/>
-      <c r="AF49" s="61"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1 B6 B50:B1048576 B38:B45">
-    <cfRule type="containsText" dxfId="56" priority="979" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="B1 B5 B49:B1048576 B38:B44">
+    <cfRule type="containsText" dxfId="60" priority="1182" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="containsText" dxfId="55" priority="977" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B22)))</formula>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="containsText" dxfId="59" priority="1180" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="54" priority="976" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B26)))</formula>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="containsText" dxfId="58" priority="1179" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="containsText" dxfId="53" priority="975" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B34)))</formula>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="containsText" dxfId="57" priority="1178" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B18">
-    <cfRule type="containsText" dxfId="52" priority="973" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B17)))</formula>
+  <conditionalFormatting sqref="B16:B17">
+    <cfRule type="containsText" dxfId="56" priority="1176" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B11">
-    <cfRule type="containsText" dxfId="51" priority="782" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="50" priority="781" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="containsText" dxfId="49" priority="669" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="B9:B10">
+    <cfRule type="containsText" dxfId="55" priority="985" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B9)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="containsText" dxfId="54" priority="984" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="containsText" dxfId="53" priority="872" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="containsText" dxfId="52" priority="462" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41:B43">
+    <cfRule type="containsText" dxfId="51" priority="458" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:B48">
+    <cfRule type="containsText" dxfId="50" priority="420" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="48" priority="259" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="49" priority="390" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42:B44">
-    <cfRule type="containsText" dxfId="47" priority="255" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48:B49">
-    <cfRule type="containsText" dxfId="46" priority="217" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B48)))</formula>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="containsText" dxfId="48" priority="215" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="45" priority="187" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="47" priority="184" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="containsText" dxfId="43" priority="64" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B8)))</formula>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="containsText" dxfId="46" priority="181" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B37)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="containsText" dxfId="42" priority="47" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B47)))</formula>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="containsText" dxfId="45" priority="129" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="41" priority="45" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B19)))</formula>
+  <conditionalFormatting sqref="B18:B19">
+    <cfRule type="containsText" dxfId="44" priority="29" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="40" priority="33" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B16)))</formula>
+  <conditionalFormatting sqref="B23:B24">
+    <cfRule type="containsText" dxfId="40" priority="15" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="containsText" dxfId="39" priority="14" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="containsText" dxfId="31" priority="12" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="38" priority="13" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="containsText" dxfId="29" priority="8" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B21)))</formula>
+  <conditionalFormatting sqref="B29:B30">
+    <cfRule type="containsText" dxfId="37" priority="12" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B25">
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B24)))</formula>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="containsText" dxfId="36" priority="10" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B33">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="B30">
+    <cfRule type="containsText" dxfId="34" priority="8" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B28)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B48" r:id="rId1" display="martin.ortner@tum.de"/>
+    <hyperlink ref="B47" r:id="rId1" display="martin.ortner@tum.de"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -3531,7 +3626,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3543,117 +3638,117 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="54"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="32" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3664,10 +3759,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3679,25 +3774,25 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="52"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" s="36">
         <v>50</v>
@@ -3706,7 +3801,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="B4" s="36">
         <v>85</v>
@@ -3719,61 +3814,61 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="54"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" s="55"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="55"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" s="55"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" s="55"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11" s="39">
         <v>2000</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" s="39">
         <v>5000</v>
@@ -3782,41 +3877,41 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13" s="39">
         <v>3000</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C15" s="55"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16" s="55"/>
     </row>
@@ -3826,75 +3921,75 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="75" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B18" s="76"/>
       <c r="C18" s="77"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="78" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B19" s="79" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19" s="80"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="78" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B20" s="79" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" s="80"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="81" t="s">
-        <v>4</v>
+        <v>90</v>
+      </c>
+      <c r="B21" s="95" t="s">
+        <v>2</v>
       </c>
       <c r="C21" s="80"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C22" s="80"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="78" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B23" s="79">
         <v>30</v>
       </c>
       <c r="C23" s="80" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="78" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B24" s="79">
         <v>30</v>
       </c>
       <c r="C24" s="80" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="79" t="b">
-        <v>0</v>
+        <v>119</v>
+      </c>
+      <c r="B25" s="95" t="s">
+        <v>2</v>
       </c>
       <c r="C25" s="80"/>
     </row>
@@ -3904,58 +3999,58 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B27" s="40"/>
       <c r="C27" s="56"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C28" s="57" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C29" s="57" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" s="83">
+        <v>145</v>
+      </c>
+      <c r="B31" s="82">
         <v>0.5</v>
       </c>
       <c r="C31" s="57" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B32" s="41">
         <v>2</v>
@@ -3964,7 +4059,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B33" s="41">
         <v>2</v>
@@ -3973,63 +4068,63 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="83">
+        <v>75</v>
+      </c>
+      <c r="B34" s="82">
         <v>0.4</v>
       </c>
       <c r="C34" s="57" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="83">
+        <v>74</v>
+      </c>
+      <c r="B35" s="82">
         <v>1</v>
       </c>
       <c r="C35" s="57" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C36" s="57"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C37" s="57"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B38" s="40"/>
       <c r="C38" s="56"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C39" s="57"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B40" s="41">
         <v>1</v>
@@ -4038,7 +4133,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B41" s="41">
         <v>6</v>
@@ -4051,25 +4146,25 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="70" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B43" s="71"/>
       <c r="C43" s="72"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="73" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B44" s="74" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C44" s="74" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="73" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B45" s="74">
         <v>2</v>
@@ -4080,503 +4175,489 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="73" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="B46" s="74">
-        <f>B31</f>
-        <v>0.5</v>
-      </c>
-      <c r="C46" s="82" t="s">
-        <v>151</v>
+        <f>B34</f>
+        <v>0.4</v>
+      </c>
+      <c r="C46" s="81" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="73" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B47" s="74">
+        <f>B35</f>
+        <v>1</v>
+      </c>
+      <c r="C47" s="81" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="74">
+        <f>B46-0.4</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="74">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="74">
+        <v>20</v>
+      </c>
+      <c r="C49" s="74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="37"/>
+      <c r="C50" s="8"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="42"/>
+      <c r="C51" s="58"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="24"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="43">
+        <v>2</v>
+      </c>
+      <c r="C53" s="24"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="43">
         <f>B34</f>
         <v>0.4</v>
       </c>
-      <c r="C47" s="82" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="B48" s="74">
+      <c r="C54" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="43">
         <f>B35</f>
         <v>1</v>
       </c>
-      <c r="C48" s="82" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="B49" s="74">
-        <f>B47-0.4</f>
-        <v>0</v>
-      </c>
-      <c r="C49" s="74">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="73" t="s">
-        <v>147</v>
-      </c>
-      <c r="B50" s="74">
-        <v>20</v>
-      </c>
-      <c r="C50" s="74">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="37"/>
-      <c r="C51" s="8"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="58"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="24"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B54" s="43">
-        <v>2</v>
-      </c>
-      <c r="C54" s="24"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B55" s="43">
-        <f>B34</f>
-        <v>0.4</v>
-      </c>
       <c r="C55" s="24" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B56" s="43">
-        <f>B35</f>
         <v>1</v>
       </c>
-      <c r="C56" s="24" t="s">
-        <v>149</v>
+      <c r="C56" s="24">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B57" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="B58" s="43">
-        <v>2</v>
-      </c>
-      <c r="C58" s="24">
-        <v>2</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C58" s="24"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B59" s="43">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C59" s="24"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B60" s="43">
-        <v>20</v>
-      </c>
-      <c r="C60" s="24"/>
+    <row r="60" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="37"/>
+      <c r="C60" s="8"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B61" s="43">
-        <f>B31</f>
-        <v>0.5</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>151</v>
-      </c>
+      <c r="A61" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="44"/>
+      <c r="C61" s="59"/>
     </row>
     <row r="62" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="37"/>
-      <c r="C62" s="8"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
+      <c r="A62" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="45">
+        <v>30</v>
+      </c>
+      <c r="C62" s="60"/>
+    </row>
+    <row r="63" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="44"/>
-      <c r="C63" s="59"/>
+      <c r="B63" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="60"/>
     </row>
     <row r="64" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B64" s="45">
-        <v>30</v>
+        <v>3.05</v>
       </c>
       <c r="C64" s="60"/>
     </row>
     <row r="65" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B65" s="45" t="s">
-        <v>4</v>
+        <v>66</v>
+      </c>
+      <c r="B65" s="45">
+        <v>20</v>
       </c>
       <c r="C65" s="60"/>
     </row>
     <row r="66" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B66" s="45">
-        <v>3.05</v>
+        <v>31</v>
       </c>
       <c r="C66" s="60"/>
     </row>
     <row r="67" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="45">
-        <v>20</v>
+        <v>54</v>
+      </c>
+      <c r="B67" s="45" t="s">
+        <v>1</v>
       </c>
       <c r="C67" s="60"/>
     </row>
     <row r="68" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B68" s="45">
-        <v>31</v>
+        <v>55</v>
+      </c>
+      <c r="B68" s="45" t="s">
+        <v>2</v>
       </c>
       <c r="C68" s="60"/>
     </row>
     <row r="69" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B69" s="45" t="s">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="B69" s="45">
+        <v>0.05</v>
       </c>
       <c r="C69" s="60"/>
     </row>
     <row r="70" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B70" s="45" t="s">
-        <v>5</v>
+        <v>57</v>
+      </c>
+      <c r="B70" s="45">
+        <v>3</v>
       </c>
       <c r="C70" s="60"/>
     </row>
     <row r="71" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B71" s="45">
-        <v>0.05</v>
+        <v>58</v>
+      </c>
+      <c r="B71" s="45" t="s">
+        <v>1</v>
       </c>
       <c r="C71" s="60"/>
     </row>
     <row r="72" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B72" s="45">
-        <v>3</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="C72" s="60"/>
     </row>
     <row r="73" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B73" s="45">
+        <v>31</v>
+      </c>
+      <c r="C73" s="60"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="60"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" s="60"/>
-    </row>
-    <row r="74" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B74" s="45">
-        <v>1.4550000000000001</v>
-      </c>
-      <c r="C74" s="60"/>
-    </row>
-    <row r="75" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="B75" s="45">
-        <v>31</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="C75" s="60"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B76" s="45" t="s">
-        <v>5</v>
+        <v>70</v>
+      </c>
+      <c r="B76" s="45">
+        <v>0.5</v>
       </c>
       <c r="C76" s="60"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B77" s="45">
-        <v>0.55500000000000005</v>
+        <v>1.75</v>
       </c>
       <c r="C77" s="60"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B78" s="45">
-        <v>0.5</v>
+        <v>15</v>
+      </c>
+      <c r="B78" s="45" t="s">
+        <v>1</v>
       </c>
       <c r="C78" s="60"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="B79" s="45">
-        <v>1.75</v>
+        <v>4500</v>
       </c>
       <c r="C79" s="60"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B80" s="45" t="s">
-        <v>4</v>
+        <v>168</v>
+      </c>
+      <c r="B80" s="45">
+        <v>50</v>
       </c>
       <c r="C80" s="60"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B81" s="45">
-        <v>4500</v>
-      </c>
-      <c r="C81" s="60"/>
+        <v>100</v>
+      </c>
+      <c r="C81" s="60" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="B82" s="45">
-        <v>50</v>
-      </c>
-      <c r="C82" s="60"/>
+        <v>0.6</v>
+      </c>
+      <c r="C82" s="60" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B83" s="45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C83" s="60" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B84" s="45">
-        <v>0.9</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C84" s="60" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="B85" s="45">
-        <v>50</v>
-      </c>
-      <c r="C85" s="60" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="B86" s="45">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C86" s="60" t="s">
-        <v>211</v>
-      </c>
+      <c r="A86" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86" s="47"/>
+      <c r="C86" s="26"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" s="48">
+        <v>0</v>
+      </c>
+      <c r="C87" s="28"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B88" s="47"/>
-      <c r="C88" s="26"/>
+      <c r="A88" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" s="48">
+        <v>-12</v>
+      </c>
+      <c r="C88" s="28"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B89" s="48">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C89" s="28"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B90" s="48">
-        <v>-12</v>
+        <v>19</v>
+      </c>
+      <c r="B90" s="48" t="s">
+        <v>24</v>
       </c>
       <c r="C90" s="28"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B91" s="48">
-        <v>-2</v>
+        <v>-0.2</v>
       </c>
       <c r="C91" s="28"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B92" s="48" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="B92" s="48">
+        <v>-1</v>
       </c>
       <c r="C92" s="28"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B93" s="48">
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="C93" s="28"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B94" s="48">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C94" s="28"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B95" s="48">
-        <v>-1</v>
+        <v>69</v>
+      </c>
+      <c r="B95" s="48" t="s">
+        <v>25</v>
       </c>
       <c r="C95" s="28"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B96" s="48">
-        <v>0</v>
-      </c>
-      <c r="C96" s="28"/>
+    <row r="96" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="5"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B97" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C97" s="28"/>
-    </row>
-    <row r="98" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98"/>
-      <c r="B98" s="46"/>
-      <c r="C98" s="5"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B99" s="49"/>
-      <c r="C99" s="29"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
-      <c r="B100" s="50"/>
-      <c r="C100" s="32"/>
+      <c r="A97" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B97" s="49"/>
+      <c r="C97" s="29"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="11"/>
+      <c r="B98" s="50"/>
+      <c r="C98" s="32"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4586,10 +4667,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4601,1154 +4682,3947 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
-        <v>194</v>
+      <c r="A2" s="84" t="s">
+        <v>243</v>
       </c>
       <c r="B2" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="84" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+    </row>
+    <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="69">
+        <v>50</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+    </row>
+    <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="84" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="69">
         <v>5</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-    </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-    </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" s="69">
-        <v>50</v>
-      </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="69" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>159</v>
-      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>250</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>248</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>185</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B22" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B23" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B25" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B26" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="B27" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C27" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="B28" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C28" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="B29" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C29" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B30" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C30" s="69" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B31" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C31" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B32" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C32" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B33" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C33" s="69" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B35" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="69" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:C1">
-    <cfRule type="containsText" dxfId="19" priority="27" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="B1:C1 B5:C6 C4 B3:C3 C2">
+    <cfRule type="containsText" dxfId="27" priority="68" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C4">
-    <cfRule type="containsText" dxfId="18" priority="23" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="C16:C29 C8:C14">
+    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="containsText" dxfId="24" priority="10" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:C35">
+    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:B35">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C27">
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",C6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28 C32:C33">
-    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",C28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",C5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",C29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",C31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B30">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",C30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="46" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="46" customWidth="1"/>
     <col min="4" max="4" width="10" style="46" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="46" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" customWidth="1"/>
+    <col min="10" max="10" width="28" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="46">
-        <v>0.3</v>
-      </c>
-      <c r="C2" s="46">
-        <v>3</v>
-      </c>
-      <c r="D2" s="46">
-        <v>0.12</v>
-      </c>
-      <c r="E2" s="46">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="F2" s="46">
+      <c r="B2" s="48">
+        <v>0.4</v>
+      </c>
+      <c r="C2" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="91">
+        <v>0.12520000000000001</v>
+      </c>
+      <c r="E2" s="91">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="F2" s="48">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="48">
+        <v>1</v>
+      </c>
+      <c r="H2" s="48">
+        <v>1</v>
+      </c>
+      <c r="I2" s="48">
+        <v>95</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="34">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="46">
-        <v>3</v>
-      </c>
-      <c r="D3" s="46">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="E3" s="46">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F3" s="46">
+      <c r="B3" s="89">
+        <v>0.6</v>
+      </c>
+      <c r="C3" s="89">
+        <v>1</v>
+      </c>
+      <c r="D3" s="92">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="E3" s="92">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="F3" s="89">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="89">
+        <v>2</v>
+      </c>
+      <c r="H3" s="89">
+        <v>40</v>
+      </c>
+      <c r="I3" s="89">
+        <v>99.5</v>
+      </c>
+      <c r="J3" s="89" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="46">
-        <v>12</v>
-      </c>
-      <c r="C4" s="46">
-        <v>12</v>
-      </c>
-      <c r="D4" s="46">
-        <v>7.8E-2</v>
-      </c>
-      <c r="E4" s="46">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="F4" s="46">
+      <c r="B4" s="90">
+        <v>0.6</v>
+      </c>
+      <c r="C4" s="90">
+        <v>1</v>
+      </c>
+      <c r="D4" s="93">
+        <v>7.17E-2</v>
+      </c>
+      <c r="E4" s="93">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F4" s="90">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="90">
+        <v>6</v>
+      </c>
+      <c r="H4" s="90">
+        <v>40</v>
+      </c>
+      <c r="I4" s="90">
+        <v>99</v>
+      </c>
+      <c r="J4" s="90" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="48">
+        <v>10</v>
+      </c>
+      <c r="C5" s="48">
+        <v>10</v>
+      </c>
+      <c r="D5" s="91">
+        <v>0.12520000000000001</v>
+      </c>
+      <c r="E5" s="91">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="F5" s="48">
+        <v>25</v>
+      </c>
+      <c r="G5" s="48">
+        <v>1</v>
+      </c>
+      <c r="H5" s="48">
+        <v>1</v>
+      </c>
+      <c r="I5" s="48">
+        <v>95</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="89">
+        <v>10</v>
+      </c>
+      <c r="C6" s="89">
+        <v>10</v>
+      </c>
+      <c r="D6" s="92">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="E6" s="92">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="F6" s="89">
+        <v>50</v>
+      </c>
+      <c r="G6" s="89">
+        <v>2</v>
+      </c>
+      <c r="H6" s="89">
+        <v>40</v>
+      </c>
+      <c r="I6" s="89">
+        <v>99.5</v>
+      </c>
+      <c r="J6" s="89" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G7" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H7" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I7" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J7" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H8" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I8" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J8" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G9" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H9" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I9" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J9" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E10" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H10" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I10" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J10" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F11" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G11" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H11" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I11" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J11" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G12" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H12" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I12" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J12" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F13" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G13" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H13" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I13" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J13" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G14" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H14" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I14" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J14" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D15" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E15" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G15" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H15" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I15" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J15" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="90">
+        <f>B4</f>
+        <v>0.6</v>
+      </c>
+      <c r="C16" s="90">
+        <f t="shared" ref="C16:J16" si="1">C4</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="90">
+        <f t="shared" si="1"/>
+        <v>7.17E-2</v>
+      </c>
+      <c r="E16" s="90">
+        <f t="shared" si="1"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F16" s="90">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G16" s="90">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H16" s="90">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I16" s="90">
+        <v>95</v>
+      </c>
+      <c r="J16" s="90" t="str">
+        <f t="shared" si="1"/>
+        <v>betabarrel</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="48">
+        <f>B2</f>
+        <v>0.4</v>
+      </c>
+      <c r="C17" s="48">
+        <f t="shared" ref="C17:J17" si="2">C2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="91">
+        <f t="shared" si="2"/>
+        <v>0.12520000000000001</v>
+      </c>
+      <c r="E17" s="91">
+        <f t="shared" si="2"/>
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="F17" s="48">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="G17" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="48">
+        <v>95</v>
+      </c>
+      <c r="J17" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>singlepass</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="89">
+        <f>B3</f>
+        <v>0.6</v>
+      </c>
+      <c r="C18" s="89">
+        <f t="shared" ref="C18:J18" si="3">C3</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="92">
+        <f t="shared" si="3"/>
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="E18" s="92">
+        <f t="shared" si="3"/>
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="F18" s="89">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G18" s="89">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H18" s="89">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="I18" s="89">
+        <v>95</v>
+      </c>
+      <c r="J18" s="89" t="str">
+        <f t="shared" si="3"/>
+        <v>multipass</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="48">
+        <f t="shared" ref="B19:J19" si="4">B2</f>
+        <v>0.4</v>
+      </c>
+      <c r="C19" s="48">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="91">
+        <f t="shared" si="4"/>
+        <v>0.12520000000000001</v>
+      </c>
+      <c r="E19" s="91">
+        <f t="shared" si="4"/>
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="F19" s="48">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="G19" s="48">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="48">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="48">
+        <v>95</v>
+      </c>
+      <c r="J19" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v>singlepass</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="34">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="89">
+        <f t="shared" ref="B20:J20" si="5">B3</f>
+        <v>0.6</v>
+      </c>
+      <c r="C20" s="89">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="92">
+        <f t="shared" si="5"/>
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="E20" s="92">
+        <f t="shared" si="5"/>
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="F20" s="89">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="G20" s="89">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H20" s="89">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="I20" s="89">
+        <v>95</v>
+      </c>
+      <c r="J20" s="89" t="str">
+        <f t="shared" si="5"/>
+        <v>multipass</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="89">
+        <f t="shared" ref="B21:J21" si="6">B3</f>
+        <v>0.6</v>
+      </c>
+      <c r="C21" s="89">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D21" s="92">
+        <f t="shared" si="6"/>
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="E21" s="92">
+        <f t="shared" si="6"/>
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="F21" s="89">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="G21" s="89">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H21" s="89">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="I21" s="89">
+        <v>95</v>
+      </c>
+      <c r="J21" s="89" t="str">
+        <f t="shared" si="6"/>
+        <v>multipass</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="34">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="48">
+        <f t="shared" ref="B22:J22" si="7">B2</f>
+        <v>0.4</v>
+      </c>
+      <c r="C22" s="48">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="91">
+        <f t="shared" si="7"/>
+        <v>0.12520000000000001</v>
+      </c>
+      <c r="E22" s="91">
+        <f t="shared" si="7"/>
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="F22" s="48">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="G22" s="48">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="48">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I22" s="48">
+        <v>95</v>
+      </c>
+      <c r="J22" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v>singlepass</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="90">
+        <f t="shared" ref="B23:J23" si="8">B4</f>
+        <v>0.6</v>
+      </c>
+      <c r="C23" s="90">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D23" s="93">
+        <f t="shared" si="8"/>
+        <v>7.17E-2</v>
+      </c>
+      <c r="E23" s="93">
+        <f t="shared" si="8"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F23" s="90">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="G23" s="90">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="H23" s="90">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="I23" s="90">
+        <v>95</v>
+      </c>
+      <c r="J23" s="90" t="str">
+        <f t="shared" si="8"/>
+        <v>betabarrel</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="34">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="48">
+        <f t="shared" ref="B24:J24" si="9">B2</f>
+        <v>0.4</v>
+      </c>
+      <c r="C24" s="48">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="91">
+        <f t="shared" si="9"/>
+        <v>0.12520000000000001</v>
+      </c>
+      <c r="E24" s="91">
+        <f t="shared" si="9"/>
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="F24" s="48">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="G24" s="48">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="48">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I24" s="48">
+        <v>95</v>
+      </c>
+      <c r="J24" s="48" t="str">
+        <f t="shared" si="9"/>
+        <v>singlepass</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="34">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" s="48">
+        <f t="shared" ref="B25:J25" si="10">B2</f>
+        <v>0.4</v>
+      </c>
+      <c r="C25" s="48">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="91">
+        <f t="shared" si="10"/>
+        <v>0.12520000000000001</v>
+      </c>
+      <c r="E25" s="91">
+        <f t="shared" si="10"/>
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="F25" s="48">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="G25" s="48">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="48">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="48">
+        <v>95</v>
+      </c>
+      <c r="J25" s="48" t="str">
+        <f t="shared" si="10"/>
+        <v>singlepass</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="34">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="48">
+        <f t="shared" ref="B26:J26" si="11">B2</f>
+        <v>0.4</v>
+      </c>
+      <c r="C26" s="48">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="91">
+        <f t="shared" si="11"/>
+        <v>0.12520000000000001</v>
+      </c>
+      <c r="E26" s="91">
+        <f t="shared" si="11"/>
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="F26" s="48">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="G26" s="48">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="48">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="48">
+        <v>95</v>
+      </c>
+      <c r="J26" s="48" t="str">
+        <f t="shared" si="11"/>
+        <v>singlepass</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="34">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" s="48">
+        <v>10</v>
+      </c>
+      <c r="C27" s="48">
+        <v>10</v>
+      </c>
+      <c r="D27" s="91">
+        <f t="shared" ref="D27:I27" si="12">D2</f>
+        <v>0.12520000000000001</v>
+      </c>
+      <c r="E27" s="91">
+        <f t="shared" si="12"/>
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="F27" s="48">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="G27" s="48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="48">
+        <f t="shared" si="12"/>
+        <v>95</v>
+      </c>
+      <c r="J27" s="48" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="34">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" s="48">
+        <f t="shared" ref="B28:I28" si="13">B2</f>
+        <v>0.4</v>
+      </c>
+      <c r="C28" s="48">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="91">
+        <f t="shared" si="13"/>
+        <v>0.12520000000000001</v>
+      </c>
+      <c r="E28" s="91">
+        <f t="shared" si="13"/>
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="F28" s="48">
+        <v>5</v>
+      </c>
+      <c r="G28" s="48">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H28" s="48">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I28" s="48">
+        <f t="shared" si="13"/>
+        <v>95</v>
+      </c>
+      <c r="J28" s="48" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C29" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D29" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F29" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G29" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H29" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I29" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J29" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="34">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D30" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H30" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I30" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J30" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="34">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D31" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E31" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F31" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G31" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H31" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I31" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E32" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H32" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I32" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J32" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D33" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E33" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F33" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H33" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I33" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J33" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="34">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C34" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D34" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E34" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F34" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G34" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H34" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I34" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J34" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="34">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C35" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E35" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F35" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G35" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H35" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I35" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J35" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="34">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D36" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E36" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F36" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G36" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H36" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I36" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J36" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="34">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C37" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D37" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E37" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F37" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G37" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H37" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I37" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J37" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="34">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C38" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D38" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E38" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F38" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G38" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H38" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I38" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J38" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="34">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D39" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E39" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F39" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G39" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H39" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I39" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J39" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="34">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C40" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D40" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E40" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F40" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G40" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H40" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I40" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J40" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D41" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E41" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F41" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G41" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H41" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I41" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J41" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="34">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C42" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D42" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E42" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F42" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G42" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H42" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I42" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J42" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D43" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E43" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F43" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G43" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H43" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I43" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J43" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="34">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C44" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D44" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E44" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F44" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G44" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H44" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I44" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J44" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C45" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D45" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E45" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F45" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G45" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H45" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I45" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J45" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="34">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C46" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D46" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E46" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F46" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G46" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H46" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I46" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J46" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="34">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D47" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F47" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G47" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H47" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I47" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J47" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="34">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C48" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D48" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E48" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F48" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G48" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H48" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I48" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J48" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="34">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C49" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D49" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E49" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F49" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G49" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H49" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I49" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J49" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="34">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C50" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D50" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E50" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F50" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G50" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H50" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I50" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J50" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="34">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C51" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D51" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E51" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F51" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G51" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H51" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I51" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J51" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="34">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C52" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D52" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E52" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F52" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G52" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H52" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I52" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J52" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="34">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C53" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D53" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E53" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F53" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G53" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H53" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I53" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J53" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="34">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C54" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D54" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E54" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F54" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G54" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H54" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I54" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J54" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="34">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C55" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D55" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E55" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F55" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G55" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H55" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I55" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J55" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="34">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C56" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D56" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E56" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F56" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G56" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H56" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I56" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J56" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="34">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C57" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D57" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E57" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F57" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G57" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H57" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I57" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J57" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="34">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C58" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D58" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E58" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F58" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G58" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H58" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I58" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J58" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="34">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D59" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E59" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F59" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G59" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H59" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I59" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J59" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="34">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C60" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D60" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E60" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F60" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G60" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H60" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I60" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J60" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="34">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C61" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D61" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E61" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F61" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G61" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H61" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I61" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J61" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="34">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C62" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D62" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E62" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F62" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G62" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H62" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I62" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J62" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="34">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C63" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D63" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E63" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F63" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G63" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H63" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I63" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J63" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="34">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C64" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D64" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E64" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F64" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G64" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H64" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I64" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J64" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="34">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C65" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E65" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F65" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G65" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H65" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I65" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J65" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="34">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C66" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D66" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E66" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F66" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G66" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H66" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I66" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J66" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="34">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C67" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D67" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E67" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F67" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G67" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H67" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I67" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J67" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="34">
-        <f t="shared" ref="A68:A100" si="1">A67+1</f>
+        <f t="shared" ref="A68:A100" si="14">A67+1</f>
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C68" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D68" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E68" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F68" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G68" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H68" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I68" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J68" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C69" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D69" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E69" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F69" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G69" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H69" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I69" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J69" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C70" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D70" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E70" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F70" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G70" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H70" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I70" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J70" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D71" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E71" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F71" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G71" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H71" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I71" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J71" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C72" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D72" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E72" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F72" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G72" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H72" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I72" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J72" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D73" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E73" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F73" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G73" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H73" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I73" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J73" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C74" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D74" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E74" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F74" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G74" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H74" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I74" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J74" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C75" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D75" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E75" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F75" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G75" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H75" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I75" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J75" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C76" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D76" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E76" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F76" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G76" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H76" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I76" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J76" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C77" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D77" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E77" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F77" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G77" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H77" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I77" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J77" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C78" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D78" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E78" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F78" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G78" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H78" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I78" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J78" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C79" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D79" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E79" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F79" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G79" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H79" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I79" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J79" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C80" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D80" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E80" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F80" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G80" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H80" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I80" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J80" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D81" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E81" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F81" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G81" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H81" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I81" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J81" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C82" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D82" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E82" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F82" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G82" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H82" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I82" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J82" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C83" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D83" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E83" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F83" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G83" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H83" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I83" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J83" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C84" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D84" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E84" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F84" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G84" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H84" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I84" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J84" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C85" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D85" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E85" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F85" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G85" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H85" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I85" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J85" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C86" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D86" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E86" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F86" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G86" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H86" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I86" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J86" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C87" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E87" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F87" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G87" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H87" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I87" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J87" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C88" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D88" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E88" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F88" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G88" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H88" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I88" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J88" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C89" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D89" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E89" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F89" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G89" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H89" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I89" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J89" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C90" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D90" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E90" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F90" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G90" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H90" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I90" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J90" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C91" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D91" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E91" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F91" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G91" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H91" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I91" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J91" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C92" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D92" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E92" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F92" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G92" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H92" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I92" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J92" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C93" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D93" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E93" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F93" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G93" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H93" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I93" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J93" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C94" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D94" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E94" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F94" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G94" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H94" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I94" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J94" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C95" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D95" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E95" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F95" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G95" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H95" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I95" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J95" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C96" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D96" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E96" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F96" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G96" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H96" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I96" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J96" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C97" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D97" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E97" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F97" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G97" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H97" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I97" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J97" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C98" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D98" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E98" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F98" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G98" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H98" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I98" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J98" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C99" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D99" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E99" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F99" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G99" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H99" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I99" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J99" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>99</v>
+      </c>
+      <c r="B100" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C100" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D100" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E100" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F100" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G100" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H100" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I100" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J100" s="94" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/korbinian/examples/settings/korbinian_run_settings_schweris_mp.xlsx
+++ b/korbinian/examples/settings/korbinian_run_settings_schweris_mp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1185" windowWidth="25605" windowHeight="13935" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="1365" windowWidth="25605" windowHeight="13755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="run" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="316">
   <si>
     <t>protein_lists</t>
   </si>
@@ -382,9 +382,6 @@
     <t>overwrite_simap_parsed_to_csv</t>
   </si>
   <si>
-    <t>analyse_signal_peptides</t>
-  </si>
-  <si>
     <t>overwrite_sliced_homologues</t>
   </si>
   <si>
@@ -601,9 +598,6 @@
     <t>Fig24_Scatterplot_AAIMON_n_vs._AAIMON_n_slope</t>
   </si>
   <si>
-    <t>Fig25_Scatterplot_AAIMON_n_vs_obs_changes_mean</t>
-  </si>
-  <si>
     <t>Fig26_Scatterplot_AAIMON_n_slope_vs_obs_changes_mean</t>
   </si>
   <si>
@@ -787,24 +781,9 @@
     <t>Fig30_Boxplot_lipo_of_all_TMDs</t>
   </si>
   <si>
-    <t>TMSEG_MP</t>
-  </si>
-  <si>
-    <t>TMSEG_UniProt</t>
-  </si>
-  <si>
-    <t>TMSEG_SCAMPI</t>
-  </si>
-  <si>
     <t>generate_SignalP_input_files</t>
   </si>
   <si>
-    <t>singlepass_TMSEG</t>
-  </si>
-  <si>
-    <t>multipass_TMSEG</t>
-  </si>
-  <si>
     <t>gather_filter_allowed_keywords</t>
   </si>
   <si>
@@ -823,21 +802,12 @@
     <t>during gather; these keywords will be removed from allowed keyword dataframe</t>
   </si>
   <si>
-    <t>singlepass_SCAMPI</t>
-  </si>
-  <si>
-    <t>multipass_SCAMPI</t>
-  </si>
-  <si>
     <t>Fig97_Density_AAIMON_vs_perc_ident_all_homol_all_proteins</t>
   </si>
   <si>
     <t>vmax</t>
   </si>
   <si>
-    <t>SCAMPI</t>
-  </si>
-  <si>
     <t>TM</t>
   </si>
   <si>
@@ -865,17 +835,149 @@
     <t>singlepass_SiPe_2</t>
   </si>
   <si>
-    <t>[1,2,3]</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5</t>
+    <t>Str_OPM</t>
+  </si>
+  <si>
+    <t>STR_PDBTM</t>
+  </si>
+  <si>
+    <t>singlepass_0_35</t>
+  </si>
+  <si>
+    <t>multipass_0_35</t>
+  </si>
+  <si>
+    <t>singlepass_35_60</t>
+  </si>
+  <si>
+    <t>multipass_35_60</t>
+  </si>
+  <si>
+    <t>STR_PDBTM_SP</t>
+  </si>
+  <si>
+    <t>STR_PDBTM_MP</t>
+  </si>
+  <si>
+    <t>TMSEG-0-35</t>
+  </si>
+  <si>
+    <t>TMSEG-35-60</t>
+  </si>
+  <si>
+    <t>list_notes</t>
+  </si>
+  <si>
+    <t>Structure dataset, OPM, from Michael, RostLab</t>
+  </si>
+  <si>
+    <t>Structure dataset, PDBTM, from Michael, RostLab</t>
+  </si>
+  <si>
+    <t>Structure dataset, PDBTM, from Michael, RostLab, singlepass only</t>
+  </si>
+  <si>
+    <t>Structure dataset, PDBTM, from Michael, RostLab, multipass only</t>
+  </si>
+  <si>
+    <t>singlepass dataset, only homologues from 0-35% substitutions</t>
+  </si>
+  <si>
+    <t>multipass dataset, only homologues from 0-35% substitutions</t>
+  </si>
+  <si>
+    <t>singlepass dataset, only homologues from 35-60% substitutions</t>
+  </si>
+  <si>
+    <t>multipass dataset, only homologues from 35-60% substitutions</t>
+  </si>
+  <si>
+    <t>homologues</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>distant</t>
+  </si>
+  <si>
+    <t>mixed</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>betabarrel_15</t>
+  </si>
+  <si>
+    <t>betabarrel_w_SiPe</t>
+  </si>
+  <si>
+    <t>nr_test2</t>
+  </si>
+  <si>
+    <t>depreciated</t>
+  </si>
+  <si>
+    <t>Fig25_Distribution_AAIMON_AAIMON_slope_vs_obs_changes</t>
+  </si>
+  <si>
+    <t>changed</t>
+  </si>
+  <si>
+    <t>Zviling et al. (2007)</t>
+  </si>
+  <si>
+    <t>STR_PDBTM_MP_5_40</t>
+  </si>
+  <si>
+    <t>Structure dataset, PDBTM, from Michael, RostLab, multipass only, minimum 5 TM regions (for first-middle-last graphs), adapted from list 31 by copying the _parsed.csv and re-running prepare_list and gather scripts.</t>
+  </si>
+  <si>
+    <t>All proteins with "highly conserved" TMDs according to Zviling 2007. Non-redundancy protocols run as normal (26/54 are non-redundant to 50%).</t>
+  </si>
+  <si>
+    <t>singlepass_UniProt</t>
+  </si>
+  <si>
+    <t>multipass_UniProt</t>
+  </si>
+  <si>
+    <t>unused. for UniProt TM definitions</t>
+  </si>
+  <si>
+    <t>singlepass_95_align_len</t>
+  </si>
+  <si>
+    <t>multipass_95_align_len</t>
+  </si>
+  <si>
+    <t>betabarrel_95_align_len</t>
+  </si>
+  <si>
+    <t>1,41,2,42</t>
+  </si>
+  <si>
+    <t>TM95</t>
+  </si>
+  <si>
+    <t>List01 with min 95% nonTM coverage for all homologues</t>
+  </si>
+  <si>
+    <t>List02 with min 95% nonTM coverage for all homologues</t>
+  </si>
+  <si>
+    <t>List03 with min 95% nonTM coverage for all homologues</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -914,8 +1016,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="32">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1102,6 +1218,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1116,7 +1238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1332,12 +1454,477 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="112">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1982,8 +2569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2042,13 +2629,13 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>281</v>
+        <v>128</v>
+      </c>
+      <c r="B3" s="36">
+        <v>42</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Q3" s="61"/>
       <c r="R3" s="61"/>
@@ -2072,10 +2659,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="61"/>
       <c r="R4" s="61"/>
@@ -2162,13 +2749,13 @@
     </row>
     <row r="8" spans="1:32" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="69">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="61"/>
       <c r="E8" s="61"/>
@@ -2401,13 +2988,13 @@
     </row>
     <row r="15" spans="1:32" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" s="69" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D15" s="61"/>
       <c r="E15" s="61"/>
@@ -2441,7 +3028,7 @@
     </row>
     <row r="16" spans="1:32" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B16" s="69" t="s">
         <v>2</v>
@@ -2481,7 +3068,7 @@
     </row>
     <row r="17" spans="1:32" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B17" s="69" t="s">
         <v>2</v>
@@ -2521,7 +3108,7 @@
     </row>
     <row r="18" spans="1:32" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" s="69" t="s">
         <v>2</v>
@@ -2561,7 +3148,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B19" s="69" t="s">
         <v>2</v>
@@ -2588,7 +3175,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B20" s="69" t="s">
         <v>2</v>
@@ -2658,7 +3245,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B23" s="69" t="s">
         <v>2</v>
@@ -2685,7 +3272,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="65" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B24" s="69" t="s">
         <v>2</v>
@@ -2723,7 +3310,7 @@
     </row>
     <row r="27" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B27" s="69" t="s">
         <v>2</v>
@@ -2763,7 +3350,7 @@
     </row>
     <row r="28" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B28" s="69" t="s">
         <v>2</v>
@@ -2803,7 +3390,7 @@
     </row>
     <row r="29" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>2</v>
@@ -2843,13 +3430,13 @@
     </row>
     <row r="30" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B30" s="69" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D30" s="61"/>
       <c r="E30" s="61"/>
@@ -2883,7 +3470,7 @@
     </row>
     <row r="31" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B31" s="69" t="s">
         <v>2</v>
@@ -2921,7 +3508,7 @@
     </row>
     <row r="32" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B32" s="69" t="s">
         <v>1</v>
@@ -2995,7 +3582,7 @@
     </row>
     <row r="34" spans="1:16384" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B34" s="44"/>
       <c r="C34" s="59"/>
@@ -3031,13 +3618,13 @@
     </row>
     <row r="35" spans="1:16384" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="B35" s="69" t="b">
-        <v>0</v>
+        <v>244</v>
+      </c>
+      <c r="B35" s="69" t="s">
+        <v>2</v>
       </c>
       <c r="C35" s="60" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D35" s="61"/>
       <c r="E35" s="61"/>
@@ -3071,7 +3658,7 @@
     </row>
     <row r="36" spans="1:16384" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B36" s="69" t="s">
         <v>2</v>
@@ -3109,7 +3696,7 @@
     </row>
     <row r="37" spans="1:16384" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B37" s="69" t="s">
         <v>2</v>
@@ -3147,7 +3734,7 @@
     </row>
     <row r="38" spans="1:16384" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B38" s="69" t="s">
         <v>2</v>
@@ -3187,7 +3774,7 @@
     </row>
     <row r="39" spans="1:16384" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B39" s="69" t="s">
         <v>2</v>
@@ -3225,7 +3812,7 @@
     </row>
     <row r="40" spans="1:16384" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>2</v>
@@ -3263,7 +3850,7 @@
     </row>
     <row r="41" spans="1:16384" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B41" s="69" t="s">
         <v>2</v>
@@ -3303,7 +3890,7 @@
     </row>
     <row r="42" spans="1:16384" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B42" s="69" t="s">
         <v>2</v>
@@ -3343,7 +3930,7 @@
     </row>
     <row r="43" spans="1:16384" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B43" s="69" t="s">
         <v>2</v>
@@ -3381,7 +3968,7 @@
     </row>
     <row r="44" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B44" s="69" t="s">
         <v>2</v>
@@ -3406,13 +3993,13 @@
     </row>
     <row r="45" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B45" s="69" t="s">
         <v>2</v>
       </c>
       <c r="C45" s="60" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q45" s="61"/>
       <c r="R45" s="61"/>
@@ -3433,7 +4020,7 @@
     </row>
     <row r="46" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B46" s="69" t="s">
         <v>2</v>
@@ -19841,7 +20428,7 @@
     </row>
     <row r="48" spans="1:16384" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="85" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B48" s="86"/>
       <c r="C48" s="87"/>
@@ -19877,7 +20464,7 @@
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B49" s="69" t="s">
         <v>2</v>
@@ -19901,10 +20488,10 @@
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B50" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q50" s="61"/>
       <c r="R50" s="61"/>
@@ -19925,10 +20512,10 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q51" s="61"/>
       <c r="R51" s="61"/>
@@ -19948,114 +20535,184 @@
       <c r="AF51" s="61"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1 B5 B52:B1048576 B39:B47">
-    <cfRule type="containsText" dxfId="47" priority="1463" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="B1 B5 B52:B1048576 B40:B47">
+    <cfRule type="containsText" dxfId="92" priority="1565" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="containsText" dxfId="46" priority="1461" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="91" priority="1563" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="45" priority="1460" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="90" priority="1562" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="containsText" dxfId="44" priority="1459" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="89" priority="1561" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B17">
-    <cfRule type="containsText" dxfId="43" priority="1457" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="88" priority="1559" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="containsText" dxfId="42" priority="1266" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="87" priority="1368" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="containsText" dxfId="41" priority="1265" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="86" priority="1367" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="containsText" dxfId="40" priority="1153" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="85" priority="1255" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="containsText" dxfId="39" priority="743" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="B50:B51">
+    <cfRule type="containsText" dxfId="84" priority="803" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="containsText" dxfId="83" priority="166" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B17">
+    <cfRule type="containsText" dxfId="82" priority="104" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="containsText" dxfId="81" priority="65" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36 B38:B39">
+    <cfRule type="containsText" dxfId="80" priority="48" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36 B38:B39">
+    <cfRule type="containsText" dxfId="79" priority="47" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:B15">
+    <cfRule type="containsText" dxfId="78" priority="34" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B51">
-    <cfRule type="containsText" dxfId="38" priority="701" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="37" priority="671" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="containsText" dxfId="36" priority="496" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="35" priority="465" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="containsText" dxfId="34" priority="462" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="containsText" dxfId="33" priority="274" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="containsText" dxfId="32" priority="64" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B7)))</formula>
+  <conditionalFormatting sqref="B13:B15">
+    <cfRule type="containsText" dxfId="77" priority="33" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="containsText" dxfId="31" priority="53" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="76" priority="30" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B18)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="containsText" dxfId="75" priority="29" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="containsText" dxfId="74" priority="28" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="containsText" dxfId="73" priority="27" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B24">
+    <cfRule type="containsText" dxfId="72" priority="26" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B24">
+    <cfRule type="containsText" dxfId="71" priority="25" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="containsText" dxfId="70" priority="24" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="containsText" dxfId="69" priority="23" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="containsText" dxfId="68" priority="22" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="containsText" dxfId="67" priority="21" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="containsText" dxfId="65" priority="13" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="containsText" dxfId="64" priority="14" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="containsText" dxfId="62" priority="6" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="containsText" dxfId="61" priority="11" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="containsText" dxfId="60" priority="10" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:B30">
+    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="containsText" dxfId="57" priority="5" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:B30">
+    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="54" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B37)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B32">
-    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B24">
-    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B20">
-    <cfRule type="containsText" dxfId="27" priority="2" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B49)))</formula>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -20068,10 +20725,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20105,21 +20762,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
         <v>126</v>
-      </c>
-      <c r="B4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -20146,10 +20803,10 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" t="s">
         <v>147</v>
-      </c>
-      <c r="B7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -20170,31 +20827,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="51" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20206,8 +20847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20230,7 +20871,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="52"/>
@@ -20246,7 +20887,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B4" s="36">
         <v>85</v>
@@ -20284,7 +20925,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>2</v>
@@ -20328,7 +20969,7 @@
         <v>3000</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -20353,7 +20994,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B16" s="39" t="s">
         <v>2</v>
@@ -20366,7 +21007,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="75" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B18" s="76"/>
       <c r="C18" s="77"/>
@@ -20382,7 +21023,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="96" t="s">
         <v>1</v>
@@ -20403,7 +21044,7 @@
         <v>110</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C22" s="80"/>
     </row>
@@ -20475,13 +21116,13 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" s="82">
         <v>0.5</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -20544,14 +21185,14 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B37" s="40"/>
       <c r="C37" s="56"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B38" s="41" t="s">
         <v>1</v>
@@ -20560,7 +21201,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B39" s="41">
         <v>1</v>
@@ -20569,7 +21210,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B40" s="41">
         <v>6</v>
@@ -20600,7 +21241,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="73" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B44" s="74">
         <v>2</v>
@@ -20618,7 +21259,7 @@
         <v>0.4</v>
       </c>
       <c r="C45" s="81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -20630,12 +21271,12 @@
         <v>1</v>
       </c>
       <c r="C46" s="81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B47" s="74">
         <f>B45-0.4</f>
@@ -20647,7 +21288,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B48" s="74">
         <v>20</v>
@@ -20678,7 +21319,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B52" s="43">
         <v>2</v>
@@ -20687,31 +21328,31 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B53" s="43">
         <f>B33</f>
         <v>0.4</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B54" s="43">
         <f>B34</f>
         <v>1</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B55" s="43">
         <v>1</v>
@@ -20722,7 +21363,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B56" s="43">
         <v>2</v>
@@ -20915,68 +21556,68 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B78" s="45">
         <v>100</v>
       </c>
       <c r="C78" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B79" s="96">
         <v>0.8</v>
       </c>
       <c r="C79" s="60" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B80" s="96">
         <v>25</v>
       </c>
       <c r="C80" s="60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B81" s="45">
-        <v>5.0000000000000001E-3</v>
+        <v>0.05</v>
       </c>
       <c r="C81" s="60" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B82" s="45" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C82" s="60" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B83" s="45" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C83" s="60" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -21086,12 +21727,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="48" priority="3" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B21)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21104,8 +21745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21123,7 +21764,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>35</v>
@@ -21131,10 +21772,10 @@
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="69"/>
       <c r="D2" s="93"/>
@@ -21154,7 +21795,7 @@
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3" s="69" t="s">
         <v>1</v>
@@ -21177,7 +21818,7 @@
     </row>
     <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="69" t="s">
         <v>1</v>
@@ -21200,7 +21841,7 @@
     </row>
     <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" s="69">
         <v>50</v>
@@ -21223,14 +21864,14 @@
     </row>
     <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="84" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B6" s="69">
         <v>5</v>
       </c>
       <c r="C6" s="69"/>
       <c r="D6" s="93" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E6" s="83"/>
       <c r="F6" s="83"/>
@@ -21248,7 +21889,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="69" t="s">
         <v>1</v>
@@ -21258,8 +21899,8 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>150</v>
+      <c r="A8" s="98" t="s">
+        <v>149</v>
       </c>
       <c r="B8" s="69" t="s">
         <v>2</v>
@@ -21268,12 +21909,12 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="98" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>152</v>
       </c>
       <c r="B9" s="69" t="s">
         <v>2</v>
@@ -21283,8 +21924,8 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>153</v>
+      <c r="A10" s="98" t="s">
+        <v>152</v>
       </c>
       <c r="B10" s="69" t="s">
         <v>2</v>
@@ -21295,7 +21936,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B11" s="69" t="s">
         <v>1</v>
@@ -21306,7 +21947,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B12" s="69" t="s">
         <v>1</v>
@@ -21317,7 +21958,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B13" s="69" t="s">
         <v>1</v>
@@ -21328,7 +21969,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B14" s="69" t="s">
         <v>1</v>
@@ -21337,45 +21978,45 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>154</v>
+      <c r="A15" s="98" t="s">
+        <v>153</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="69" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>155</v>
+      <c r="A16" s="98" t="s">
+        <v>154</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="69" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>156</v>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="98" t="s">
+        <v>155</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="69" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>157</v>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="98" t="s">
+        <v>156</v>
       </c>
       <c r="B18" s="69" t="s">
         <v>2</v>
@@ -21384,9 +22025,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>158</v>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="98" t="s">
+        <v>157</v>
       </c>
       <c r="B19" s="69" t="s">
         <v>2</v>
@@ -21395,9 +22036,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>159</v>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="98" t="s">
+        <v>158</v>
       </c>
       <c r="B20" s="69" t="s">
         <v>2</v>
@@ -21406,9 +22047,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>160</v>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="98" t="s">
+        <v>159</v>
       </c>
       <c r="B21" s="69" t="s">
         <v>2</v>
@@ -21417,9 +22058,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>161</v>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="98" t="s">
+        <v>160</v>
       </c>
       <c r="B22" s="69" t="s">
         <v>2</v>
@@ -21428,9 +22069,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>162</v>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="98" t="s">
+        <v>161</v>
       </c>
       <c r="B23" s="69" t="s">
         <v>2</v>
@@ -21439,9 +22080,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B24" s="69" t="s">
         <v>1</v>
@@ -21450,9 +22091,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25" s="69" t="s">
         <v>1</v>
@@ -21461,9 +22102,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B26" s="69" t="s">
         <v>1</v>
@@ -21472,9 +22113,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27" s="69" t="s">
         <v>1</v>
@@ -21483,9 +22124,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" s="69" t="s">
         <v>1</v>
@@ -21494,9 +22135,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>1</v>
@@ -21505,9 +22146,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B30" s="69" t="s">
         <v>1</v>
@@ -21516,9 +22157,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>299</v>
       </c>
       <c r="B31" s="69" t="s">
         <v>1</v>
@@ -21526,21 +22167,27 @@
       <c r="C31" s="69" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>193</v>
+      <c r="D31" s="98" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="98" t="s">
+        <v>191</v>
       </c>
       <c r="B32" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="69" t="s">
         <v>2</v>
+      </c>
+      <c r="C32" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="98" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B33" s="69" t="s">
         <v>1</v>
@@ -21551,7 +22198,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B34" s="69" t="s">
         <v>1</v>
@@ -21562,7 +22209,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B35" s="69" t="s">
         <v>1</v>
@@ -21573,7 +22220,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B36" s="69" t="s">
         <v>1</v>
@@ -21584,10 +22231,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B37" s="69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="69" t="b">
         <v>0</v>
@@ -21595,10 +22242,10 @@
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B38" s="69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" s="69" t="s">
         <v>2</v>
@@ -21606,119 +22253,134 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B39" s="69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" s="69" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:C1 B5:C6 C2:C4">
-    <cfRule type="containsText" dxfId="20" priority="85" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="B1:C1 C2:C6">
+    <cfRule type="containsText" dxfId="47" priority="105" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C29 C8:C14">
-    <cfRule type="containsText" dxfId="19" priority="28" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="containsText" dxfId="18" priority="26" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="containsText" dxfId="17" priority="27" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="44" priority="47" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="containsText" dxfId="16" priority="24" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",C33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",C31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="13" priority="22" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C39">
-    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",C38)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C34:C36">
+    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="containsText" dxfId="35" priority="32" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsText" dxfId="33" priority="29" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="containsText" dxfId="32" priority="10" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7 B24:B30 B11:B14">
+    <cfRule type="containsText" dxfId="31" priority="9" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="containsText" dxfId="30" priority="8" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B10">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:B23">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="containsText" dxfId="27" priority="16" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:B17">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B6">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B33:B36">
-    <cfRule type="containsText" dxfId="11" priority="20" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C36">
-    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",C34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7 B24:B32 B11:B14">
-    <cfRule type="containsText" dxfId="8" priority="14" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="7" priority="12" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",C37)))</formula>
+  <conditionalFormatting sqref="B18:B21">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B39">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B37)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B17">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B10">
+  <conditionalFormatting sqref="B32">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:B21">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B23">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B22)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",B32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -21728,60 +22390,71 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="46" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="46" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="7" max="8" width="4.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="11" max="11" width="28" style="46" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="46" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="D1" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>208</v>
-      </c>
       <c r="E1" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -21807,16 +22480,25 @@
         <v>250</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J2" s="48" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="K2" s="48" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="M2" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="N2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="34">
         <f>A2+1</f>
         <v>2</v>
@@ -21843,16 +22525,25 @@
         <v>5000</v>
       </c>
       <c r="I3" s="89" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J3" s="89" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="K3" s="89" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="L3" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="M3" s="89" t="s">
+        <v>290</v>
+      </c>
+      <c r="N3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -21879,16 +22570,25 @@
         <v>250</v>
       </c>
       <c r="I4" s="90" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="J4" s="90" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="K4" s="90" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="L4" s="90" t="s">
+        <v>229</v>
+      </c>
+      <c r="M4" s="90" t="s">
+        <v>290</v>
+      </c>
+      <c r="N4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -21896,7 +22596,7 @@
       <c r="B5" s="48">
         <v>10</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="100">
         <v>10</v>
       </c>
       <c r="D5" s="48">
@@ -21915,16 +22615,25 @@
         <v>250</v>
       </c>
       <c r="I5" s="48" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J5" s="48" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="N5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -21932,7 +22641,7 @@
       <c r="B6" s="89">
         <v>10</v>
       </c>
-      <c r="C6" s="89">
+      <c r="C6" s="101">
         <v>10</v>
       </c>
       <c r="D6" s="89">
@@ -21951,84 +22660,109 @@
         <v>5000</v>
       </c>
       <c r="I6" s="89" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J6" s="89" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="K6" s="89" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="L6" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="M6" s="89" t="s">
+        <v>290</v>
+      </c>
+      <c r="N6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="C7" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="D7" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="F7" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="G7" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="H7" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="I7" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="90">
+        <v>10</v>
+      </c>
+      <c r="C7" s="102">
+        <v>10</v>
+      </c>
+      <c r="D7" s="90">
+        <v>5</v>
+      </c>
+      <c r="E7" s="90">
+        <v>6</v>
+      </c>
+      <c r="F7" s="90">
+        <v>40</v>
+      </c>
+      <c r="G7" s="90">
+        <v>99</v>
+      </c>
+      <c r="H7" s="90">
+        <v>250</v>
+      </c>
+      <c r="I7" s="90" t="s">
+        <v>263</v>
+      </c>
+      <c r="J7" s="90" t="s">
+        <v>265</v>
+      </c>
+      <c r="K7" s="90" t="s">
+        <v>296</v>
+      </c>
+      <c r="L7" s="90" t="s">
+        <v>229</v>
+      </c>
+      <c r="M7" s="90" t="s">
+        <v>290</v>
+      </c>
+      <c r="N7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D8" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F8" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G8" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H8" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I8" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J8" s="91"/>
       <c r="K8" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -22039,7 +22773,7 @@
       <c r="C9" s="48">
         <v>0.5</v>
       </c>
-      <c r="D9" s="96">
+      <c r="D9" s="48">
         <v>30</v>
       </c>
       <c r="E9" s="48">
@@ -22055,16 +22789,25 @@
         <v>250</v>
       </c>
       <c r="I9" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="K9" s="94" t="s">
+        <v>305</v>
+      </c>
+      <c r="L9" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="J9" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="K9" s="94" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="94" t="s">
+        <v>290</v>
+      </c>
+      <c r="N9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -22075,7 +22818,7 @@
       <c r="C10" s="89">
         <v>1</v>
       </c>
-      <c r="D10" s="96">
+      <c r="D10" s="89">
         <v>30</v>
       </c>
       <c r="E10" s="89">
@@ -22091,186 +22834,232 @@
         <v>5000</v>
       </c>
       <c r="I10" s="89" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="J10" s="89" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="K10" s="95" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="L10" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="M10" s="95" t="s">
+        <v>290</v>
+      </c>
+      <c r="N10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="C11" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="E11" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="F11" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="G11" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="H11" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="I11" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="97">
+        <v>10</v>
+      </c>
+      <c r="C11" s="97">
+        <v>1</v>
+      </c>
+      <c r="D11" s="97">
+        <v>30</v>
+      </c>
+      <c r="E11" s="97">
+        <v>1</v>
+      </c>
+      <c r="F11" s="97">
+        <v>1</v>
+      </c>
+      <c r="G11" s="97">
+        <v>99.5</v>
+      </c>
+      <c r="H11" s="97">
+        <v>5000</v>
+      </c>
+      <c r="I11" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="J11" s="97" t="s">
+        <v>261</v>
+      </c>
+      <c r="K11" s="97" t="s">
+        <v>301</v>
+      </c>
+      <c r="L11" s="97" t="s">
+        <v>293</v>
+      </c>
+      <c r="M11" s="97" t="s">
+        <v>290</v>
+      </c>
+      <c r="N11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="C12" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="D12" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="E12" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="F12" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="G12" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="H12" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="I12" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="97">
+        <v>10</v>
+      </c>
+      <c r="C12" s="97">
+        <v>1</v>
+      </c>
+      <c r="D12" s="97">
+        <v>30</v>
+      </c>
+      <c r="E12" s="97">
+        <v>1</v>
+      </c>
+      <c r="F12" s="97">
+        <v>40</v>
+      </c>
+      <c r="G12" s="97">
+        <v>99.5</v>
+      </c>
+      <c r="H12" s="97">
+        <v>5000</v>
+      </c>
+      <c r="I12" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="J12" s="97" t="s">
+        <v>261</v>
+      </c>
+      <c r="K12" s="97" t="s">
+        <v>297</v>
+      </c>
+      <c r="L12" s="97" t="s">
+        <v>293</v>
+      </c>
+      <c r="M12" s="97" t="s">
+        <v>290</v>
+      </c>
+      <c r="N12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C13" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D13" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E13" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F13" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G13" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H13" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I13" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J13" s="91"/>
       <c r="K13" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C14" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D14" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E14" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F14" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G14" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H14" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I14" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J14" s="91"/>
       <c r="K14" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D15" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E15" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F15" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G15" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H15" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I15" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J15" s="91"/>
       <c r="K15" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -22280,7 +23069,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="90">
-        <f t="shared" ref="C16:K16" si="1">C4</f>
+        <f t="shared" ref="C16:F16" si="1">C4</f>
         <v>1</v>
       </c>
       <c r="D16" s="90">
@@ -22302,18 +23091,25 @@
         <v>250</v>
       </c>
       <c r="I16" s="90" t="s">
-        <v>273</v>
-      </c>
-      <c r="J16" s="90" t="str">
-        <f t="shared" ref="J16" si="2">J4</f>
-        <v>TM</v>
-      </c>
-      <c r="K16" s="90" t="str">
-        <f t="shared" si="1"/>
-        <v>betabarrel</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="J16" s="90" t="s">
+        <v>265</v>
+      </c>
+      <c r="K16" s="90" t="s">
+        <v>295</v>
+      </c>
+      <c r="L16" s="90" t="s">
+        <v>229</v>
+      </c>
+      <c r="M16" s="90" t="s">
+        <v>290</v>
+      </c>
+      <c r="N16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -22323,19 +23119,19 @@
         <v>10</v>
       </c>
       <c r="C17" s="48">
-        <f t="shared" ref="C17:F17" si="3">C2</f>
+        <f t="shared" ref="C17:F17" si="2">C2</f>
         <v>0.5</v>
       </c>
       <c r="D17" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E17" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F17" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G17" s="48">
@@ -22345,17 +23141,26 @@
         <v>250</v>
       </c>
       <c r="I17" s="48" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="J17" s="48" t="str">
-        <f t="shared" ref="J17" si="4">J2</f>
+        <f t="shared" ref="J17" si="3">J2</f>
         <v>TM</v>
       </c>
       <c r="K17" s="48" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="L17" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="M17" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="N17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -22365,19 +23170,19 @@
         <v>10</v>
       </c>
       <c r="C18" s="89">
-        <f t="shared" ref="C18:K18" si="5">C3</f>
+        <f t="shared" ref="C18:K18" si="4">C3</f>
         <v>1</v>
       </c>
       <c r="D18" s="89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="E18" s="89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F18" s="89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="G18" s="89">
@@ -22387,40 +23192,49 @@
         <v>5000</v>
       </c>
       <c r="I18" s="89" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J18" s="89" t="str">
-        <f t="shared" ref="J18" si="6">J3</f>
+        <f t="shared" ref="J18" si="5">J3</f>
         <v>TM</v>
       </c>
       <c r="K18" s="89" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>multipass</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="M18" s="89" t="s">
+        <v>290</v>
+      </c>
+      <c r="N18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="48">
-        <f t="shared" ref="B19:K19" si="7">B2</f>
+        <f t="shared" ref="B19:K19" si="6">B2</f>
         <v>10</v>
       </c>
       <c r="C19" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="D19" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="E19" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F19" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G19" s="48">
@@ -22430,40 +23244,49 @@
         <v>250</v>
       </c>
       <c r="I19" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="J19" s="48" t="str">
+        <f t="shared" ref="J19" si="7">J2</f>
+        <v>TM</v>
+      </c>
+      <c r="K19" s="48" t="str">
+        <f t="shared" si="6"/>
+        <v>singlepass</v>
+      </c>
+      <c r="L19" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="J19" s="48" t="str">
-        <f t="shared" ref="J19" si="8">J2</f>
-        <v>TM</v>
-      </c>
-      <c r="K19" s="48" t="str">
-        <f t="shared" si="7"/>
-        <v>singlepass</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M19" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="N19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="34">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="89">
-        <f t="shared" ref="B20:K20" si="9">B3</f>
+        <f t="shared" ref="B20:K20" si="8">B3</f>
         <v>10</v>
       </c>
       <c r="C20" s="89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D20" s="89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="E20" s="89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="F20" s="89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="G20" s="89">
@@ -22473,40 +23296,49 @@
         <v>5000</v>
       </c>
       <c r="I20" s="89" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J20" s="89" t="str">
-        <f t="shared" ref="J20" si="10">J3</f>
+        <f t="shared" ref="J20" si="9">J3</f>
         <v>TM</v>
       </c>
       <c r="K20" s="89" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>multipass</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="M20" s="89" t="s">
+        <v>290</v>
+      </c>
+      <c r="N20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="89">
-        <f t="shared" ref="B21:K21" si="11">B3</f>
+        <f t="shared" ref="B21:K21" si="10">B3</f>
         <v>10</v>
       </c>
       <c r="C21" s="89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D21" s="89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="E21" s="89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="F21" s="89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="G21" s="89">
@@ -22516,40 +23348,49 @@
         <v>5000</v>
       </c>
       <c r="I21" s="89" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J21" s="89" t="str">
-        <f t="shared" ref="J21" si="12">J3</f>
+        <f t="shared" ref="J21" si="11">J3</f>
         <v>TM</v>
       </c>
       <c r="K21" s="89" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>multipass</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="M21" s="89" t="s">
+        <v>290</v>
+      </c>
+      <c r="N21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="34">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="48">
-        <f t="shared" ref="B22:K22" si="13">B2</f>
+        <f t="shared" ref="B22:K22" si="12">B2</f>
         <v>10</v>
       </c>
       <c r="C22" s="48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="D22" s="48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="E22" s="48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F22" s="48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G22" s="48">
@@ -22559,39 +23400,48 @@
         <v>250</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J22" s="48" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="K22" s="48" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>singlepass</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="M22" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="N22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="90">
-        <f t="shared" ref="B23:F23" si="14">B4</f>
+        <f t="shared" ref="B23:F23" si="13">B4</f>
         <v>10</v>
       </c>
       <c r="C23" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D23" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="E23" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="F23" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="G23" s="90">
@@ -22601,39 +23451,48 @@
         <v>250</v>
       </c>
       <c r="I23" s="90" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="J23" s="90" t="str">
-        <f t="shared" ref="J23" si="15">J4</f>
+        <f t="shared" ref="J23" si="14">J4</f>
         <v>TM</v>
       </c>
       <c r="K23" s="90" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="L23" s="90" t="s">
+        <v>229</v>
+      </c>
+      <c r="M23" s="90" t="s">
+        <v>290</v>
+      </c>
+      <c r="N23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="34">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="48">
-        <f t="shared" ref="B24:K24" si="16">B2</f>
+        <f t="shared" ref="B24:K24" si="15">B2</f>
         <v>10</v>
       </c>
       <c r="C24" s="48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="D24" s="48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="E24" s="48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="F24" s="48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G24" s="48">
@@ -22643,40 +23502,49 @@
         <v>250</v>
       </c>
       <c r="I24" s="48" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="J24" s="48" t="str">
-        <f t="shared" ref="J24" si="17">J2</f>
+        <f t="shared" ref="J24" si="16">J2</f>
         <v>TM</v>
       </c>
       <c r="K24" s="48" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>singlepass</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="M24" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="N24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="34">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="48">
-        <f t="shared" ref="B25:K25" si="18">B2</f>
+        <f t="shared" ref="B25:K25" si="17">B2</f>
         <v>10</v>
       </c>
       <c r="C25" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="D25" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>30</v>
       </c>
       <c r="E25" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F25" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G25" s="48">
@@ -22686,40 +23554,49 @@
         <v>250</v>
       </c>
       <c r="I25" s="48" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="J25" s="48" t="str">
-        <f t="shared" ref="J25" si="19">J2</f>
+        <f t="shared" ref="J25" si="18">J2</f>
         <v>TM</v>
       </c>
       <c r="K25" s="48" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>singlepass</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="M25" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="N25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="34">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="48">
-        <f t="shared" ref="B26:K26" si="20">B2</f>
+        <f t="shared" ref="B26:K26" si="19">B2</f>
         <v>10</v>
       </c>
       <c r="C26" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
       <c r="D26" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
       <c r="E26" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="F26" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="G26" s="48">
@@ -22729,18 +23606,27 @@
         <v>250</v>
       </c>
       <c r="I26" s="48" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="J26" s="48" t="str">
-        <f t="shared" ref="J26" si="21">J2</f>
+        <f t="shared" ref="J26" si="20">J2</f>
         <v>TM</v>
       </c>
       <c r="K26" s="48" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>singlepass</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="M26" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="N26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="34">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -22752,2599 +23638,3039 @@
         <v>10</v>
       </c>
       <c r="D27" s="48">
-        <f t="shared" ref="D27:G27" si="22">D2</f>
+        <f t="shared" ref="D27:G27" si="21">D2</f>
         <v>30</v>
       </c>
       <c r="E27" s="48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="F27" s="48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G27" s="48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>95</v>
       </c>
       <c r="H27" s="48">
         <v>250</v>
       </c>
       <c r="I27" s="48" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="J27" s="48" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="K27" s="48" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="L27" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="M27" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="N27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="34">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="48">
-        <f t="shared" ref="B28:G28" si="23">B2</f>
+        <f t="shared" ref="B28:G28" si="22">B2</f>
         <v>10</v>
       </c>
       <c r="C28" s="48">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
       <c r="D28" s="48">
         <v>5</v>
       </c>
       <c r="E28" s="48">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F28" s="48">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="G28" s="48">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>95</v>
       </c>
       <c r="H28" s="48">
         <v>250</v>
       </c>
       <c r="I28" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="J28" s="48" t="str">
+        <f t="shared" ref="J28" si="23">J2</f>
+        <v>TM</v>
+      </c>
+      <c r="K28" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="L28" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="J28" s="48" t="str">
-        <f t="shared" ref="J28" si="24">J2</f>
-        <v>TM</v>
-      </c>
-      <c r="K28" s="48" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M28" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="N28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="50">
-        <f t="shared" ref="B29:J29" si="25">B3</f>
+        <f t="shared" ref="B29:G29" si="24">B3</f>
         <v>10</v>
       </c>
       <c r="C29" s="50">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="D29" s="50">
-        <f t="shared" si="25"/>
-        <v>30</v>
+      <c r="D29" s="79">
+        <v>5</v>
       </c>
       <c r="E29" s="50">
         <v>1</v>
       </c>
       <c r="F29" s="50">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>40</v>
       </c>
       <c r="G29" s="50">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>99.5</v>
       </c>
       <c r="H29" s="50">
-        <f t="shared" ref="H29" si="26">H3</f>
-        <v>5000</v>
+        <v>150</v>
       </c>
       <c r="I29" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="J29" s="50" t="str">
-        <f t="shared" si="25"/>
-        <v>TM</v>
+        <v>270</v>
+      </c>
+      <c r="J29" s="50" t="s">
+        <v>261</v>
       </c>
       <c r="K29" s="50" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="L29" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="M29" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="N29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="34">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="50">
-        <f t="shared" ref="B30:J30" si="27">B3</f>
+        <f t="shared" ref="B30:G30" si="25">B3</f>
         <v>10</v>
       </c>
       <c r="C30" s="50">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="D30" s="50">
-        <f t="shared" si="27"/>
-        <v>30</v>
+      <c r="D30" s="79">
+        <v>5</v>
       </c>
       <c r="E30" s="50">
         <v>1</v>
       </c>
       <c r="F30" s="50">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>40</v>
       </c>
       <c r="G30" s="50">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>99.5</v>
       </c>
       <c r="H30" s="50">
-        <f t="shared" ref="H30" si="28">H3</f>
-        <v>5000</v>
+        <v>150</v>
       </c>
       <c r="I30" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="J30" s="50" t="str">
-        <f t="shared" si="27"/>
-        <v>TM</v>
+        <v>271</v>
+      </c>
+      <c r="J30" s="50" t="s">
+        <v>261</v>
       </c>
       <c r="K30" s="50" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="L30" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="M30" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="N30" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="34">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="50">
-        <f t="shared" ref="B31:J31" si="29">B3</f>
+        <f t="shared" ref="B31:G31" si="26">B3</f>
         <v>10</v>
       </c>
       <c r="C31" s="50">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="D31" s="50">
-        <f t="shared" si="29"/>
-        <v>30</v>
+      <c r="D31" s="79">
+        <v>5</v>
       </c>
       <c r="E31" s="50">
         <v>1</v>
       </c>
       <c r="F31" s="50">
-        <f t="shared" si="29"/>
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G31" s="50">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>99.5</v>
       </c>
       <c r="H31" s="50">
-        <f t="shared" ref="H31" si="30">H3</f>
-        <v>5000</v>
+        <v>150</v>
       </c>
       <c r="I31" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="J31" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="K31" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="L31" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="J31" s="50" t="str">
-        <f t="shared" si="29"/>
-        <v>TM</v>
-      </c>
-      <c r="K31" s="50" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M31" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="N31" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="50">
-        <f t="shared" ref="B32:J32" si="31">B31</f>
+        <f t="shared" ref="B32:G32" si="27">B31</f>
         <v>10</v>
       </c>
       <c r="C32" s="50">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="D32" s="50">
-        <f t="shared" si="31"/>
-        <v>30</v>
+      <c r="D32" s="79">
+        <v>5</v>
       </c>
       <c r="E32" s="50">
-        <f t="shared" si="31"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="50">
-        <f t="shared" si="31"/>
         <v>40</v>
       </c>
       <c r="G32" s="50">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>99.5</v>
       </c>
       <c r="H32" s="50">
-        <f t="shared" ref="H32" si="32">H31</f>
-        <v>5000</v>
+        <v>150</v>
       </c>
       <c r="I32" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="J32" s="50" t="str">
-        <f t="shared" si="31"/>
-        <v>TM</v>
+        <v>271</v>
+      </c>
+      <c r="J32" s="50" t="s">
+        <v>261</v>
       </c>
       <c r="K32" s="50" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="L32" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="M32" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="N32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="48">
-        <f t="shared" ref="B33:J33" si="33">B2</f>
+        <f t="shared" ref="B33:H34" si="28">B2</f>
         <v>10</v>
       </c>
       <c r="C33" s="48">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0.5</v>
       </c>
       <c r="D33" s="48">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>30</v>
       </c>
       <c r="E33" s="48">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F33" s="48">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="G33" s="48">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>95</v>
       </c>
       <c r="H33" s="48">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>250</v>
       </c>
       <c r="I33" s="48" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="J33" s="48" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="J33:J34" si="29">J2</f>
         <v>TM</v>
       </c>
       <c r="K33" s="48" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="L33" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="M33" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="N33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="34">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="89">
-        <f t="shared" ref="B34:J34" si="34">B3</f>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="C34" s="89">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="D34" s="89">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>30</v>
       </c>
       <c r="E34" s="89">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="F34" s="89">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>40</v>
       </c>
       <c r="G34" s="89">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>99.5</v>
       </c>
       <c r="H34" s="89">
-        <f t="shared" si="34"/>
-        <v>5000</v>
+        <v>150</v>
       </c>
       <c r="I34" s="89" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="J34" s="89" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>TM</v>
       </c>
       <c r="K34" s="89" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="L34" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="M34" s="89" t="s">
+        <v>291</v>
+      </c>
+      <c r="N34" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="34">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="91" t="s">
+      <c r="B35" s="48">
+        <f t="shared" ref="B35:H36" si="30">B2</f>
+        <v>10</v>
+      </c>
+      <c r="C35" s="48">
+        <f t="shared" si="30"/>
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="48">
+        <f t="shared" si="30"/>
+        <v>30</v>
+      </c>
+      <c r="E35" s="48">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="F35" s="48">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="G35" s="48">
+        <f t="shared" si="30"/>
+        <v>95</v>
+      </c>
+      <c r="H35" s="48">
+        <f t="shared" si="30"/>
+        <v>250</v>
+      </c>
+      <c r="I35" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="J35" s="48" t="str">
+        <f t="shared" ref="J35:J36" si="31">J2</f>
+        <v>TM</v>
+      </c>
+      <c r="K35" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="L35" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="C35" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="D35" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="E35" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="F35" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="G35" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="H35" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="I35" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="J35" s="91"/>
-      <c r="K35" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M35" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="N35" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="34">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="C36" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="D36" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="E36" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="F36" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="G36" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="H36" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="I36" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="89">
+        <f t="shared" si="30"/>
+        <v>10</v>
+      </c>
+      <c r="C36" s="89">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="D36" s="89">
+        <f t="shared" si="30"/>
+        <v>30</v>
+      </c>
+      <c r="E36" s="89">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="F36" s="89">
+        <f t="shared" si="30"/>
+        <v>40</v>
+      </c>
+      <c r="G36" s="89">
+        <f t="shared" si="30"/>
+        <v>99.5</v>
+      </c>
+      <c r="H36" s="89">
+        <v>150</v>
+      </c>
+      <c r="I36" s="89" t="s">
+        <v>279</v>
+      </c>
+      <c r="J36" s="89" t="str">
+        <f t="shared" si="31"/>
+        <v>TM</v>
+      </c>
+      <c r="K36" s="89" t="s">
+        <v>275</v>
+      </c>
+      <c r="L36" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="M36" s="89" t="s">
+        <v>292</v>
+      </c>
+      <c r="N36" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="34">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="C37" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="D37" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="E37" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="F37" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="G37" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="H37" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="I37" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="J37" s="91"/>
-      <c r="K37" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="50">
+        <f t="shared" ref="B37:G37" si="32">B36</f>
+        <v>10</v>
+      </c>
+      <c r="C37" s="50">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="D37" s="79">
+        <v>5</v>
+      </c>
+      <c r="E37" s="96">
+        <v>5</v>
+      </c>
+      <c r="F37" s="50">
+        <v>40</v>
+      </c>
+      <c r="G37" s="50">
+        <f t="shared" si="32"/>
+        <v>99.5</v>
+      </c>
+      <c r="H37" s="50">
+        <v>150</v>
+      </c>
+      <c r="I37" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="J37" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="L37" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="M37" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="N37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="34">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C38" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D38" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E38" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F38" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G38" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H38" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I38" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J38" s="91"/>
       <c r="K38" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L38" s="91"/>
+      <c r="M38" s="91"/>
+      <c r="N38" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="34">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C39" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D39" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E39" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F39" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G39" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H39" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I39" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J39" s="91"/>
       <c r="K39" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L39" s="91"/>
+      <c r="M39" s="91"/>
+      <c r="N39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="34">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C40" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D40" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E40" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F40" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G40" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H40" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I40" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J40" s="91"/>
       <c r="K40" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L40" s="91"/>
+      <c r="M40" s="91"/>
+      <c r="N40" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C41" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D41" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E41" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F41" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G41" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H41" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I41" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J41" s="91"/>
       <c r="K41" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L41" s="91"/>
+      <c r="M41" s="91"/>
+      <c r="N41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="34">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="91" t="s">
+      <c r="B42" s="48">
+        <v>10</v>
+      </c>
+      <c r="C42" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="48">
+        <v>15</v>
+      </c>
+      <c r="E42" s="48">
+        <v>1</v>
+      </c>
+      <c r="F42" s="48">
+        <v>1</v>
+      </c>
+      <c r="G42" s="48">
+        <v>95</v>
+      </c>
+      <c r="H42" s="48">
+        <v>250</v>
+      </c>
+      <c r="I42" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="J42" s="48" t="s">
+        <v>312</v>
+      </c>
+      <c r="K42" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="L42" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="C42" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="D42" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="E42" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="F42" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="G42" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="H42" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="I42" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="J42" s="91"/>
-      <c r="K42" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M42" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="N42" s="103" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="C43" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="D43" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="E43" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="F43" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="G43" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="H43" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="I43" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="J43" s="91"/>
-      <c r="K43" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="89">
+        <v>10</v>
+      </c>
+      <c r="C43" s="89">
+        <v>1</v>
+      </c>
+      <c r="D43" s="89">
+        <v>15</v>
+      </c>
+      <c r="E43" s="89">
+        <v>2</v>
+      </c>
+      <c r="F43" s="89">
+        <v>40</v>
+      </c>
+      <c r="G43" s="89">
+        <v>99.5</v>
+      </c>
+      <c r="H43" s="89">
+        <v>5000</v>
+      </c>
+      <c r="I43" s="89" t="s">
+        <v>250</v>
+      </c>
+      <c r="J43" s="89" t="s">
+        <v>312</v>
+      </c>
+      <c r="K43" s="89" t="s">
+        <v>309</v>
+      </c>
+      <c r="L43" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="M43" s="89" t="s">
+        <v>290</v>
+      </c>
+      <c r="N43" s="103" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="34">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="C44" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="D44" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="E44" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="F44" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="G44" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="H44" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="I44" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="J44" s="91"/>
-      <c r="K44" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="90">
+        <v>10</v>
+      </c>
+      <c r="C44" s="90">
+        <v>1</v>
+      </c>
+      <c r="D44" s="90">
+        <v>5</v>
+      </c>
+      <c r="E44" s="90">
+        <v>6</v>
+      </c>
+      <c r="F44" s="90">
+        <v>40</v>
+      </c>
+      <c r="G44" s="90">
+        <v>99</v>
+      </c>
+      <c r="H44" s="90">
+        <v>250</v>
+      </c>
+      <c r="I44" s="90" t="s">
+        <v>263</v>
+      </c>
+      <c r="J44" s="90" t="s">
+        <v>312</v>
+      </c>
+      <c r="K44" s="90" t="s">
+        <v>310</v>
+      </c>
+      <c r="L44" s="90" t="s">
+        <v>229</v>
+      </c>
+      <c r="M44" s="90" t="s">
+        <v>290</v>
+      </c>
+      <c r="N44" s="103" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C45" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D45" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E45" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F45" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G45" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H45" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I45" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J45" s="91"/>
       <c r="K45" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L45" s="91"/>
+      <c r="M45" s="91"/>
+      <c r="N45" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="34">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C46" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D46" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E46" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F46" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G46" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H46" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I46" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J46" s="91"/>
       <c r="K46" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L46" s="91"/>
+      <c r="M46" s="91"/>
+      <c r="N46" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="34">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C47" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D47" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E47" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F47" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G47" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H47" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I47" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J47" s="91"/>
       <c r="K47" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L47" s="91"/>
+      <c r="M47" s="91"/>
+      <c r="N47" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="34">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C48" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D48" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E48" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F48" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G48" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H48" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I48" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J48" s="91"/>
       <c r="K48" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L48" s="91"/>
+      <c r="M48" s="91"/>
+      <c r="N48" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="34">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C49" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D49" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E49" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F49" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G49" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H49" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I49" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J49" s="91"/>
       <c r="K49" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L49" s="91"/>
+      <c r="M49" s="91"/>
+      <c r="N49" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="34">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C50" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D50" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E50" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F50" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G50" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H50" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I50" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J50" s="91"/>
       <c r="K50" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L50" s="91"/>
+      <c r="M50" s="91"/>
+      <c r="N50" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="34">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C51" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D51" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E51" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F51" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G51" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H51" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I51" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J51" s="91"/>
       <c r="K51" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L51" s="91"/>
+      <c r="M51" s="91"/>
+      <c r="N51" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="34">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C52" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D52" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E52" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F52" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G52" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H52" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I52" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J52" s="91"/>
       <c r="K52" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L52" s="91"/>
+      <c r="M52" s="91"/>
+      <c r="N52" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="34">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C53" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D53" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E53" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F53" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G53" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H53" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I53" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J53" s="91"/>
       <c r="K53" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L53" s="91"/>
+      <c r="M53" s="91"/>
+      <c r="N53" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="34">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C54" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D54" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E54" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F54" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G54" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H54" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I54" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J54" s="91"/>
       <c r="K54" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L54" s="91"/>
+      <c r="M54" s="91"/>
+      <c r="N54" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="34">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C55" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D55" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E55" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F55" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G55" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H55" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I55" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J55" s="91"/>
       <c r="K55" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L55" s="91"/>
+      <c r="M55" s="91"/>
+      <c r="N55" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="34">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C56" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D56" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E56" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F56" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G56" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H56" s="48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I56" s="48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J56" s="91"/>
       <c r="K56" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L56" s="91"/>
+      <c r="M56" s="91"/>
+      <c r="N56" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="34">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C57" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D57" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E57" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F57" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G57" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H57" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I57" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J57" s="91"/>
       <c r="K57" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L57" s="91"/>
+      <c r="M57" s="91"/>
+      <c r="N57" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="34">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B58" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C58" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D58" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E58" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F58" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G58" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H58" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I58" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J58" s="91"/>
       <c r="K58" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L58" s="91"/>
+      <c r="M58" s="91"/>
+      <c r="N58" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="34">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B59" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C59" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D59" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E59" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F59" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G59" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H59" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I59" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J59" s="91"/>
       <c r="K59" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L59" s="91"/>
+      <c r="M59" s="91"/>
+      <c r="N59" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="34">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B60" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C60" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D60" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E60" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F60" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G60" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H60" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I60" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J60" s="91"/>
       <c r="K60" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L60" s="91"/>
+      <c r="M60" s="91"/>
+      <c r="N60" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="34">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C61" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D61" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E61" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F61" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G61" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H61" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I61" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J61" s="91"/>
       <c r="K61" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L61" s="91"/>
+      <c r="M61" s="91"/>
+      <c r="N61" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="34">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C62" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D62" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E62" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F62" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G62" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H62" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I62" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J62" s="91"/>
       <c r="K62" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L62" s="91"/>
+      <c r="M62" s="91"/>
+      <c r="N62" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="34">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C63" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D63" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E63" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F63" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G63" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H63" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I63" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J63" s="91"/>
       <c r="K63" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L63" s="91"/>
+      <c r="M63" s="91"/>
+      <c r="N63" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="34">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C64" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D64" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E64" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F64" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G64" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H64" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I64" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J64" s="91"/>
       <c r="K64" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L64" s="91"/>
+      <c r="M64" s="91"/>
+      <c r="N64" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="34">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B65" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C65" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D65" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E65" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F65" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G65" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H65" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I65" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J65" s="91"/>
       <c r="K65" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L65" s="91"/>
+      <c r="M65" s="91"/>
+      <c r="N65" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="34">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B66" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C66" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D66" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E66" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F66" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G66" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H66" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I66" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J66" s="91"/>
       <c r="K66" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L66" s="91"/>
+      <c r="M66" s="91"/>
+      <c r="N66" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="34">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B67" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C67" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D67" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E67" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F67" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G67" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H67" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I67" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J67" s="91"/>
       <c r="K67" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L67" s="91"/>
+      <c r="M67" s="91"/>
+      <c r="N67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="34">
-        <f t="shared" ref="A68:A100" si="35">A67+1</f>
+        <f t="shared" ref="A68:A100" si="33">A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C68" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D68" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E68" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F68" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G68" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H68" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I68" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J68" s="91"/>
       <c r="K68" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L68" s="91"/>
+      <c r="M68" s="91"/>
+      <c r="N68" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>68</v>
       </c>
       <c r="B69" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C69" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D69" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E69" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F69" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G69" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H69" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I69" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J69" s="91"/>
       <c r="K69" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L69" s="91"/>
+      <c r="M69" s="91"/>
+      <c r="N69" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>69</v>
       </c>
       <c r="B70" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C70" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D70" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E70" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F70" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G70" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H70" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I70" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J70" s="91"/>
       <c r="K70" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L70" s="91"/>
+      <c r="M70" s="91"/>
+      <c r="N70" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>70</v>
       </c>
       <c r="B71" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C71" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D71" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E71" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F71" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G71" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H71" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I71" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J71" s="91"/>
       <c r="K71" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L71" s="91"/>
+      <c r="M71" s="91"/>
+      <c r="N71" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>71</v>
       </c>
       <c r="B72" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C72" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D72" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E72" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F72" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G72" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H72" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I72" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J72" s="91"/>
       <c r="K72" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L72" s="91"/>
+      <c r="M72" s="91"/>
+      <c r="N72" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>72</v>
       </c>
       <c r="B73" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C73" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D73" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E73" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F73" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G73" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H73" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I73" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J73" s="91"/>
       <c r="K73" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L73" s="91"/>
+      <c r="M73" s="91"/>
+      <c r="N73" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>73</v>
       </c>
       <c r="B74" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C74" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D74" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E74" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F74" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G74" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H74" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I74" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J74" s="91"/>
       <c r="K74" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L74" s="91"/>
+      <c r="M74" s="91"/>
+      <c r="N74" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>74</v>
       </c>
       <c r="B75" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C75" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D75" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E75" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F75" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G75" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H75" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I75" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J75" s="91"/>
       <c r="K75" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L75" s="91"/>
+      <c r="M75" s="91"/>
+      <c r="N75" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>75</v>
       </c>
       <c r="B76" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C76" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D76" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E76" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F76" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G76" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H76" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I76" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J76" s="91"/>
       <c r="K76" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L76" s="91"/>
+      <c r="M76" s="91"/>
+      <c r="N76" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>76</v>
       </c>
       <c r="B77" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C77" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D77" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E77" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F77" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G77" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H77" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I77" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J77" s="91"/>
       <c r="K77" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L77" s="91"/>
+      <c r="M77" s="91"/>
+      <c r="N77" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>77</v>
       </c>
       <c r="B78" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C78" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D78" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E78" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F78" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G78" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H78" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I78" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J78" s="91"/>
       <c r="K78" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L78" s="91"/>
+      <c r="M78" s="91"/>
+      <c r="N78" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>78</v>
       </c>
       <c r="B79" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C79" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E79" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F79" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G79" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H79" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I79" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J79" s="91"/>
       <c r="K79" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L79" s="91"/>
+      <c r="M79" s="91"/>
+      <c r="N79" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>79</v>
       </c>
       <c r="B80" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C80" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D80" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E80" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F80" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G80" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H80" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I80" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J80" s="91"/>
       <c r="K80" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L80" s="91"/>
+      <c r="M80" s="91"/>
+      <c r="N80" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>80</v>
       </c>
       <c r="B81" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C81" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D81" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E81" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F81" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G81" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H81" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I81" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J81" s="91"/>
       <c r="K81" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L81" s="91"/>
+      <c r="M81" s="91"/>
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>81</v>
       </c>
       <c r="B82" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C82" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D82" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E82" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F82" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G82" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H82" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I82" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J82" s="91"/>
       <c r="K82" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L82" s="91"/>
+      <c r="M82" s="91"/>
+      <c r="N82" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>82</v>
       </c>
       <c r="B83" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C83" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D83" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E83" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F83" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G83" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H83" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I83" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J83" s="91"/>
       <c r="K83" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L83" s="91"/>
+      <c r="M83" s="91"/>
+      <c r="N83" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>83</v>
       </c>
       <c r="B84" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C84" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D84" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E84" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F84" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G84" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H84" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I84" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J84" s="91"/>
       <c r="K84" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L84" s="91"/>
+      <c r="M84" s="91"/>
+      <c r="N84" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>84</v>
       </c>
       <c r="B85" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C85" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D85" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E85" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F85" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G85" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H85" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I85" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J85" s="91"/>
       <c r="K85" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L85" s="91"/>
+      <c r="M85" s="91"/>
+      <c r="N85" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>85</v>
       </c>
       <c r="B86" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C86" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D86" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E86" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F86" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G86" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H86" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I86" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J86" s="91"/>
       <c r="K86" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L86" s="91"/>
+      <c r="M86" s="91"/>
+      <c r="N86" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>86</v>
       </c>
       <c r="B87" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C87" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D87" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E87" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F87" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G87" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H87" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I87" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J87" s="91"/>
       <c r="K87" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L87" s="91"/>
+      <c r="M87" s="91"/>
+      <c r="N87" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>87</v>
       </c>
       <c r="B88" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C88" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D88" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E88" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F88" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G88" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H88" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I88" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J88" s="91"/>
       <c r="K88" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L88" s="91"/>
+      <c r="M88" s="91"/>
+      <c r="N88" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="34">
+        <f t="shared" si="33"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="48">
+        <f t="shared" ref="B89:K89" si="34">B9</f>
+        <v>10</v>
+      </c>
+      <c r="C89" s="48">
+        <f t="shared" si="34"/>
+        <v>0.5</v>
+      </c>
+      <c r="D89" s="48">
+        <f t="shared" si="34"/>
+        <v>30</v>
+      </c>
+      <c r="E89" s="48">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="F89" s="48">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="G89" s="48">
+        <f t="shared" si="34"/>
+        <v>95</v>
+      </c>
+      <c r="H89" s="91" t="s">
+        <v>225</v>
+      </c>
+      <c r="I89" s="91" t="s">
+        <v>225</v>
+      </c>
+      <c r="J89" s="48" t="str">
+        <f t="shared" si="34"/>
+        <v>TM</v>
+      </c>
+      <c r="K89" s="94" t="str">
+        <f t="shared" si="34"/>
+        <v>singlepass_UniProt</v>
+      </c>
+      <c r="L89" s="94"/>
+      <c r="M89" s="94"/>
+      <c r="N89" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="34">
+        <f t="shared" si="33"/>
+        <v>89</v>
+      </c>
+      <c r="B90" s="89">
+        <f t="shared" ref="B90:K90" si="35">B3</f>
+        <v>10</v>
+      </c>
+      <c r="C90" s="89">
         <f t="shared" si="35"/>
-        <v>88</v>
-      </c>
-      <c r="B89" s="48">
-        <f t="shared" ref="B89:K89" si="36">B9</f>
-        <v>10</v>
-      </c>
-      <c r="C89" s="48">
-        <f t="shared" si="36"/>
-        <v>0.5</v>
-      </c>
-      <c r="D89" s="48">
-        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="D90" s="89">
+        <f t="shared" si="35"/>
         <v>30</v>
       </c>
-      <c r="E89" s="48">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="F89" s="48">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="G89" s="48">
-        <f t="shared" si="36"/>
-        <v>95</v>
-      </c>
-      <c r="H89" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="I89" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="J89" s="48" t="str">
-        <f t="shared" si="36"/>
+      <c r="E90" s="89">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="F90" s="89">
+        <f t="shared" si="35"/>
+        <v>40</v>
+      </c>
+      <c r="G90" s="89">
+        <f t="shared" si="35"/>
+        <v>99.5</v>
+      </c>
+      <c r="H90" s="91" t="s">
+        <v>225</v>
+      </c>
+      <c r="I90" s="91" t="s">
+        <v>225</v>
+      </c>
+      <c r="J90" s="89" t="str">
+        <f t="shared" si="35"/>
         <v>TM</v>
       </c>
-      <c r="K89" s="94" t="str">
-        <f t="shared" si="36"/>
-        <v>singlepass_TMSEG</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="34">
+      <c r="K90" s="89" t="str">
         <f t="shared" si="35"/>
-        <v>89</v>
-      </c>
-      <c r="B90" s="89">
-        <f t="shared" ref="B90:K90" si="37">B3</f>
-        <v>10</v>
-      </c>
-      <c r="C90" s="89">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="D90" s="89">
-        <f t="shared" si="37"/>
-        <v>30</v>
-      </c>
-      <c r="E90" s="89">
-        <f t="shared" si="37"/>
-        <v>2</v>
-      </c>
-      <c r="F90" s="89">
-        <f t="shared" si="37"/>
-        <v>40</v>
-      </c>
-      <c r="G90" s="89">
-        <f t="shared" si="37"/>
-        <v>99.5</v>
-      </c>
-      <c r="H90" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="I90" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="J90" s="89" t="str">
-        <f t="shared" si="37"/>
-        <v>TM</v>
-      </c>
-      <c r="K90" s="89" t="str">
-        <f t="shared" si="37"/>
         <v>multipass</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90" s="89"/>
+      <c r="M90" s="89"/>
+      <c r="N90" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>90</v>
       </c>
       <c r="B91" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C91" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D91" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E91" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F91" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G91" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H91" s="48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I91" s="48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J91" s="91"/>
       <c r="K91" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L91" s="91"/>
+      <c r="M91" s="91"/>
+      <c r="N91" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>91</v>
       </c>
       <c r="B92" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C92" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D92" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E92" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F92" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G92" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H92" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I92" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J92" s="91"/>
       <c r="K92" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L92" s="91"/>
+      <c r="M92" s="91"/>
+      <c r="N92" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>92</v>
       </c>
       <c r="B93" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C93" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D93" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E93" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F93" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G93" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H93" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I93" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J93" s="91"/>
       <c r="K93" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L93" s="91"/>
+      <c r="M93" s="91"/>
+      <c r="N93" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>93</v>
       </c>
       <c r="B94" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C94" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D94" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E94" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F94" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G94" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H94" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I94" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J94" s="91"/>
       <c r="K94" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L94" s="91"/>
+      <c r="M94" s="91"/>
+      <c r="N94" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>94</v>
       </c>
       <c r="B95" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C95" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D95" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E95" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F95" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G95" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H95" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I95" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J95" s="91"/>
       <c r="K95" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L95" s="91"/>
+      <c r="M95" s="91"/>
+      <c r="N95" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>95</v>
       </c>
       <c r="B96" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C96" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D96" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E96" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F96" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G96" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H96" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I96" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J96" s="91"/>
       <c r="K96" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L96" s="91"/>
+      <c r="M96" s="91"/>
+      <c r="N96" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>96</v>
       </c>
       <c r="B97" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C97" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D97" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E97" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F97" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G97" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H97" s="48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I97" s="48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J97" s="91"/>
       <c r="K97" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L97" s="91"/>
+      <c r="M97" s="91"/>
+      <c r="N97" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>97</v>
       </c>
       <c r="B98" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C98" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D98" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E98" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F98" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G98" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H98" s="89" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I98" s="89" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J98" s="91"/>
       <c r="K98" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L98" s="91"/>
+      <c r="M98" s="91"/>
+      <c r="N98" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>98</v>
       </c>
       <c r="B99" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C99" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D99" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E99" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F99" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G99" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H99" s="89" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I99" s="89" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J99" s="91"/>
       <c r="K99" s="91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L99" s="91"/>
+      <c r="M99" s="91"/>
+      <c r="N99" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>99</v>
       </c>
       <c r="B100" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C100" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D100" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E100" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F100" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G100" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H100" s="89" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I100" s="89" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J100" s="91"/>
       <c r="K100" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
+      </c>
+      <c r="L100" s="91"/>
+      <c r="M100" s="91"/>
+      <c r="N100" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/korbinian/examples/settings/korbinian_run_settings_schweris_mp.xlsx
+++ b/korbinian/examples/settings/korbinian_run_settings_schweris_mp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1785" windowWidth="25605" windowHeight="13335"/>
+    <workbookView xWindow="-8655" yWindow="1620" windowWidth="25605" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="run" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="356">
   <si>
     <t>protein_lists</t>
   </si>
@@ -406,9 +406,6 @@
     <t>protein_list_number</t>
   </si>
   <si>
-    <t>Only for comparing two or more protein lists.</t>
-  </si>
-  <si>
     <t>Number of concurrent processes to be run, using multiple CPU cores if available.</t>
   </si>
   <si>
@@ -442,9 +439,6 @@
     <t>cr_min_len_nonTMD</t>
   </si>
   <si>
-    <t>cr_min_identity_of_TMD</t>
-  </si>
-  <si>
     <t>linked to fa setting above</t>
   </si>
   <si>
@@ -499,9 +493,6 @@
     <t>save_png</t>
   </si>
   <si>
-    <t>min_n_homol_for_figs</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -628,9 +619,6 @@
     <t>betabarrel</t>
   </si>
   <si>
-    <t>minimum number of proteins in list for figs, KW analysis, etc</t>
-  </si>
-  <si>
     <t>min_n_proteins_in_list</t>
   </si>
   <si>
@@ -643,356 +631,473 @@
     <t>CI</t>
   </si>
   <si>
-    <t>testing_mode</t>
-  </si>
-  <si>
-    <t>The proteins to be analysed are grouped in a numbered list. Replace with "compare" if running compare_lists.</t>
-  </si>
-  <si>
     <t>singlepass_yeast_SiPe</t>
   </si>
   <si>
     <t>singlepass_Ecoli</t>
   </si>
   <si>
+    <t>gather_AAIMON_ratios = True required; filters dataset for specified keywords, see variables</t>
+  </si>
+  <si>
+    <t>generate_scampi_input_files</t>
+  </si>
+  <si>
+    <t>Converts list_parsed.csv (e.g. List01_parsed.csv) to fasta format, which is input for SCAMPI or other prediction algorithms.</t>
+  </si>
+  <si>
+    <t>TMSEG</t>
+  </si>
+  <si>
+    <t>generate_SignalP_input_files</t>
+  </si>
+  <si>
+    <t>gather_filter_allowed_keywords</t>
+  </si>
+  <si>
+    <t>['G-protein coupled receptor']</t>
+  </si>
+  <si>
+    <t>during gather; filtering the dataset allows only these keywords</t>
+  </si>
+  <si>
+    <t>gather_filter_forbidden_keywords</t>
+  </si>
+  <si>
+    <t>['Ion channel']</t>
+  </si>
+  <si>
+    <t>during gather; these keywords will be removed from allowed keyword dataframe</t>
+  </si>
+  <si>
+    <t>vmax</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>TM_def</t>
+  </si>
+  <si>
+    <t>OMPdb</t>
+  </si>
+  <si>
+    <t>regions</t>
+  </si>
+  <si>
+    <t>SiPe_TM</t>
+  </si>
+  <si>
+    <t>create_protein_list</t>
+  </si>
+  <si>
+    <t>UniProt</t>
+  </si>
+  <si>
+    <t>singlepass_SiPe_2</t>
+  </si>
+  <si>
+    <t>Str_OPM</t>
+  </si>
+  <si>
+    <t>STR_PDBTM</t>
+  </si>
+  <si>
+    <t>singlepass_0_35</t>
+  </si>
+  <si>
+    <t>multipass_0_35</t>
+  </si>
+  <si>
+    <t>singlepass_35_60</t>
+  </si>
+  <si>
+    <t>multipass_35_60</t>
+  </si>
+  <si>
+    <t>STR_PDBTM_SP</t>
+  </si>
+  <si>
+    <t>STR_PDBTM_MP</t>
+  </si>
+  <si>
+    <t>TMSEG-0-35</t>
+  </si>
+  <si>
+    <t>TMSEG-35-60</t>
+  </si>
+  <si>
+    <t>list_notes</t>
+  </si>
+  <si>
+    <t>singlepass dataset, only homologues from 0-35% substitutions</t>
+  </si>
+  <si>
+    <t>multipass dataset, only homologues from 0-35% substitutions</t>
+  </si>
+  <si>
+    <t>singlepass dataset, only homologues from 35-60% substitutions</t>
+  </si>
+  <si>
+    <t>multipass dataset, only homologues from 35-60% substitutions</t>
+  </si>
+  <si>
+    <t>homologues</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>distant</t>
+  </si>
+  <si>
+    <t>mixed</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>betabarrel_15</t>
+  </si>
+  <si>
+    <t>betabarrel_w_SiPe</t>
+  </si>
+  <si>
+    <t>nr_test2</t>
+  </si>
+  <si>
+    <t>Zviling et al. (2007)</t>
+  </si>
+  <si>
+    <t>STR_PDBTM_MP_5_40</t>
+  </si>
+  <si>
+    <t>Structure dataset, PDBTM, from Michael, RostLab, multipass only, minimum 5 TM regions (for first-middle-last graphs), adapted from list 31 by copying the _parsed.csv and re-running prepare_list and gather scripts.</t>
+  </si>
+  <si>
+    <t>singlepass_UniProt</t>
+  </si>
+  <si>
+    <t>multipass_UniProt</t>
+  </si>
+  <si>
+    <t>unused. for UniProt TM definitions</t>
+  </si>
+  <si>
+    <t>singlepass_95_align_len</t>
+  </si>
+  <si>
+    <t>multipass_95_align_len</t>
+  </si>
+  <si>
+    <t>betabarrel_95_align_len</t>
+  </si>
+  <si>
+    <t>TM95</t>
+  </si>
+  <si>
+    <t>List01 with min 95% nonTM coverage for all homologues</t>
+  </si>
+  <si>
+    <t>List02 with min 95% nonTM coverage for all homologues</t>
+  </si>
+  <si>
+    <t>List03 with min 95% nonTM coverage for all homologues</t>
+  </si>
+  <si>
+    <t>yeast_babu</t>
+  </si>
+  <si>
+    <t>Babu 2012 yeast membrane proteins, filtered scampi single, for PSIBLAST and TMSEG</t>
+  </si>
+  <si>
+    <t>multipass_redundant</t>
+  </si>
+  <si>
+    <t>list02 without non-redundancy check</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MB_signal_nr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MB_signal_nr_1TM</t>
+  </si>
+  <si>
+    <t>Michael Bernhofer signal peptides predicted to be TM helices by TMSEG, ALL TMDs except TM01 ignored</t>
+  </si>
+  <si>
+    <t>TM01</t>
+  </si>
+  <si>
+    <t>maxgaps_TMD</t>
+  </si>
+  <si>
+    <t>10 multipass to test</t>
+  </si>
+  <si>
+    <t>yeast_babu_singlepass</t>
+  </si>
+  <si>
+    <t>yeast_babu_multipass</t>
+  </si>
+  <si>
+    <t>JM20</t>
+  </si>
+  <si>
+    <t>yeast_JM_20</t>
+  </si>
+  <si>
+    <t>List47, but with TM region shifted from the orig TM sequence, to 20 residues after the TM</t>
+  </si>
+  <si>
+    <t>SiPe_TM should also work, and also TMSEG</t>
+  </si>
+  <si>
+    <t>singlepass_2_to_test</t>
+  </si>
+  <si>
+    <t>multipass_2_to_test</t>
+  </si>
+  <si>
+    <t>two multipass to test</t>
+  </si>
+  <si>
+    <t>3 with signal peptides to test</t>
+  </si>
+  <si>
+    <t>lipo_buffer</t>
+  </si>
+  <si>
+    <t>min_perc_nonTMD</t>
+  </si>
+  <si>
+    <t>min_ident</t>
+  </si>
+  <si>
+    <t>max_ident</t>
+  </si>
+  <si>
+    <t>Fig01_Hist_AAIMON_and_AASMON</t>
+  </si>
+  <si>
+    <t>Fig02_Density_AAIMON_vs_evol_dist</t>
+  </si>
+  <si>
+    <t>Fig03_Density_lipo_vs_TM_conservation</t>
+  </si>
+  <si>
+    <t>Fig05_Boxplot_lipo_each_TMDs</t>
+  </si>
+  <si>
+    <t>Fig07_Density_AAIMON_or_slope_vs_evol_distance</t>
+  </si>
+  <si>
+    <t>Fig08_Hist_AAIMON_slope_TM01_vs_lastTM</t>
+  </si>
+  <si>
+    <t>Fig09_Hist_lipo_TM01_vs_lastTM</t>
+  </si>
+  <si>
+    <t>Fig10_Boxplot_AAIMON_by_number_of_TMDs</t>
+  </si>
+  <si>
+    <t>Fig14_Hist_AAIMON_GPCRs_vs_nonGPCRs</t>
+  </si>
+  <si>
+    <t>Fig15_Boxplot_AAIMON_by_number_of_TMDs_GPCRs_only</t>
+  </si>
+  <si>
+    <t>Fig16_Scatterplot_AAIMON_n_vs_slope</t>
+  </si>
+  <si>
+    <t>Fig17_Scatterplot_perc_identity_nonTMD_vs_TMD</t>
+  </si>
+  <si>
+    <t>Fig18_KW_assoc_with_large_number_of_homol</t>
+  </si>
+  <si>
+    <t>List06_error to test</t>
+  </si>
+  <si>
+    <t>Fig19_barchart_keywords_signif_TM_cons</t>
+  </si>
+  <si>
+    <t>Fig21_linechart_lipo_f_c_l_vs_number_of_TMDs</t>
+  </si>
+  <si>
+    <t>Fig20_BB_linechart_lipo_patterns_orig_dataset</t>
+  </si>
+  <si>
+    <t>Fig22_multipass_linechart_f_c_l_cons_lipo_protein_subgroups</t>
+  </si>
+  <si>
+    <t>Where there are zero identical residues in the TM strand or helix, for any TMD, the whole homologue will be excluded from analysis.</t>
+  </si>
+  <si>
+    <t>exclude_homol_with_0_ident_residues_in_any_TMD</t>
+  </si>
+  <si>
+    <t>Fig04_Boxplot_AAIMON_slope_each_TMD</t>
+  </si>
+  <si>
+    <t>Fig12_Boxplot_AAIMON_slope_by_nonTMD_len</t>
+  </si>
+  <si>
+    <t>Fig06_Boxplot_AAIMON_slope_by_number_of_TMDs</t>
+  </si>
+  <si>
+    <t>Fig13_Boxplot_AAIMON_slope_by_num_of_simap_hits</t>
+  </si>
+  <si>
+    <t>boctopus</t>
+  </si>
+  <si>
+    <t>betabarrel_boctopus</t>
+  </si>
+  <si>
+    <t>List03 with TM topology predicted by boctopus.</t>
+  </si>
+  <si>
+    <t>Fig11_Boxplot_AAIMON_slope_by_seqlen</t>
+  </si>
+  <si>
+    <t>Babu 2012 yeast membrane proteins, filtered scampi single, for PSIBLAST and TMSEG. DO NOT PROCESS. USE cutoffs for SP and MP INSTEAD.</t>
+  </si>
+  <si>
+    <t>Structure dataset, PDBTM, from Michael, RostLab. Use SP and MP settings instead.</t>
+  </si>
+  <si>
+    <t>human_GPCR</t>
+  </si>
+  <si>
+    <t>rerun_20170717</t>
+  </si>
+  <si>
+    <t>Structure dataset, OPM, from Michael, RostLab rerun_20170717</t>
+  </si>
+  <si>
+    <t>Structure dataset, PDBTM, from Michael, RostLab, singlepass only rerun_20170717</t>
+  </si>
+  <si>
+    <t>Structure dataset, PDBTM, from Michael, RostLab, multipass only rerun_20170717</t>
+  </si>
+  <si>
+    <t>All proteins with "highly conserved" TMDs according to Zviling 2007. Non-redundancy protocols run as normal (26/54 are non-redundant to 50%). rerun_20170717</t>
+  </si>
+  <si>
+    <t>human GPCRs, nr 50% rerun_20170717</t>
+  </si>
+  <si>
+    <t>all human singlepass proteins, rerun_20170717</t>
+  </si>
+  <si>
+    <t>all human multipass proteins, rerun_20170717</t>
+  </si>
+  <si>
+    <t>all nr OMPs to 30% aa ident, OMPdb</t>
+  </si>
+  <si>
+    <t>all human singlepass proteins with signal peptides, rerun_20170717</t>
+  </si>
+  <si>
+    <t>all human multipass proteins with signal peptides, rerun_20170717</t>
+  </si>
+  <si>
+    <t>all nr OMPs to 30% aa ident with signal peptides, OMPdb</t>
+  </si>
+  <si>
+    <t>human olfact GPCRs, nr 50%</t>
+  </si>
+  <si>
+    <t>human non-olfact GPCRs, nr 50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Bernhofer signal peptides predicted to be TM helices by TMSEG. rerun_20170717_Failed </t>
+  </si>
+  <si>
+    <t>First 5 of list53</t>
+  </si>
+  <si>
+    <t>human non-GPCRs, modified from list02 rerun_20170717</t>
+  </si>
+  <si>
+    <t>multipass non-GPCR</t>
+  </si>
+  <si>
+    <t>olfactory GPCR</t>
+  </si>
+  <si>
+    <t>non-olfactory GPCR</t>
+  </si>
+  <si>
+    <t>compare_lists_testing_mode</t>
+  </si>
+  <si>
+    <t>compare_lists_create_new_unique_folder</t>
+  </si>
+  <si>
+    <t>compare_lists_run_only_this_fig</t>
+  </si>
+  <si>
+    <t>Only for comparing two or more protein lists. e.g. 1,47,30,2,48,31,3</t>
+  </si>
+  <si>
+    <t>yao_ETRA</t>
+  </si>
+  <si>
+    <t>yao ETRA dataset</t>
+  </si>
+  <si>
+    <t>yao_NMR</t>
+  </si>
+  <si>
+    <t>NMR</t>
+  </si>
+  <si>
+    <t>yao NMR dataset, indices added manually to List56_parsed.csv</t>
+  </si>
+  <si>
+    <t>minimum number of proteins in list for figs, KW analysis, etc. Typically 5 is the default.</t>
+  </si>
+  <si>
+    <t>The proteins to be analysed are grouped in a numbered list. Replace with "compare" if running compare_lists. [1,47,12,48,2], [1,47,12,48,2,3,4,5,6]</t>
+  </si>
+  <si>
+    <t>parsed list 55 containing the 42 proteins from supplementary data of BOCTOPUS2</t>
+  </si>
+  <si>
+    <t>OPM</t>
+  </si>
+  <si>
+    <t>betabarrel_crystal</t>
+  </si>
+  <si>
+    <t>BB_consist_top_boct</t>
+  </si>
+  <si>
+    <t>BB_consist_top_OMPdb</t>
+  </si>
+  <si>
+    <t>betabarrel proteins from list3 with consistent number of predicted TM regions between PRED-TMBB2 and BOCTOPUS2. BOCTOPUS2_TM definitions.</t>
+  </si>
+  <si>
+    <t>betabarrel proteins from list3 with consistent number of predicted TM regions between PRED-TMBB2 and BOCTOPUS2. PRED-TMBB2 TM definitions.</t>
+  </si>
+  <si>
+    <t>[58,59]</t>
+  </si>
+  <si>
     <t>filter_keywords_in_gather</t>
-  </si>
-  <si>
-    <t>gather_AAIMON_ratios = True required; filters dataset for specified keywords, see variables</t>
-  </si>
-  <si>
-    <t>generate_scampi_input_files</t>
-  </si>
-  <si>
-    <t>Converts list_parsed.csv (e.g. List01_parsed.csv) to fasta format, which is input for SCAMPI or other prediction algorithms.</t>
-  </si>
-  <si>
-    <t>TMSEG</t>
-  </si>
-  <si>
-    <t>generate_SignalP_input_files</t>
-  </si>
-  <si>
-    <t>gather_filter_allowed_keywords</t>
-  </si>
-  <si>
-    <t>['G-protein coupled receptor']</t>
-  </si>
-  <si>
-    <t>during gather; filtering the dataset allows only these keywords</t>
-  </si>
-  <si>
-    <t>gather_filter_forbidden_keywords</t>
-  </si>
-  <si>
-    <t>['Ion channel']</t>
-  </si>
-  <si>
-    <t>during gather; these keywords will be removed from allowed keyword dataframe</t>
-  </si>
-  <si>
-    <t>vmax</t>
-  </si>
-  <si>
-    <t>TM</t>
-  </si>
-  <si>
-    <t>TM_def</t>
-  </si>
-  <si>
-    <t>OMPdb</t>
-  </si>
-  <si>
-    <t>regions</t>
-  </si>
-  <si>
-    <t>SiPe_TM</t>
-  </si>
-  <si>
-    <t>create_protein_list</t>
-  </si>
-  <si>
-    <t>UniProt</t>
-  </si>
-  <si>
-    <t>singlepass_SiPe_2</t>
-  </si>
-  <si>
-    <t>Str_OPM</t>
-  </si>
-  <si>
-    <t>STR_PDBTM</t>
-  </si>
-  <si>
-    <t>singlepass_0_35</t>
-  </si>
-  <si>
-    <t>multipass_0_35</t>
-  </si>
-  <si>
-    <t>singlepass_35_60</t>
-  </si>
-  <si>
-    <t>multipass_35_60</t>
-  </si>
-  <si>
-    <t>STR_PDBTM_SP</t>
-  </si>
-  <si>
-    <t>STR_PDBTM_MP</t>
-  </si>
-  <si>
-    <t>TMSEG-0-35</t>
-  </si>
-  <si>
-    <t>TMSEG-35-60</t>
-  </si>
-  <si>
-    <t>list_notes</t>
-  </si>
-  <si>
-    <t>Structure dataset, OPM, from Michael, RostLab</t>
-  </si>
-  <si>
-    <t>Structure dataset, PDBTM, from Michael, RostLab</t>
-  </si>
-  <si>
-    <t>Structure dataset, PDBTM, from Michael, RostLab, singlepass only</t>
-  </si>
-  <si>
-    <t>Structure dataset, PDBTM, from Michael, RostLab, multipass only</t>
-  </si>
-  <si>
-    <t>singlepass dataset, only homologues from 0-35% substitutions</t>
-  </si>
-  <si>
-    <t>multipass dataset, only homologues from 0-35% substitutions</t>
-  </si>
-  <si>
-    <t>singlepass dataset, only homologues from 35-60% substitutions</t>
-  </si>
-  <si>
-    <t>multipass dataset, only homologues from 35-60% substitutions</t>
-  </si>
-  <si>
-    <t>homologues</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>distant</t>
-  </si>
-  <si>
-    <t>mixed</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>betabarrel_15</t>
-  </si>
-  <si>
-    <t>betabarrel_w_SiPe</t>
-  </si>
-  <si>
-    <t>nr_test2</t>
-  </si>
-  <si>
-    <t>changed</t>
-  </si>
-  <si>
-    <t>Zviling et al. (2007)</t>
-  </si>
-  <si>
-    <t>STR_PDBTM_MP_5_40</t>
-  </si>
-  <si>
-    <t>Structure dataset, PDBTM, from Michael, RostLab, multipass only, minimum 5 TM regions (for first-middle-last graphs), adapted from list 31 by copying the _parsed.csv and re-running prepare_list and gather scripts.</t>
-  </si>
-  <si>
-    <t>All proteins with "highly conserved" TMDs according to Zviling 2007. Non-redundancy protocols run as normal (26/54 are non-redundant to 50%).</t>
-  </si>
-  <si>
-    <t>singlepass_UniProt</t>
-  </si>
-  <si>
-    <t>multipass_UniProt</t>
-  </si>
-  <si>
-    <t>unused. for UniProt TM definitions</t>
-  </si>
-  <si>
-    <t>singlepass_95_align_len</t>
-  </si>
-  <si>
-    <t>multipass_95_align_len</t>
-  </si>
-  <si>
-    <t>betabarrel_95_align_len</t>
-  </si>
-  <si>
-    <t>TM95</t>
-  </si>
-  <si>
-    <t>List01 with min 95% nonTM coverage for all homologues</t>
-  </si>
-  <si>
-    <t>List02 with min 95% nonTM coverage for all homologues</t>
-  </si>
-  <si>
-    <t>List03 with min 95% nonTM coverage for all homologues</t>
-  </si>
-  <si>
-    <t>yeast_babu</t>
-  </si>
-  <si>
-    <t>Babu 2012 yeast membrane proteins, filtered scampi single, for PSIBLAST and TMSEG</t>
-  </si>
-  <si>
-    <t>multipass_redundant</t>
-  </si>
-  <si>
-    <t>list02 without non-redundancy check</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MB_signal_nr</t>
-  </si>
-  <si>
-    <t>Michael Bernhofer signal peptides predicted to be TM helices by TMSEG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MB_signal_nr_1TM</t>
-  </si>
-  <si>
-    <t>Michael Bernhofer signal peptides predicted to be TM helices by TMSEG, ALL TMDs except TM01 ignored</t>
-  </si>
-  <si>
-    <t>TM01</t>
-  </si>
-  <si>
-    <t>maxgaps_TMD</t>
-  </si>
-  <si>
-    <t>10 multipass to test</t>
-  </si>
-  <si>
-    <t>yeast_babu_singlepass</t>
-  </si>
-  <si>
-    <t>yeast_babu_multipass</t>
-  </si>
-  <si>
-    <t>JM20</t>
-  </si>
-  <si>
-    <t>yeast_JM_20</t>
-  </si>
-  <si>
-    <t>List47, but with TM region shifted from the orig TM sequence, to 20 residues after the TM</t>
-  </si>
-  <si>
-    <t>human GPCRs, nr 50%</t>
-  </si>
-  <si>
-    <t>SiPe_TM should also work, and also TMSEG</t>
-  </si>
-  <si>
-    <t>singlepass_2_to_test</t>
-  </si>
-  <si>
-    <t>multipass_2_to_test</t>
-  </si>
-  <si>
-    <t>two multipass to test</t>
-  </si>
-  <si>
-    <t>1,30</t>
-  </si>
-  <si>
-    <t>3 with signal peptides to test</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>lipo_buffer</t>
-  </si>
-  <si>
-    <t>REUSABLE. 2 with signal peptides to test</t>
-  </si>
-  <si>
-    <t>min_perc_nonTMD</t>
-  </si>
-  <si>
-    <t>min_ident</t>
-  </si>
-  <si>
-    <t>max_ident</t>
-  </si>
-  <si>
-    <t>Fig01_Hist_AAIMON_and_AASMON</t>
-  </si>
-  <si>
-    <t>Fig02_Density_AAIMON_vs_evol_dist</t>
-  </si>
-  <si>
-    <t>Fig03_Density_lipo_vs_TM_conservation</t>
-  </si>
-  <si>
-    <t>Fig04_Boxplot_AAIMON_each_TMD</t>
-  </si>
-  <si>
-    <t>Fig05_Boxplot_lipo_each_TMDs</t>
-  </si>
-  <si>
-    <t>Fig06_Boxplot_AAIMON_by_number_of_TMDs</t>
-  </si>
-  <si>
-    <t>Fig07_Density_AAIMON_or_slope_vs_evol_distance</t>
-  </si>
-  <si>
-    <t>Fig08_Hist_AAIMON_slope_TM01_vs_lastTM</t>
-  </si>
-  <si>
-    <t>Fig09_Hist_lipo_TM01_vs_lastTM</t>
-  </si>
-  <si>
-    <t>Fig10_Boxplot_AAIMON_by_number_of_TMDs</t>
-  </si>
-  <si>
-    <t>Fig11_Boxplot_AAIMON_by_seqlen</t>
-  </si>
-  <si>
-    <t>Fig12_Boxplot_AAIMON_by_nonTMD_coverage</t>
-  </si>
-  <si>
-    <t>Fig13_Boxplot_AAIMON_by_num_of_simap_hits</t>
-  </si>
-  <si>
-    <t>Fig14_Hist_AAIMON_GPCRs_vs_nonGPCRs</t>
-  </si>
-  <si>
-    <t>Fig15_Boxplot_AAIMON_by_number_of_TMDs_GPCRs_only</t>
-  </si>
-  <si>
-    <t>Fig16_Scatterplot_AAIMON_n_vs_slope</t>
-  </si>
-  <si>
-    <t>Fig17_Scatterplot_perc_identity_nonTMD_vs_TMD</t>
-  </si>
-  <si>
-    <t>Fig18_KW_assoc_with_large_number_of_homol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1054,6 +1159,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1266,7 +1386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1526,12 +1646,267 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="79">
+  <dxfs count="113">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2394,13 +2769,13 @@
   <dimension ref="A1:XFD51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13" style="4" customWidth="1"/>
     <col min="3" max="3" width="69.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.140625" style="61" customWidth="1"/>
     <col min="5" max="16" width="9.140625" style="61"/>
@@ -2456,10 +2831,10 @@
         <v>126</v>
       </c>
       <c r="B3" s="36">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>207</v>
+        <v>346</v>
       </c>
       <c r="Q3" s="61"/>
       <c r="R3" s="61"/>
@@ -2483,10 +2858,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>295</v>
+        <v>354</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>127</v>
+        <v>339</v>
       </c>
       <c r="Q4" s="61"/>
       <c r="R4" s="61"/>
@@ -2536,7 +2911,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>297</v>
+        <v>1</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>103</v>
@@ -2576,10 +2951,10 @@
         <v>119</v>
       </c>
       <c r="B8" s="69">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="61"/>
       <c r="E8" s="61"/>
@@ -2818,7 +3193,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D15" s="61"/>
       <c r="E15" s="61"/>
@@ -2852,7 +3227,7 @@
     </row>
     <row r="16" spans="1:32" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B16" s="69" t="s">
         <v>2</v>
@@ -2892,7 +3267,7 @@
     </row>
     <row r="17" spans="1:32" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B17" s="69" t="s">
         <v>2</v>
@@ -2972,7 +3347,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B19" s="69" t="s">
         <v>2</v>
@@ -2999,7 +3374,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B20" s="69" t="s">
         <v>2</v>
@@ -3069,10 +3444,10 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B23" s="69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="64" t="s">
         <v>8</v>
@@ -3096,7 +3471,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="65" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B24" s="69" t="s">
         <v>2</v>
@@ -3134,7 +3509,7 @@
     </row>
     <row r="27" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B27" s="69" t="s">
         <v>2</v>
@@ -3174,7 +3549,7 @@
     </row>
     <row r="28" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B28" s="69" t="s">
         <v>2</v>
@@ -3214,7 +3589,7 @@
     </row>
     <row r="29" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>2</v>
@@ -3254,13 +3629,13 @@
     </row>
     <row r="30" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B30" s="69" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D30" s="61"/>
       <c r="E30" s="61"/>
@@ -3294,7 +3669,7 @@
     </row>
     <row r="31" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B31" s="69" t="s">
         <v>2</v>
@@ -3332,10 +3707,10 @@
     </row>
     <row r="32" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B32" s="69" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>10</v>
@@ -3406,7 +3781,7 @@
     </row>
     <row r="34" spans="1:16384" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B34" s="44"/>
       <c r="C34" s="59"/>
@@ -3442,13 +3817,13 @@
     </row>
     <row r="35" spans="1:16384" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>210</v>
+        <v>355</v>
       </c>
       <c r="B35" s="69" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="60" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D35" s="61"/>
       <c r="E35" s="61"/>
@@ -3482,7 +3857,7 @@
     </row>
     <row r="36" spans="1:16384" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B36" s="69" t="s">
         <v>2</v>
@@ -3520,7 +3895,7 @@
     </row>
     <row r="37" spans="1:16384" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B37" s="69" t="s">
         <v>2</v>
@@ -3558,7 +3933,7 @@
     </row>
     <row r="38" spans="1:16384" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B38" s="69" t="s">
         <v>2</v>
@@ -3598,7 +3973,7 @@
     </row>
     <row r="39" spans="1:16384" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B39" s="69" t="s">
         <v>2</v>
@@ -3636,7 +4011,7 @@
     </row>
     <row r="40" spans="1:16384" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>2</v>
@@ -3674,7 +4049,7 @@
     </row>
     <row r="41" spans="1:16384" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B41" s="69" t="s">
         <v>2</v>
@@ -3714,7 +4089,7 @@
     </row>
     <row r="42" spans="1:16384" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B42" s="69" t="s">
         <v>2</v>
@@ -3754,7 +4129,7 @@
     </row>
     <row r="43" spans="1:16384" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B43" s="69" t="s">
         <v>2</v>
@@ -3792,7 +4167,7 @@
     </row>
     <row r="44" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B44" s="69" t="s">
         <v>2</v>
@@ -3817,13 +4192,13 @@
     </row>
     <row r="45" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B45" s="69" t="s">
         <v>2</v>
       </c>
       <c r="C45" s="60" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Q45" s="61"/>
       <c r="R45" s="61"/>
@@ -3844,7 +4219,7 @@
     </row>
     <row r="46" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B46" s="69" t="s">
         <v>2</v>
@@ -20252,7 +20627,7 @@
     </row>
     <row r="48" spans="1:16384" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="84" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B48" s="85"/>
       <c r="C48" s="86"/>
@@ -20288,7 +20663,7 @@
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="61" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B49" s="69" t="s">
         <v>2</v>
@@ -20312,10 +20687,10 @@
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" s="87" t="s">
         <v>152</v>
-      </c>
-      <c r="B50" s="87" t="s">
-        <v>154</v>
       </c>
       <c r="Q50" s="61"/>
       <c r="R50" s="61"/>
@@ -20336,10 +20711,10 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="Q51" s="61"/>
       <c r="R51" s="61"/>
@@ -20360,252 +20735,177 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1 B5 B52:B1048576 B40:B44 B47">
-    <cfRule type="containsText" dxfId="78" priority="1870" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="112" priority="2719" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="containsText" dxfId="77" priority="1868" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="111" priority="2717" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="76" priority="1867" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="110" priority="2716" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="containsText" dxfId="75" priority="1866" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="109" priority="2715" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B17">
-    <cfRule type="containsText" dxfId="74" priority="1864" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="containsText" dxfId="73" priority="1673" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="108" priority="2522" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="containsText" dxfId="72" priority="1672" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="107" priority="2521" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="containsText" dxfId="71" priority="1560" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="106" priority="2409" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B51">
-    <cfRule type="containsText" dxfId="70" priority="1108" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="105" priority="1957" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B50)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B17">
-    <cfRule type="containsText" dxfId="69" priority="409" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="containsText" dxfId="68" priority="370" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="104" priority="1219" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36 B39">
-    <cfRule type="containsText" dxfId="67" priority="353" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="B39">
+    <cfRule type="containsText" dxfId="103" priority="1202" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="containsText" dxfId="102" priority="1201" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:B46">
+    <cfRule type="containsText" dxfId="101" priority="1129" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="containsText" dxfId="100" priority="1066" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="containsText" dxfId="99" priority="1065" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B20">
+    <cfRule type="containsText" dxfId="98" priority="716" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B20">
+    <cfRule type="containsText" dxfId="97" priority="715" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="containsText" dxfId="96" priority="242" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36 B39">
-    <cfRule type="containsText" dxfId="66" priority="352" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="B36">
+    <cfRule type="containsText" dxfId="95" priority="241" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B36)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="containsText" dxfId="94" priority="217" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="containsText" dxfId="93" priority="164" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="containsText" dxfId="92" priority="163" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="containsText" dxfId="91" priority="144" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="containsText" dxfId="90" priority="143" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B15">
+    <cfRule type="containsText" dxfId="83" priority="30" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B15">
+    <cfRule type="containsText" dxfId="82" priority="29" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="containsText" dxfId="65" priority="339" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="81" priority="28" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="containsText" dxfId="64" priority="338" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="80" priority="27" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45:B46">
-    <cfRule type="containsText" dxfId="63" priority="280" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B45)))</formula>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="containsText" dxfId="62" priority="217" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B38)))</formula>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="containsText" dxfId="61" priority="216" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="containsText" dxfId="60" priority="143" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="containsText" dxfId="59" priority="142" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:B18">
-    <cfRule type="containsText" dxfId="58" priority="78" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:B18">
-    <cfRule type="containsText" dxfId="57" priority="77" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:B15">
-    <cfRule type="containsText" dxfId="56" priority="76" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B24">
-    <cfRule type="containsText" dxfId="55" priority="69" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="B23">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B24">
-    <cfRule type="containsText" dxfId="54" priority="68" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="B23">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B24">
-    <cfRule type="containsText" dxfId="53" priority="67" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B23)))</formula>
+  <conditionalFormatting sqref="B27:B32 B24">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B24">
-    <cfRule type="containsText" dxfId="52" priority="66" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="containsText" dxfId="51" priority="35" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B31">
-    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B31">
-    <cfRule type="containsText" dxfId="49" priority="6" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B20">
-    <cfRule type="containsText" dxfId="48" priority="12" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B20">
-    <cfRule type="containsText" dxfId="47" priority="11" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B20">
-    <cfRule type="containsText" dxfId="46" priority="14" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B20">
-    <cfRule type="containsText" dxfId="45" priority="13" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="containsText" dxfId="44" priority="27" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="containsText" dxfId="43" priority="34" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="containsText" dxfId="42" priority="33" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="containsText" dxfId="41" priority="32" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="containsText" dxfId="40" priority="31" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="containsText" dxfId="39" priority="30" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="containsText" dxfId="38" priority="29" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="containsText" dxfId="37" priority="28" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="containsText" dxfId="36" priority="16" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="containsText" dxfId="35" priority="15" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B31">
-    <cfRule type="containsText" dxfId="34" priority="8" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B31">
-    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B28)))</formula>
+  <conditionalFormatting sqref="B27:B32 B24">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B37)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20622,7 +20922,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20697,10 +20997,10 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -20723,12 +21023,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="containsText" dxfId="27" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="72" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20741,8 +21041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20765,7 +21065,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="52"/>
@@ -20781,7 +21081,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B4" s="36">
         <v>85</v>
@@ -20863,7 +21163,7 @@
         <v>3000</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -20888,7 +21188,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B16" s="39" t="s">
         <v>2</v>
@@ -20901,7 +21201,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="75" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B18" s="76"/>
       <c r="C18" s="77"/>
@@ -20938,7 +21238,7 @@
         <v>110</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C22" s="80"/>
     </row>
@@ -21010,13 +21310,13 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B30" s="81">
         <v>0.5</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -21079,14 +21379,14 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B37" s="40"/>
       <c r="C37" s="56"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B38" s="41" t="s">
         <v>1</v>
@@ -21095,7 +21395,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B39" s="41">
         <v>1</v>
@@ -21104,7 +21404,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B40" s="41">
         <v>6</v>
@@ -21135,25 +21435,24 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="73" t="s">
-        <v>139</v>
-      </c>
-      <c r="B44" s="74" t="e">
-        <f>#REF!-0.4</f>
-        <v>#REF!</v>
+        <v>137</v>
+      </c>
+      <c r="B44" s="74">
+        <v>20</v>
       </c>
       <c r="C44" s="74">
-        <v>0.3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="73" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" s="74">
-        <v>20</v>
-      </c>
-      <c r="C45" s="74">
-        <v>20</v>
+        <v>304</v>
+      </c>
+      <c r="B45" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="113" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -21178,7 +21477,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B49" s="43">
         <v>2</v>
@@ -21187,31 +21486,31 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B50" s="43">
         <f>B33</f>
         <v>0.4</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B51" s="43">
         <f>B34</f>
         <v>1</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B52" s="43">
         <v>1</v>
@@ -21222,7 +21521,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B53" s="43">
         <v>2</v>
@@ -21415,57 +21714,57 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B75" s="45">
         <v>100</v>
       </c>
       <c r="C75" s="60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B76" s="95">
         <v>25</v>
       </c>
       <c r="C76" s="60" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B77" s="45">
         <v>0.05</v>
       </c>
       <c r="C77" s="60" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C78" s="60" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C79" s="60" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -21575,12 +21874,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="71" priority="5" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="70" priority="3" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B21)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21591,10 +21890,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21612,7 +21911,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>35</v>
@@ -21620,7 +21919,7 @@
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
-        <v>206</v>
+        <v>336</v>
       </c>
       <c r="B2" s="69" t="s">
         <v>2</v>
@@ -21643,13 +21942,13 @@
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
-        <v>156</v>
+        <v>337</v>
       </c>
       <c r="B3" s="69" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="69"/>
-      <c r="D3" s="82"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="82"/>
       <c r="F3" s="82"/>
       <c r="G3" s="82"/>
@@ -21666,13 +21965,11 @@
     </row>
     <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="69" t="s">
-        <v>1</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="B4" s="69"/>
       <c r="C4" s="69"/>
-      <c r="D4" s="82"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="82"/>
       <c r="F4" s="82"/>
       <c r="G4" s="82"/>
@@ -21689,10 +21986,10 @@
     </row>
     <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" s="69">
-        <v>50</v>
+        <v>154</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>1</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="82"/>
@@ -21712,15 +22009,13 @@
     </row>
     <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="83" t="s">
-        <v>202</v>
-      </c>
-      <c r="B6" s="69">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>1</v>
       </c>
       <c r="C6" s="69"/>
-      <c r="D6" s="92" t="s">
-        <v>201</v>
-      </c>
+      <c r="D6" s="82"/>
       <c r="E6" s="82"/>
       <c r="F6" s="82"/>
       <c r="G6" s="82"/>
@@ -21735,23 +22030,37 @@
       <c r="P6" s="82"/>
       <c r="Q6" s="82"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>303</v>
-      </c>
-      <c r="B7" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>2</v>
-      </c>
+    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="69">
+        <v>5</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="92" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="69" t="s">
         <v>2</v>
@@ -21759,10 +22068,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>2</v>
@@ -21770,10 +22079,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="69" t="s">
         <v>2</v>
@@ -21781,10 +22090,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="69" t="s">
         <v>2</v>
@@ -21792,10 +22101,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="69" t="s">
         <v>2</v>
@@ -21803,35 +22112,33 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>2</v>
-      </c>
-      <c r="D13" s="97" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="69" t="s">
         <v>2</v>
       </c>
+      <c r="D14" s="97"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="69" t="s">
         <v>2</v>
@@ -21839,10 +22146,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="69" t="s">
         <v>2</v>
@@ -21850,10 +22157,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="69" t="s">
         <v>2</v>
@@ -21861,10 +22168,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="69" t="s">
         <v>2</v>
@@ -21872,35 +22179,35 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="69" t="s">
         <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="69" t="s">
         <v>2</v>
@@ -21908,10 +22215,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="B22" s="69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="69" t="s">
         <v>2</v>
@@ -21919,10 +22226,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="B23" s="69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="69" t="s">
         <v>2</v>
@@ -21930,7 +22237,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="B24" s="69" t="s">
         <v>1</v>
@@ -21938,74 +22245,212 @@
       <c r="C24" s="69" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>297</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>299</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>301</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>302</v>
+      </c>
+      <c r="B29" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="119"/>
     </row>
   </sheetData>
   <sortState ref="A7:Q26">
     <sortCondition ref="E7:E26"/>
   </sortState>
-  <conditionalFormatting sqref="B1:C1 C2:C6 C21:C22 C8:C17">
-    <cfRule type="containsText" dxfId="24" priority="113" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="B1:C1 C22:C23 C9:C18 C2:C6 B7:C7">
+    <cfRule type="containsText" dxfId="69" priority="227" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="23" priority="54" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",C18)))</formula>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="containsText" dxfId="68" priority="168" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="containsText" dxfId="22" priority="55" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",C7)))</formula>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="67" priority="169" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="containsText" dxfId="66" priority="165" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="containsText" dxfId="65" priority="151" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="containsText" dxfId="64" priority="132" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="21" priority="51" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="63" priority="138" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="containsText" dxfId="20" priority="37" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",C23)))</formula>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="containsText" dxfId="62" priority="115" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="containsText" dxfId="61" priority="97" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="containsText" dxfId="60" priority="96" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="containsText" dxfId="59" priority="80" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="containsText" dxfId="58" priority="73" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="containsText" dxfId="57" priority="70" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="containsText" dxfId="56" priority="32" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:B29">
+    <cfRule type="containsText" dxfId="55" priority="26" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:B29">
+    <cfRule type="containsText" dxfId="54" priority="25" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:B29">
+    <cfRule type="containsText" dxfId="53" priority="24" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:B29">
+    <cfRule type="containsText" dxfId="52" priority="23" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="containsText" dxfId="51" priority="20" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="containsText" dxfId="50" priority="19" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="49" priority="17" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="16" priority="24" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",C19)))</formula>
+  <conditionalFormatting sqref="B23:B27">
+    <cfRule type="containsText" dxfId="48" priority="14" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B6">
-    <cfRule type="containsText" dxfId="14" priority="20" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B5)))</formula>
+  <conditionalFormatting sqref="B23:B27">
+    <cfRule type="containsText" dxfId="47" priority="13" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B2)))</formula>
+  <conditionalFormatting sqref="B23:B27">
+    <cfRule type="containsText" dxfId="46" priority="12" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B3)))</formula>
+  <conditionalFormatting sqref="B23:B27">
+    <cfRule type="containsText" dxfId="45" priority="11" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B23">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B7)))</formula>
+  <conditionalFormatting sqref="B8:B22">
+    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B24)))</formula>
+  <conditionalFormatting sqref="B8:B22">
+    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",C24)))</formula>
+  <conditionalFormatting sqref="B8:B22">
+    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B22">
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -22017,8 +22462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22029,74 +22474,75 @@
     <col min="4" max="4" width="7.85546875" style="46" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="46" customWidth="1"/>
     <col min="6" max="7" width="5.5703125" style="112" customWidth="1"/>
-    <col min="8" max="8" width="10" style="112" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="112" customWidth="1"/>
     <col min="9" max="9" width="5.28515625" customWidth="1"/>
-    <col min="10" max="11" width="6" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
     <col min="12" max="13" width="4.85546875" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6" customWidth="1"/>
     <col min="16" max="16" width="28" style="46" customWidth="1"/>
     <col min="17" max="17" width="11.42578125" style="46" customWidth="1"/>
     <col min="18" max="18" width="12.28515625" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="104" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="104" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="103" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="103" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" s="103" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="105" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1" s="105" t="s">
+        <v>282</v>
+      </c>
+      <c r="I1" s="103" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="103" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="103" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="103" t="s">
-        <v>298</v>
-      </c>
-      <c r="E1" s="103" t="s">
-        <v>283</v>
-      </c>
-      <c r="F1" s="105" t="s">
-        <v>301</v>
-      </c>
-      <c r="G1" s="105" t="s">
-        <v>302</v>
-      </c>
-      <c r="H1" s="105" t="s">
-        <v>300</v>
-      </c>
-      <c r="I1" s="103" t="s">
-        <v>177</v>
-      </c>
       <c r="J1" s="103" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K1" s="103" t="s">
+        <v>191</v>
+      </c>
+      <c r="L1" s="103" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" s="103" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="103" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" s="103" t="s">
+        <v>219</v>
+      </c>
+      <c r="P1" s="103" t="s">
         <v>194</v>
       </c>
-      <c r="L1" s="103" t="s">
-        <v>205</v>
-      </c>
-      <c r="M1" s="103" t="s">
-        <v>222</v>
-      </c>
-      <c r="N1" s="103" t="s">
-        <v>224</v>
-      </c>
-      <c r="O1" s="103" t="s">
-        <v>226</v>
-      </c>
-      <c r="P1" s="103" t="s">
-        <v>197</v>
-      </c>
       <c r="Q1" s="103" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="R1" s="103" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S1" s="103" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -22125,7 +22571,7 @@
         <v>0.9</v>
       </c>
       <c r="I2" s="48">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J2" s="48">
         <v>1</v>
@@ -22140,22 +22586,22 @@
         <v>250</v>
       </c>
       <c r="N2" s="48" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O2" s="48" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="P2" s="48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q2" s="48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="R2" s="48" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S2" t="s">
-        <v>196</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -22185,7 +22631,7 @@
         <v>0.9</v>
       </c>
       <c r="I3" s="88">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J3" s="88">
         <v>2</v>
@@ -22200,22 +22646,22 @@
         <v>5000</v>
       </c>
       <c r="N3" s="88" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O3" s="88" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="P3" s="88" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q3" s="88" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R3" s="88" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S3" t="s">
-        <v>196</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22257,25 +22703,25 @@
         <v>99</v>
       </c>
       <c r="M4" s="89">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="N4" s="89" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="O4" s="89" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="P4" s="89" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="89" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="R4" s="89" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S4" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -22286,10 +22732,10 @@
       <c r="B5" s="48">
         <v>10</v>
       </c>
-      <c r="C5" s="98">
+      <c r="C5" s="48">
         <v>0.5</v>
       </c>
-      <c r="D5" s="98">
+      <c r="D5" s="106">
         <v>1</v>
       </c>
       <c r="E5" s="98">
@@ -22320,22 +22766,22 @@
         <v>250</v>
       </c>
       <c r="N5" s="48" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O5" s="48" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="P5" s="48" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q5" s="48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="R5" s="48" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S5" t="s">
-        <v>196</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -22346,10 +22792,10 @@
       <c r="B6" s="88">
         <v>10</v>
       </c>
-      <c r="C6" s="99">
+      <c r="C6" s="88">
         <v>1</v>
       </c>
-      <c r="D6" s="99">
+      <c r="D6" s="107">
         <v>1</v>
       </c>
       <c r="E6" s="99">
@@ -22377,25 +22823,25 @@
         <v>99.5</v>
       </c>
       <c r="M6" s="88">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N6" s="88" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O6" s="88" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="P6" s="88" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q6" s="88" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R6" s="88" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S6" t="s">
-        <v>196</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -22406,10 +22852,10 @@
       <c r="B7" s="89">
         <v>10</v>
       </c>
-      <c r="C7" s="100">
+      <c r="C7" s="89">
         <v>1</v>
       </c>
-      <c r="D7" s="100">
+      <c r="D7" s="108">
         <v>1</v>
       </c>
       <c r="E7" s="100">
@@ -22425,7 +22871,7 @@
         <v>0.9</v>
       </c>
       <c r="I7" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7" s="89">
         <v>6</v>
@@ -22437,25 +22883,25 @@
         <v>99</v>
       </c>
       <c r="M7" s="89">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="N7" s="89" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="O7" s="89" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="P7" s="89" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="Q7" s="89" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="R7" s="89" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S7" t="s">
-        <v>196</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -22463,47 +22909,25 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" s="90" t="s">
-        <v>196</v>
-      </c>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="90"/>
-      <c r="F8" s="109" t="s">
-        <v>196</v>
-      </c>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="J8" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="K8" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="L8" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="M8" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="N8" s="90" t="s">
-        <v>196</v>
-      </c>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
       <c r="O8" s="90"/>
-      <c r="P8" s="90" t="s">
-        <v>196</v>
-      </c>
+      <c r="P8" s="90"/>
       <c r="Q8" s="90"/>
       <c r="R8" s="90"/>
       <c r="S8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -22548,22 +22972,22 @@
         <v>250</v>
       </c>
       <c r="N9" s="48" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="O9" s="48" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="P9" s="93" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="Q9" s="48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="R9" s="93" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S9" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -22608,22 +23032,22 @@
         <v>5000</v>
       </c>
       <c r="N10" s="88" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="O10" s="88" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="P10" s="94" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="88" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R10" s="94" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S10" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -22632,58 +23056,69 @@
         <v>10</v>
       </c>
       <c r="B11" s="96">
+        <f>B2</f>
         <v>10</v>
       </c>
       <c r="C11" s="96">
+        <f t="shared" ref="C11:L11" si="1">C2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="96">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="96">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F11" s="96">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="96">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D11" s="96">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="96">
-        <v>2</v>
-      </c>
-      <c r="F11" s="110">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="110">
+      <c r="H11" s="96">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="I11" s="96">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J11" s="96">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H11" s="110">
-        <v>0.9</v>
-      </c>
-      <c r="I11" s="96">
-        <v>30</v>
-      </c>
-      <c r="J11" s="96">
+      <c r="K11" s="96">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K11" s="96">
-        <v>1</v>
-      </c>
       <c r="L11" s="96">
-        <v>99.5</v>
+        <f t="shared" si="1"/>
+        <v>95</v>
       </c>
       <c r="M11" s="96">
-        <v>5000</v>
+        <v>125</v>
       </c>
       <c r="N11" s="96" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="O11" s="96" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="P11" s="96" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="Q11" s="96" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="R11" s="96" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S11" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -22728,22 +23163,22 @@
         <v>5000</v>
       </c>
       <c r="N12" s="96" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="O12" s="96" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="P12" s="96" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="Q12" s="96" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="R12" s="96" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -22751,57 +23186,72 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="88">
+        <f>B3</f>
+        <v>10</v>
+      </c>
+      <c r="C13" s="88">
+        <f t="shared" ref="C13:O13" si="2">C3</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="88">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="88">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F13" s="88">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="88">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="88">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="I13" s="88">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J13" s="88">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K13" s="88">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="L13" s="88">
+        <f t="shared" si="2"/>
+        <v>99.5</v>
+      </c>
+      <c r="M13" s="88">
+        <v>2500</v>
+      </c>
+      <c r="N13" s="88" t="str">
+        <f>N3</f>
+        <v>TMSEG</v>
+      </c>
+      <c r="O13" s="88" t="str">
+        <f t="shared" si="2"/>
+        <v>TM</v>
+      </c>
+      <c r="P13" s="88" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q13" s="88" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="E13" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="F13" s="109" t="s">
-        <v>196</v>
-      </c>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109" t="s">
-        <v>196</v>
-      </c>
-      <c r="I13" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="J13" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="K13" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="L13" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="M13" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="N13" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="O13" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="P13" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q13" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="R13" s="90" t="s">
-        <v>196</v>
+      <c r="R13" s="88" t="s">
+        <v>240</v>
       </c>
       <c r="S13" t="s">
-        <v>196</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -22809,57 +23259,74 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="E14" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" s="109" t="s">
-        <v>196</v>
-      </c>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109" t="s">
-        <v>196</v>
-      </c>
-      <c r="I14" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="J14" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="K14" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="L14" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="M14" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="N14" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="O14" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="P14" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q14" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="R14" s="90" t="s">
-        <v>196</v>
+      <c r="B14" s="88">
+        <f>B3</f>
+        <v>10</v>
+      </c>
+      <c r="C14" s="88">
+        <f t="shared" ref="C14:Q14" si="3">C3</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="88">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="88">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="F14" s="88">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="88">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="88">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="I14" s="88">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="J14" s="88">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K14" s="88">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="L14" s="88">
+        <f t="shared" si="3"/>
+        <v>99.5</v>
+      </c>
+      <c r="M14" s="88">
+        <v>2500</v>
+      </c>
+      <c r="N14" s="88" t="str">
+        <f t="shared" si="3"/>
+        <v>TMSEG</v>
+      </c>
+      <c r="O14" s="88" t="str">
+        <f t="shared" si="3"/>
+        <v>TM</v>
+      </c>
+      <c r="P14" s="88" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q14" s="88" t="str">
+        <f t="shared" si="3"/>
+        <v>multipass</v>
+      </c>
+      <c r="R14" s="88" t="str">
+        <f t="shared" ref="R14" si="4">R3</f>
+        <v>all</v>
       </c>
       <c r="S14" t="s">
-        <v>196</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -22867,60 +23334,77 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="C15" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="E15" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="F15" s="109" t="s">
-        <v>196</v>
-      </c>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109" t="s">
-        <v>196</v>
-      </c>
-      <c r="I15" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="J15" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="K15" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="L15" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="M15" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="N15" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="O15" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="P15" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q15" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="R15" s="90" t="s">
-        <v>196</v>
+      <c r="B15" s="88">
+        <f>B3</f>
+        <v>10</v>
+      </c>
+      <c r="C15" s="88">
+        <f t="shared" ref="C15:L15" si="5">C3</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="88">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="88">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F15" s="88">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="88">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="88">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="I15" s="88">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="J15" s="88">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K15" s="88">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="L15" s="88">
+        <f t="shared" si="5"/>
+        <v>99.5</v>
+      </c>
+      <c r="M15" s="88">
+        <v>500</v>
+      </c>
+      <c r="N15" s="88" t="str">
+        <f>N3</f>
+        <v>TMSEG</v>
+      </c>
+      <c r="O15" s="88" t="str">
+        <f>O3</f>
+        <v>TM</v>
+      </c>
+      <c r="P15" s="88" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q15" s="88" t="str">
+        <f>Q3</f>
+        <v>multipass</v>
+      </c>
+      <c r="R15" s="88" t="str">
+        <f>R3</f>
+        <v>all</v>
       </c>
       <c r="S15" t="s">
-        <v>196</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -22930,7 +23414,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="89">
-        <f t="shared" ref="C16:K16" si="1">C4</f>
+        <f t="shared" ref="C16:K16" si="6">C4</f>
         <v>1</v>
       </c>
       <c r="D16" s="89">
@@ -22949,15 +23433,15 @@
         <v>0.9</v>
       </c>
       <c r="I16" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="J16" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="K16" s="89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="L16" s="89">
@@ -22967,22 +23451,22 @@
         <v>250</v>
       </c>
       <c r="N16" s="89" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="O16" s="89" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="P16" s="89" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="89" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="R16" s="89" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -22995,7 +23479,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="48">
-        <f t="shared" ref="C17:K17" si="2">C2</f>
+        <f t="shared" ref="C17:K17" si="7">C2</f>
         <v>0.5</v>
       </c>
       <c r="D17" s="48">
@@ -23014,15 +23498,15 @@
         <v>0.9</v>
       </c>
       <c r="I17" s="48">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="J17" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K17" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L17" s="48">
@@ -23032,22 +23516,22 @@
         <v>250</v>
       </c>
       <c r="N17" s="48" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="O17" s="48" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="P17" s="48" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="Q17" s="48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="R17" s="48" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -23060,7 +23544,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="88">
-        <f t="shared" ref="C18:P18" si="3">C3</f>
+        <f t="shared" ref="C18:P18" si="8">C3</f>
         <v>1</v>
       </c>
       <c r="D18" s="88">
@@ -23079,15 +23563,15 @@
         <v>0.9</v>
       </c>
       <c r="I18" s="88">
-        <f t="shared" si="3"/>
-        <v>30</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="J18" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="K18" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="L18" s="88">
@@ -23097,24 +23581,24 @@
         <v>5000</v>
       </c>
       <c r="N18" s="88" t="s">
+        <v>193</v>
+      </c>
+      <c r="O18" s="88" t="str">
+        <f t="shared" ref="O18" si="9">O3</f>
+        <v>TM</v>
+      </c>
+      <c r="P18" s="88" t="str">
+        <f t="shared" si="8"/>
+        <v>multipass</v>
+      </c>
+      <c r="Q18" s="88" t="s">
         <v>196</v>
       </c>
-      <c r="O18" s="88" t="str">
-        <f t="shared" ref="O18" si="4">O3</f>
-        <v>TM</v>
-      </c>
-      <c r="P18" s="88" t="str">
-        <f t="shared" si="3"/>
-        <v>multipass</v>
-      </c>
-      <c r="Q18" s="88" t="s">
-        <v>199</v>
-      </c>
       <c r="R18" s="88" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S18" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -23123,11 +23607,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="48">
-        <f t="shared" ref="B19:P19" si="5">B2</f>
+        <f t="shared" ref="B19:P19" si="10">B2</f>
         <v>10</v>
       </c>
       <c r="C19" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="D19" s="48">
@@ -23146,15 +23630,15 @@
         <v>0.9</v>
       </c>
       <c r="I19" s="48">
-        <f t="shared" si="5"/>
-        <v>30</v>
+        <f t="shared" si="10"/>
+        <v>15</v>
       </c>
       <c r="J19" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K19" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="L19" s="48">
@@ -23164,24 +23648,24 @@
         <v>250</v>
       </c>
       <c r="N19" s="48" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O19" s="48" t="str">
-        <f t="shared" ref="O19" si="6">O2</f>
+        <f t="shared" ref="O19" si="11">O2</f>
         <v>TM</v>
       </c>
       <c r="P19" s="48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>singlepass</v>
       </c>
       <c r="Q19" s="48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="R19" s="48" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -23190,11 +23674,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="88">
-        <f t="shared" ref="B20:P20" si="7">B3</f>
+        <f t="shared" ref="B20:P20" si="12">B3</f>
         <v>10</v>
       </c>
       <c r="C20" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D20" s="88">
@@ -23213,15 +23697,15 @@
         <v>0.9</v>
       </c>
       <c r="I20" s="88">
-        <f t="shared" si="7"/>
-        <v>30</v>
+        <f t="shared" si="12"/>
+        <v>15</v>
       </c>
       <c r="J20" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="K20" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="L20" s="88">
@@ -23231,24 +23715,24 @@
         <v>5000</v>
       </c>
       <c r="N20" s="88" t="s">
+        <v>193</v>
+      </c>
+      <c r="O20" s="88" t="str">
+        <f t="shared" ref="O20" si="13">O3</f>
+        <v>TM</v>
+      </c>
+      <c r="P20" s="88" t="str">
+        <f t="shared" si="12"/>
+        <v>multipass</v>
+      </c>
+      <c r="Q20" s="88" t="s">
         <v>196</v>
       </c>
-      <c r="O20" s="88" t="str">
-        <f t="shared" ref="O20" si="8">O3</f>
-        <v>TM</v>
-      </c>
-      <c r="P20" s="88" t="str">
-        <f t="shared" si="7"/>
-        <v>multipass</v>
-      </c>
-      <c r="Q20" s="88" t="s">
-        <v>199</v>
-      </c>
       <c r="R20" s="88" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -23257,11 +23741,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="88">
-        <f t="shared" ref="B21:P21" si="9">B3</f>
+        <f t="shared" ref="B21:P21" si="14">B3</f>
         <v>10</v>
       </c>
       <c r="C21" s="88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="D21" s="88">
@@ -23280,15 +23764,15 @@
         <v>0.9</v>
       </c>
       <c r="I21" s="88">
-        <f t="shared" si="9"/>
-        <v>30</v>
+        <f t="shared" si="14"/>
+        <v>15</v>
       </c>
       <c r="J21" s="88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="K21" s="88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
       <c r="L21" s="88">
@@ -23298,24 +23782,24 @@
         <v>5000</v>
       </c>
       <c r="N21" s="88" t="s">
+        <v>193</v>
+      </c>
+      <c r="O21" s="88" t="str">
+        <f t="shared" ref="O21" si="15">O3</f>
+        <v>TM</v>
+      </c>
+      <c r="P21" s="88" t="str">
+        <f t="shared" si="14"/>
+        <v>multipass</v>
+      </c>
+      <c r="Q21" s="88" t="s">
         <v>196</v>
       </c>
-      <c r="O21" s="88" t="str">
-        <f t="shared" ref="O21" si="10">O3</f>
-        <v>TM</v>
-      </c>
-      <c r="P21" s="88" t="str">
-        <f t="shared" si="9"/>
-        <v>multipass</v>
-      </c>
-      <c r="Q21" s="88" t="s">
-        <v>199</v>
-      </c>
       <c r="R21" s="88" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -23324,11 +23808,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="48">
-        <f t="shared" ref="B22:K22" si="11">B2</f>
+        <f t="shared" ref="B22:K22" si="16">B2</f>
         <v>10</v>
       </c>
       <c r="C22" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="D22" s="48">
@@ -23347,15 +23831,15 @@
         <v>0.9</v>
       </c>
       <c r="I22" s="48">
-        <f t="shared" si="11"/>
-        <v>30</v>
+        <f t="shared" si="16"/>
+        <v>15</v>
       </c>
       <c r="J22" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K22" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L22" s="48">
@@ -23365,22 +23849,22 @@
         <v>250</v>
       </c>
       <c r="N22" s="48" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O22" s="48" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="P22" s="48" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="Q22" s="48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="R22" s="48" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S22" s="28" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -23389,11 +23873,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="88">
-        <f t="shared" ref="B23:K23" si="12">B4</f>
+        <f t="shared" ref="B23:K23" si="17">B4</f>
         <v>10</v>
       </c>
       <c r="C23" s="88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="D23" s="88">
@@ -23412,14 +23896,14 @@
         <v>0.9</v>
       </c>
       <c r="I23" s="88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="J23" s="88">
         <v>2</v>
       </c>
       <c r="K23" s="88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>40</v>
       </c>
       <c r="L23" s="88">
@@ -23429,23 +23913,23 @@
         <v>50</v>
       </c>
       <c r="N23" s="88" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O23" s="88" t="str">
-        <f t="shared" ref="O23" si="13">O4</f>
+        <f t="shared" ref="O23" si="18">O4</f>
         <v>TM</v>
       </c>
       <c r="P23" s="88" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="Q23" s="88" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R23" s="88" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S23" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -23454,11 +23938,11 @@
         <v>23</v>
       </c>
       <c r="B24" s="48">
-        <f t="shared" ref="B24:P24" si="14">B2</f>
+        <f t="shared" ref="B24:P24" si="19">B2</f>
         <v>10</v>
       </c>
       <c r="C24" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
       <c r="D24" s="48">
@@ -23477,15 +23961,15 @@
         <v>0.9</v>
       </c>
       <c r="I24" s="48">
-        <f t="shared" si="14"/>
-        <v>30</v>
+        <f t="shared" si="19"/>
+        <v>15</v>
       </c>
       <c r="J24" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K24" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="L24" s="48">
@@ -23495,24 +23979,24 @@
         <v>250</v>
       </c>
       <c r="N24" s="48" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="O24" s="48" t="str">
-        <f t="shared" ref="O24" si="15">O2</f>
+        <f t="shared" ref="O24" si="20">O2</f>
         <v>TM</v>
       </c>
       <c r="P24" s="48" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>singlepass</v>
       </c>
       <c r="Q24" s="48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="R24" s="48" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -23521,11 +24005,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="48">
-        <f t="shared" ref="B25:P25" si="16">B2</f>
+        <f t="shared" ref="B25:P25" si="21">B2</f>
         <v>10</v>
       </c>
       <c r="C25" s="48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
       <c r="D25" s="48">
@@ -23544,15 +24028,15 @@
         <v>0.9</v>
       </c>
       <c r="I25" s="48">
-        <f t="shared" si="16"/>
-        <v>30</v>
+        <f t="shared" si="21"/>
+        <v>15</v>
       </c>
       <c r="J25" s="48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="K25" s="48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L25" s="48">
@@ -23562,24 +24046,24 @@
         <v>250</v>
       </c>
       <c r="N25" s="48" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="O25" s="48" t="str">
-        <f t="shared" ref="O25" si="17">O2</f>
+        <f t="shared" ref="O25" si="22">O2</f>
         <v>TM</v>
       </c>
       <c r="P25" s="48" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>singlepass</v>
       </c>
       <c r="Q25" s="48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="R25" s="48" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -23588,11 +24072,11 @@
         <v>25</v>
       </c>
       <c r="B26" s="48">
-        <f t="shared" ref="B26:P26" si="18">B2</f>
+        <f t="shared" ref="B26:P26" si="23">B2</f>
         <v>10</v>
       </c>
       <c r="C26" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
       <c r="D26" s="48">
@@ -23611,15 +24095,15 @@
         <v>0.9</v>
       </c>
       <c r="I26" s="48">
-        <f t="shared" si="18"/>
-        <v>30</v>
+        <f t="shared" si="23"/>
+        <v>15</v>
       </c>
       <c r="J26" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="K26" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="L26" s="48">
@@ -23629,24 +24113,24 @@
         <v>250</v>
       </c>
       <c r="N26" s="48" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="O26" s="48" t="str">
-        <f t="shared" ref="O26" si="19">O2</f>
+        <f t="shared" ref="O26" si="24">O2</f>
         <v>TM</v>
       </c>
       <c r="P26" s="48" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>singlepass</v>
       </c>
       <c r="Q26" s="48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="R26" s="48" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S26" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -23676,41 +24160,41 @@
         <v>0.9</v>
       </c>
       <c r="I27" s="48">
-        <f t="shared" ref="I27:L27" si="20">I2</f>
-        <v>30</v>
+        <f t="shared" ref="I27:L27" si="25">I2</f>
+        <v>15</v>
       </c>
       <c r="J27" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K27" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="L27" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>95</v>
       </c>
       <c r="M27" s="48">
         <v>250</v>
       </c>
       <c r="N27" s="48" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="O27" s="48" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="P27" s="48" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Q27" s="48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="R27" s="48" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S27" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -23719,11 +24203,11 @@
         <v>27</v>
       </c>
       <c r="B28" s="48">
-        <f t="shared" ref="B28:L28" si="21">B2</f>
+        <f t="shared" ref="B28:L28" si="26">B2</f>
         <v>10</v>
       </c>
       <c r="C28" s="48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="D28" s="48">
@@ -23745,38 +24229,38 @@
         <v>5</v>
       </c>
       <c r="J28" s="48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="K28" s="48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="L28" s="48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>95</v>
       </c>
       <c r="M28" s="48">
         <v>250</v>
       </c>
       <c r="N28" s="48" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="O28" s="48" t="str">
-        <f t="shared" ref="O28" si="22">O2</f>
+        <f t="shared" ref="O28" si="27">O2</f>
         <v>TM</v>
       </c>
       <c r="P28" s="48" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="R28" s="48" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S28" t="s">
-        <v>196</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -23785,11 +24269,11 @@
         <v>28</v>
       </c>
       <c r="B29" s="50">
-        <f t="shared" ref="B29:L29" si="23">B3</f>
+        <f t="shared" ref="B29:L29" si="28">B3</f>
         <v>10</v>
       </c>
       <c r="C29" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="D29" s="50">
@@ -23814,33 +24298,33 @@
         <v>1</v>
       </c>
       <c r="K29" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>40</v>
       </c>
       <c r="L29" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>99.5</v>
       </c>
       <c r="M29" s="50">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N29" s="50" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="O29" s="50" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="P29" s="50" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="Q29" s="50" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="R29" s="50" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S29" t="s">
-        <v>242</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -23848,63 +24332,63 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="50">
-        <f t="shared" ref="B30:L30" si="24">B3</f>
+      <c r="B30" s="116">
+        <f t="shared" ref="B30:L30" si="29">B3</f>
         <v>10</v>
       </c>
-      <c r="C30" s="50">
-        <f t="shared" si="24"/>
+      <c r="C30" s="116">
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="D30" s="50">
+      <c r="D30" s="116">
         <v>0.5</v>
       </c>
-      <c r="E30" s="50">
+      <c r="E30" s="116">
         <v>2</v>
       </c>
-      <c r="F30" s="111">
+      <c r="F30" s="116">
         <v>0.3</v>
       </c>
-      <c r="G30" s="111">
+      <c r="G30" s="116">
         <v>1</v>
       </c>
-      <c r="H30" s="111">
+      <c r="H30" s="116">
         <v>0.9</v>
       </c>
-      <c r="I30" s="79">
+      <c r="I30" s="117">
         <v>5</v>
       </c>
-      <c r="J30" s="50">
+      <c r="J30" s="116">
         <v>1</v>
       </c>
-      <c r="K30" s="50">
-        <f t="shared" si="24"/>
+      <c r="K30" s="116">
+        <f t="shared" si="29"/>
         <v>40</v>
       </c>
-      <c r="L30" s="50">
-        <f t="shared" si="24"/>
+      <c r="L30" s="116">
+        <f t="shared" si="29"/>
         <v>99.5</v>
       </c>
-      <c r="M30" s="50">
+      <c r="M30" s="116">
         <v>500</v>
       </c>
-      <c r="N30" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="O30" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="P30" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q30" s="50" t="s">
-        <v>254</v>
-      </c>
-      <c r="R30" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="S30" t="s">
+      <c r="N30" s="116" t="s">
+        <v>225</v>
+      </c>
+      <c r="O30" s="116" t="s">
+        <v>216</v>
+      </c>
+      <c r="P30" s="116" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q30" s="116" t="s">
         <v>243</v>
+      </c>
+      <c r="R30" s="116" t="s">
+        <v>240</v>
+      </c>
+      <c r="S30" s="118" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -23913,7 +24397,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="50">
-        <f t="shared" ref="B31:L31" si="25">B3</f>
+        <f t="shared" ref="B31:L31" si="30">B3</f>
         <v>10</v>
       </c>
       <c r="C31" s="50">
@@ -23944,29 +24428,29 @@
         <v>1</v>
       </c>
       <c r="L31" s="50">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>99.5</v>
       </c>
       <c r="M31" s="50">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N31" s="50" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="O31" s="50" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="P31" s="50" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="Q31" s="50" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="R31" s="50" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S31" t="s">
-        <v>244</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -23975,7 +24459,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="50">
-        <f t="shared" ref="B32:L32" si="26">B31</f>
+        <f t="shared" ref="B32:L32" si="31">B31</f>
         <v>10</v>
       </c>
       <c r="C32" s="50">
@@ -24006,29 +24490,29 @@
         <v>40</v>
       </c>
       <c r="L32" s="50">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>99.5</v>
       </c>
       <c r="M32" s="50">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N32" s="50" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="O32" s="50" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="P32" s="50" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="Q32" s="50" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R32" s="50" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S32" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -24037,11 +24521,11 @@
         <v>32</v>
       </c>
       <c r="B33" s="48">
-        <f t="shared" ref="B33:M34" si="27">B2</f>
+        <f t="shared" ref="B33:M34" si="32">B2</f>
         <v>10</v>
       </c>
       <c r="C33" s="48">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0.5</v>
       </c>
       <c r="D33" s="48">
@@ -24060,43 +24544,43 @@
         <v>0.9</v>
       </c>
       <c r="I33" s="48">
-        <f t="shared" si="27"/>
-        <v>30</v>
+        <f t="shared" si="32"/>
+        <v>15</v>
       </c>
       <c r="J33" s="48">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="K33" s="48">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="L33" s="48">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>95</v>
       </c>
       <c r="M33" s="48">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>250</v>
       </c>
       <c r="N33" s="48" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="O33" s="48" t="str">
-        <f t="shared" ref="O33:O34" si="28">O2</f>
+        <f t="shared" ref="O33:O34" si="33">O2</f>
         <v>TM</v>
       </c>
       <c r="P33" s="48" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="Q33" s="48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="R33" s="48" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="S33" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -24105,11 +24589,11 @@
         <v>33</v>
       </c>
       <c r="B34" s="88">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="C34" s="88">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="D34" s="88">
@@ -24128,42 +24612,42 @@
         <v>0.9</v>
       </c>
       <c r="I34" s="88">
-        <f t="shared" si="27"/>
-        <v>30</v>
+        <f t="shared" si="32"/>
+        <v>15</v>
       </c>
       <c r="J34" s="88">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="K34" s="88">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>40</v>
       </c>
       <c r="L34" s="88">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>99.5</v>
       </c>
       <c r="M34" s="88">
         <v>150</v>
       </c>
       <c r="N34" s="88" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="O34" s="88" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>TM</v>
       </c>
       <c r="P34" s="88" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="Q34" s="88" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R34" s="88" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="S34" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -24172,11 +24656,11 @@
         <v>34</v>
       </c>
       <c r="B35" s="48">
-        <f t="shared" ref="B35:M36" si="29">B2</f>
+        <f t="shared" ref="B35:M36" si="34">B2</f>
         <v>10</v>
       </c>
       <c r="C35" s="48">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0.5</v>
       </c>
       <c r="D35" s="48">
@@ -24195,43 +24679,43 @@
         <v>0.9</v>
       </c>
       <c r="I35" s="48">
-        <f t="shared" si="29"/>
-        <v>30</v>
+        <f t="shared" si="34"/>
+        <v>15</v>
       </c>
       <c r="J35" s="48">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="K35" s="48">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="L35" s="48">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>95</v>
       </c>
       <c r="M35" s="48">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>250</v>
       </c>
       <c r="N35" s="48" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="O35" s="48" t="str">
-        <f t="shared" ref="O35:O36" si="30">O2</f>
+        <f t="shared" ref="O35:O36" si="35">O2</f>
         <v>TM</v>
       </c>
       <c r="P35" s="48" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="Q35" s="48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="R35" s="48" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="S35" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -24240,11 +24724,11 @@
         <v>35</v>
       </c>
       <c r="B36" s="88">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C36" s="88">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="D36" s="88">
@@ -24263,42 +24747,42 @@
         <v>0.9</v>
       </c>
       <c r="I36" s="88">
-        <f t="shared" si="29"/>
-        <v>30</v>
+        <f t="shared" si="34"/>
+        <v>15</v>
       </c>
       <c r="J36" s="88">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="K36" s="88">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>40</v>
       </c>
       <c r="L36" s="88">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>99.5</v>
       </c>
       <c r="M36" s="88">
         <v>150</v>
       </c>
       <c r="N36" s="88" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="O36" s="88" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>TM</v>
       </c>
       <c r="P36" s="88" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="Q36" s="88" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R36" s="88" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="S36" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -24307,61 +24791,71 @@
         <v>36</v>
       </c>
       <c r="B37" s="50">
-        <f t="shared" ref="B37:L37" si="31">B36</f>
+        <f>B32</f>
         <v>10</v>
       </c>
       <c r="C37" s="50">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="C37:H37" si="36">C32</f>
         <v>1</v>
       </c>
       <c r="D37" s="50">
+        <f t="shared" si="36"/>
         <v>0.5</v>
       </c>
       <c r="E37" s="50">
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
-      <c r="F37" s="111">
+      <c r="F37" s="50">
+        <f t="shared" si="36"/>
         <v>0.3</v>
       </c>
-      <c r="G37" s="111">
+      <c r="G37" s="50">
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="H37" s="111">
+      <c r="H37" s="50">
+        <f t="shared" si="36"/>
         <v>0.9</v>
       </c>
       <c r="I37" s="79">
+        <f>I32</f>
         <v>5</v>
       </c>
       <c r="J37" s="95">
         <v>5</v>
       </c>
       <c r="K37" s="50">
+        <f>K32</f>
         <v>40</v>
       </c>
       <c r="L37" s="50">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="L37:O37" si="37">L32</f>
         <v>99.5</v>
       </c>
       <c r="M37" s="50">
-        <v>150</v>
-      </c>
-      <c r="N37" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="O37" s="50" t="s">
-        <v>223</v>
+        <f t="shared" si="37"/>
+        <v>300</v>
+      </c>
+      <c r="N37" s="50" t="str">
+        <f t="shared" si="37"/>
+        <v>STR_PDBTM</v>
+      </c>
+      <c r="O37" s="50" t="str">
+        <f t="shared" si="37"/>
+        <v>TM</v>
       </c>
       <c r="P37" s="50" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="Q37" s="50" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R37" s="50" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S37" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -24406,22 +24900,22 @@
         <v>5000</v>
       </c>
       <c r="N38" s="88" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O38" s="88" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="P38" s="88" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q38" s="88" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R38" s="88" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S38" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -24430,52 +24924,52 @@
         <v>38</v>
       </c>
       <c r="B39" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C39" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D39" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E39" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F39" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G39" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H39" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I39" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J39" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K39" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L39" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M39" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N39" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O39" s="90"/>
       <c r="P39" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q39" s="90"/>
       <c r="R39" s="90"/>
       <c r="S39" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -24484,52 +24978,52 @@
         <v>39</v>
       </c>
       <c r="B40" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C40" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D40" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E40" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F40" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G40" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H40" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I40" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J40" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K40" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L40" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M40" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N40" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O40" s="90"/>
       <c r="P40" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q40" s="90"/>
       <c r="R40" s="90"/>
       <c r="S40" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -24538,52 +25032,52 @@
         <v>40</v>
       </c>
       <c r="B41" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C41" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D41" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E41" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F41" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G41" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H41" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I41" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J41" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K41" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L41" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M41" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N41" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O41" s="90"/>
       <c r="P41" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q41" s="90"/>
       <c r="R41" s="90"/>
       <c r="S41" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -24628,22 +25122,22 @@
         <v>250</v>
       </c>
       <c r="N42" s="48" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O42" s="48" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="P42" s="48" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="Q42" s="48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="R42" s="48" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S42" s="101" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -24688,22 +25182,22 @@
         <v>3000</v>
       </c>
       <c r="N43" s="88" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O43" s="88" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="P43" s="88" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="Q43" s="88" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R43" s="88" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S43" s="101" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -24748,84 +25242,84 @@
         <v>250</v>
       </c>
       <c r="N44" s="89" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="O44" s="89" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="P44" s="89" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="Q44" s="89" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="R44" s="89" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S44" s="101" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="34">
+      <c r="A45" s="115">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="50">
+      <c r="B45" s="116">
         <v>10</v>
       </c>
-      <c r="C45" s="50">
+      <c r="C45" s="116">
         <v>1</v>
       </c>
-      <c r="D45" s="50">
+      <c r="D45" s="116">
         <v>0.5</v>
       </c>
-      <c r="E45" s="50">
+      <c r="E45" s="116">
         <v>2</v>
       </c>
-      <c r="F45" s="111">
+      <c r="F45" s="116">
         <v>0.5</v>
       </c>
-      <c r="G45" s="111">
+      <c r="G45" s="116">
         <v>1</v>
       </c>
-      <c r="H45" s="111">
+      <c r="H45" s="116">
         <v>0.9</v>
       </c>
-      <c r="I45" s="79">
+      <c r="I45" s="117">
         <v>5</v>
       </c>
-      <c r="J45" s="50">
+      <c r="J45" s="116">
         <v>1</v>
       </c>
-      <c r="K45" s="50">
-        <f t="shared" ref="K45:L45" si="32">K18</f>
+      <c r="K45" s="116">
+        <f t="shared" ref="K45:L45" si="38">K18</f>
         <v>40</v>
       </c>
-      <c r="L45" s="50">
-        <f t="shared" si="32"/>
+      <c r="L45" s="116">
+        <f t="shared" si="38"/>
         <v>95</v>
       </c>
-      <c r="M45" s="50">
+      <c r="M45" s="116">
         <v>1050</v>
       </c>
-      <c r="N45" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="O45" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="P45" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q45" s="50" t="s">
-        <v>254</v>
-      </c>
-      <c r="R45" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="S45" t="s">
-        <v>275</v>
+      <c r="N45" s="116" t="s">
+        <v>207</v>
+      </c>
+      <c r="O45" s="116" t="s">
+        <v>216</v>
+      </c>
+      <c r="P45" s="116" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q45" s="116" t="s">
+        <v>243</v>
+      </c>
+      <c r="R45" s="116" t="s">
+        <v>240</v>
+      </c>
+      <c r="S45" s="118" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
@@ -24870,22 +25364,22 @@
         <v>150</v>
       </c>
       <c r="N46" s="50" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O46" s="50" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="P46" s="50" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="Q46" s="50" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="R46" s="50" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S46" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -24930,22 +25424,22 @@
         <v>150</v>
       </c>
       <c r="N47" s="50" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O47" s="50" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="P47" s="50" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="Q47" s="50" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="R47" s="50" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S47" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -24984,29 +25478,29 @@
         <v>1</v>
       </c>
       <c r="L48" s="50">
-        <f t="shared" ref="L48:L50" si="33">L21</f>
+        <f t="shared" ref="L48:L50" si="39">L21</f>
         <v>95</v>
       </c>
       <c r="M48" s="50">
         <v>50</v>
       </c>
       <c r="N48" s="50" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O48" s="50" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="P48" s="50" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="Q48" s="50" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="R48" s="50" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S48" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -25045,29 +25539,29 @@
         <v>40</v>
       </c>
       <c r="L49" s="50">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>95</v>
       </c>
       <c r="M49" s="50">
         <v>1000</v>
       </c>
       <c r="N49" s="50" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O49" s="50" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="P49" s="50" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="Q49" s="50" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="R49" s="50" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S49" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -25106,29 +25600,29 @@
         <v>1</v>
       </c>
       <c r="L50" s="50">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>95</v>
       </c>
       <c r="M50" s="50">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N50" s="50" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O50" s="50" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="P50" s="50" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="Q50" s="50" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="R50" s="50" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S50" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -25137,58 +25631,72 @@
         <v>50</v>
       </c>
       <c r="B51" s="88">
+        <f>B3</f>
         <v>10</v>
       </c>
       <c r="C51" s="88">
+        <f t="shared" ref="C51:O51" si="40">C3</f>
         <v>1</v>
       </c>
       <c r="D51" s="88">
+        <f t="shared" si="40"/>
         <v>0.5</v>
       </c>
       <c r="E51" s="88">
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
-      <c r="F51" s="107">
+      <c r="F51" s="88">
+        <f t="shared" si="40"/>
         <v>0.5</v>
       </c>
-      <c r="G51" s="107">
+      <c r="G51" s="88">
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
-      <c r="H51" s="107">
+      <c r="H51" s="88">
+        <f t="shared" si="40"/>
         <v>0.9</v>
       </c>
       <c r="I51" s="88">
-        <v>30</v>
+        <f t="shared" si="40"/>
+        <v>15</v>
       </c>
       <c r="J51" s="88">
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="K51" s="88">
+        <f t="shared" si="40"/>
         <v>40</v>
       </c>
       <c r="L51" s="88">
+        <f t="shared" si="40"/>
         <v>99.5</v>
       </c>
       <c r="M51" s="88">
-        <v>2000</v>
-      </c>
-      <c r="N51" s="88" t="s">
-        <v>214</v>
-      </c>
-      <c r="O51" s="88" t="s">
-        <v>223</v>
+        <f t="shared" si="40"/>
+        <v>5000</v>
+      </c>
+      <c r="N51" s="88" t="str">
+        <f t="shared" si="40"/>
+        <v>TMSEG</v>
+      </c>
+      <c r="O51" s="88" t="str">
+        <f t="shared" si="40"/>
+        <v>TM</v>
       </c>
       <c r="P51" s="88" t="s">
-        <v>199</v>
+        <v>315</v>
       </c>
       <c r="Q51" s="88" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R51" s="88" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S51" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -25197,58 +25705,69 @@
         <v>51</v>
       </c>
       <c r="B52" s="48">
+        <f>B5</f>
         <v>10</v>
       </c>
-      <c r="C52" s="98">
+      <c r="C52" s="48">
+        <f t="shared" ref="C52:L52" si="41">C5</f>
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="48">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="E52" s="48">
+        <f t="shared" si="41"/>
+        <v>5</v>
+      </c>
+      <c r="F52" s="48">
+        <f t="shared" si="41"/>
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="48">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="H52" s="48">
+        <f t="shared" si="41"/>
+        <v>0.9</v>
+      </c>
+      <c r="I52" s="48">
+        <f t="shared" si="41"/>
+        <v>15</v>
+      </c>
+      <c r="J52" s="48">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="K52" s="48">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="L52" s="48">
+        <f t="shared" si="41"/>
+        <v>95</v>
+      </c>
+      <c r="M52" s="48">
         <v>10</v>
       </c>
-      <c r="D52" s="98">
-        <v>0.5</v>
-      </c>
-      <c r="E52" s="98">
-        <v>5</v>
-      </c>
-      <c r="F52" s="106">
-        <v>0.5</v>
-      </c>
-      <c r="G52" s="106">
-        <v>1</v>
-      </c>
-      <c r="H52" s="106">
-        <v>0.9</v>
-      </c>
-      <c r="I52" s="48">
-        <v>15</v>
-      </c>
-      <c r="J52" s="48">
-        <v>1</v>
-      </c>
-      <c r="K52" s="48">
-        <v>1</v>
-      </c>
-      <c r="L52" s="48">
-        <v>95</v>
-      </c>
-      <c r="M52" s="48">
-        <v>250</v>
-      </c>
       <c r="N52" s="48" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O52" s="48" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="P52" s="48" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q52" s="48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="R52" s="48" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S52" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
@@ -25256,59 +25775,72 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="48">
+      <c r="B53" s="89">
+        <f>B7</f>
         <v>10</v>
       </c>
-      <c r="C53" s="98">
-        <v>0.5</v>
-      </c>
-      <c r="D53" s="98">
+      <c r="C53" s="89">
+        <f t="shared" ref="C53:O53" si="42">C7</f>
         <v>1</v>
       </c>
-      <c r="E53" s="98">
+      <c r="D53" s="89">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="E53" s="89">
+        <f t="shared" si="42"/>
         <v>5</v>
       </c>
-      <c r="F53" s="106">
-        <v>0.5</v>
-      </c>
-      <c r="G53" s="106">
+      <c r="F53" s="89">
+        <f t="shared" si="42"/>
+        <v>0.3</v>
+      </c>
+      <c r="G53" s="89">
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
-      <c r="H53" s="106">
+      <c r="H53" s="89">
+        <f t="shared" si="42"/>
         <v>0.9</v>
       </c>
-      <c r="I53" s="48">
-        <v>15</v>
-      </c>
-      <c r="J53" s="48">
-        <v>1</v>
-      </c>
-      <c r="K53" s="48">
+      <c r="I53" s="89">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="J53" s="89">
+        <f t="shared" si="42"/>
+        <v>6</v>
+      </c>
+      <c r="K53" s="89">
+        <f t="shared" si="42"/>
         <v>40</v>
       </c>
-      <c r="L53" s="48">
-        <v>95</v>
-      </c>
-      <c r="M53" s="48">
-        <v>250</v>
-      </c>
-      <c r="N53" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="O53" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="P53" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q53" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="R53" s="48" t="s">
-        <v>251</v>
+      <c r="L53" s="89">
+        <f t="shared" si="42"/>
+        <v>99</v>
+      </c>
+      <c r="M53" s="89">
+        <v>50</v>
+      </c>
+      <c r="N53" s="89" t="str">
+        <f t="shared" si="42"/>
+        <v>OMPdb</v>
+      </c>
+      <c r="O53" s="89" t="str">
+        <f t="shared" si="42"/>
+        <v>SiPe_TM</v>
+      </c>
+      <c r="P53" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q53" s="89" t="s">
+        <v>197</v>
+      </c>
+      <c r="R53" s="89" t="s">
+        <v>240</v>
       </c>
       <c r="S53" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
@@ -25316,43 +25848,71 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="C54" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109"/>
-      <c r="H54" s="109"/>
-      <c r="I54" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="J54" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="K54" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="L54" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="M54" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="N54" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="O54" s="90"/>
-      <c r="P54" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q54" s="90"/>
-      <c r="R54" s="90"/>
-      <c r="S54" t="s">
-        <v>196</v>
+      <c r="B54" s="89">
+        <f>B4</f>
+        <v>10</v>
+      </c>
+      <c r="C54" s="89">
+        <f t="shared" ref="C54:M54" si="43">C4</f>
+        <v>1</v>
+      </c>
+      <c r="D54" s="89">
+        <f t="shared" si="43"/>
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="89">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="F54" s="89">
+        <f t="shared" si="43"/>
+        <v>0.3</v>
+      </c>
+      <c r="G54" s="89">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="H54" s="89">
+        <f t="shared" si="43"/>
+        <v>0.9</v>
+      </c>
+      <c r="I54" s="89">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="J54" s="89">
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+      <c r="K54" s="89">
+        <f t="shared" si="43"/>
+        <v>40</v>
+      </c>
+      <c r="L54" s="89">
+        <f t="shared" si="43"/>
+        <v>99</v>
+      </c>
+      <c r="M54" s="89">
+        <f t="shared" si="43"/>
+        <v>750</v>
+      </c>
+      <c r="N54" s="89" t="s">
+        <v>309</v>
+      </c>
+      <c r="O54" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="P54" s="89" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q54" s="89" t="s">
+        <v>197</v>
+      </c>
+      <c r="R54" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="S54" s="114" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
@@ -25360,43 +25920,76 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="C55" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="D55" s="90"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="109"/>
-      <c r="G55" s="109"/>
-      <c r="H55" s="109"/>
-      <c r="I55" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="J55" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="K55" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="L55" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="M55" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="N55" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="O55" s="90"/>
-      <c r="P55" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q55" s="90"/>
-      <c r="R55" s="90"/>
+      <c r="B55" s="89">
+        <f>B4</f>
+        <v>10</v>
+      </c>
+      <c r="C55" s="89">
+        <f t="shared" ref="C55:R55" si="44">C4</f>
+        <v>1</v>
+      </c>
+      <c r="D55" s="89">
+        <f t="shared" si="44"/>
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="89">
+        <f t="shared" si="44"/>
+        <v>2</v>
+      </c>
+      <c r="F55" s="89">
+        <f t="shared" si="44"/>
+        <v>0.3</v>
+      </c>
+      <c r="G55" s="89">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="H55" s="89">
+        <f t="shared" si="44"/>
+        <v>0.9</v>
+      </c>
+      <c r="I55" s="89">
+        <f t="shared" si="44"/>
+        <v>3</v>
+      </c>
+      <c r="J55" s="89">
+        <f t="shared" si="44"/>
+        <v>6</v>
+      </c>
+      <c r="K55" s="89">
+        <f t="shared" si="44"/>
+        <v>40</v>
+      </c>
+      <c r="L55" s="89">
+        <f t="shared" si="44"/>
+        <v>99</v>
+      </c>
+      <c r="M55" s="89">
+        <f t="shared" si="44"/>
+        <v>750</v>
+      </c>
+      <c r="N55" s="89" t="str">
+        <f t="shared" si="44"/>
+        <v>OMPdb</v>
+      </c>
+      <c r="O55" s="89" t="str">
+        <f t="shared" si="44"/>
+        <v>TM</v>
+      </c>
+      <c r="P55" s="89" t="str">
+        <f t="shared" si="44"/>
+        <v>betabarrel</v>
+      </c>
+      <c r="Q55" s="89" t="str">
+        <f t="shared" si="44"/>
+        <v>betabarrel</v>
+      </c>
+      <c r="R55" s="89" t="str">
+        <f t="shared" si="44"/>
+        <v>all</v>
+      </c>
       <c r="S55" t="s">
-        <v>196</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
@@ -25404,43 +25997,59 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="C56" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="D56" s="90"/>
-      <c r="E56" s="90"/>
-      <c r="F56" s="109"/>
-      <c r="G56" s="109"/>
-      <c r="H56" s="109"/>
-      <c r="I56" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="J56" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="K56" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="L56" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="M56" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="N56" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="O56" s="90"/>
-      <c r="P56" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q56" s="90"/>
-      <c r="R56" s="90"/>
+      <c r="B56" s="48">
+        <v>10</v>
+      </c>
+      <c r="C56" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="E56" s="48">
+        <v>2</v>
+      </c>
+      <c r="F56" s="106">
+        <v>0.5</v>
+      </c>
+      <c r="G56" s="106">
+        <v>1</v>
+      </c>
+      <c r="H56" s="106">
+        <v>0.9</v>
+      </c>
+      <c r="I56" s="48">
+        <v>15</v>
+      </c>
+      <c r="J56" s="48">
+        <v>1</v>
+      </c>
+      <c r="K56" s="48">
+        <v>1</v>
+      </c>
+      <c r="L56" s="48">
+        <v>95</v>
+      </c>
+      <c r="M56" s="48">
+        <v>20</v>
+      </c>
+      <c r="N56" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="O56" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="P56" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q56" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="R56" s="48" t="s">
+        <v>240</v>
+      </c>
       <c r="S56" t="s">
-        <v>196</v>
+        <v>341</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -25448,43 +26057,59 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="C57" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="109"/>
-      <c r="G57" s="109"/>
-      <c r="H57" s="109"/>
-      <c r="I57" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="J57" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="K57" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="L57" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="M57" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="N57" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="O57" s="90"/>
-      <c r="P57" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q57" s="90"/>
-      <c r="R57" s="90"/>
+      <c r="B57" s="48">
+        <v>10</v>
+      </c>
+      <c r="C57" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="D57" s="48">
+        <v>2</v>
+      </c>
+      <c r="E57" s="48">
+        <v>2</v>
+      </c>
+      <c r="F57" s="106">
+        <v>0.5</v>
+      </c>
+      <c r="G57" s="106">
+        <v>1</v>
+      </c>
+      <c r="H57" s="106">
+        <v>0.9</v>
+      </c>
+      <c r="I57" s="48">
+        <v>15</v>
+      </c>
+      <c r="J57" s="48">
+        <v>1</v>
+      </c>
+      <c r="K57" s="48">
+        <v>1</v>
+      </c>
+      <c r="L57" s="48">
+        <v>95</v>
+      </c>
+      <c r="M57" s="48">
+        <v>20</v>
+      </c>
+      <c r="N57" s="48" t="s">
+        <v>343</v>
+      </c>
+      <c r="O57" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="P57" s="48" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q57" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="R57" s="48" t="s">
+        <v>240</v>
+      </c>
       <c r="S57" t="s">
-        <v>196</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -25492,43 +26117,73 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="C58" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="109"/>
-      <c r="G58" s="109"/>
-      <c r="H58" s="109"/>
-      <c r="I58" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="J58" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="K58" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="L58" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="M58" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="N58" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="O58" s="90"/>
-      <c r="P58" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q58" s="90"/>
-      <c r="R58" s="90"/>
+      <c r="B58" s="89">
+        <f>B4</f>
+        <v>10</v>
+      </c>
+      <c r="C58" s="89">
+        <f t="shared" ref="C58:O58" si="45">C4</f>
+        <v>1</v>
+      </c>
+      <c r="D58" s="89">
+        <f t="shared" si="45"/>
+        <v>0.5</v>
+      </c>
+      <c r="E58" s="89">
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+      <c r="F58" s="89">
+        <f t="shared" si="45"/>
+        <v>0.3</v>
+      </c>
+      <c r="G58" s="89">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="H58" s="89">
+        <f t="shared" si="45"/>
+        <v>0.9</v>
+      </c>
+      <c r="I58" s="89">
+        <f t="shared" si="45"/>
+        <v>3</v>
+      </c>
+      <c r="J58" s="89">
+        <f t="shared" si="45"/>
+        <v>6</v>
+      </c>
+      <c r="K58" s="89">
+        <f t="shared" si="45"/>
+        <v>40</v>
+      </c>
+      <c r="L58" s="89">
+        <f t="shared" si="45"/>
+        <v>99</v>
+      </c>
+      <c r="M58" s="89">
+        <v>50</v>
+      </c>
+      <c r="N58" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="O58" s="89" t="str">
+        <f t="shared" si="45"/>
+        <v>TM</v>
+      </c>
+      <c r="P58" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q58" s="89" t="str">
+        <f>Q4</f>
+        <v>betabarrel</v>
+      </c>
+      <c r="R58" s="89" t="str">
+        <f>R4</f>
+        <v>all</v>
+      </c>
       <c r="S58" t="s">
-        <v>196</v>
+        <v>347</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -25536,43 +26191,71 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="C59" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="D59" s="90"/>
-      <c r="E59" s="90"/>
-      <c r="F59" s="109"/>
-      <c r="G59" s="109"/>
-      <c r="H59" s="109"/>
-      <c r="I59" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="J59" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="K59" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="L59" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="M59" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="N59" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="O59" s="90"/>
-      <c r="P59" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q59" s="90"/>
-      <c r="R59" s="90"/>
+      <c r="B59" s="89">
+        <f>B4</f>
+        <v>10</v>
+      </c>
+      <c r="C59" s="89">
+        <f t="shared" ref="C59:L59" si="46">C4</f>
+        <v>1</v>
+      </c>
+      <c r="D59" s="89">
+        <f t="shared" si="46"/>
+        <v>0.5</v>
+      </c>
+      <c r="E59" s="89">
+        <f t="shared" si="46"/>
+        <v>2</v>
+      </c>
+      <c r="F59" s="89">
+        <f t="shared" si="46"/>
+        <v>0.3</v>
+      </c>
+      <c r="G59" s="89">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="H59" s="89">
+        <f t="shared" si="46"/>
+        <v>0.9</v>
+      </c>
+      <c r="I59" s="89">
+        <f t="shared" si="46"/>
+        <v>3</v>
+      </c>
+      <c r="J59" s="89">
+        <f t="shared" si="46"/>
+        <v>6</v>
+      </c>
+      <c r="K59" s="89">
+        <f t="shared" si="46"/>
+        <v>40</v>
+      </c>
+      <c r="L59" s="89">
+        <f t="shared" si="46"/>
+        <v>99</v>
+      </c>
+      <c r="M59" s="89">
+        <v>50</v>
+      </c>
+      <c r="N59" s="89" t="s">
+        <v>309</v>
+      </c>
+      <c r="O59" s="89" t="str">
+        <f t="shared" ref="O59" si="47">O4</f>
+        <v>TM</v>
+      </c>
+      <c r="P59" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q59" s="89" t="s">
+        <v>197</v>
+      </c>
+      <c r="R59" s="89" t="s">
+        <v>240</v>
+      </c>
       <c r="S59" t="s">
-        <v>196</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -25580,43 +26263,73 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B60" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="C60" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="D60" s="90"/>
-      <c r="E60" s="90"/>
-      <c r="F60" s="109"/>
-      <c r="G60" s="109"/>
-      <c r="H60" s="109"/>
-      <c r="I60" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="J60" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="K60" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="L60" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="M60" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="N60" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="O60" s="90"/>
-      <c r="P60" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q60" s="90"/>
-      <c r="R60" s="90"/>
+      <c r="B60" s="89">
+        <f>B4</f>
+        <v>10</v>
+      </c>
+      <c r="C60" s="89">
+        <f t="shared" ref="C60:L60" si="48">C4</f>
+        <v>1</v>
+      </c>
+      <c r="D60" s="89">
+        <f t="shared" si="48"/>
+        <v>0.5</v>
+      </c>
+      <c r="E60" s="89">
+        <f t="shared" si="48"/>
+        <v>2</v>
+      </c>
+      <c r="F60" s="89">
+        <f t="shared" si="48"/>
+        <v>0.3</v>
+      </c>
+      <c r="G60" s="89">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="H60" s="89">
+        <f t="shared" si="48"/>
+        <v>0.9</v>
+      </c>
+      <c r="I60" s="89">
+        <f t="shared" si="48"/>
+        <v>3</v>
+      </c>
+      <c r="J60" s="89">
+        <f t="shared" si="48"/>
+        <v>6</v>
+      </c>
+      <c r="K60" s="89">
+        <f t="shared" si="48"/>
+        <v>40</v>
+      </c>
+      <c r="L60" s="89">
+        <f t="shared" si="48"/>
+        <v>99</v>
+      </c>
+      <c r="M60" s="89">
+        <v>50</v>
+      </c>
+      <c r="N60" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="O60" s="89" t="str">
+        <f t="shared" ref="O60:R60" si="49">O4</f>
+        <v>TM</v>
+      </c>
+      <c r="P60" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q60" s="89" t="str">
+        <f t="shared" si="49"/>
+        <v>betabarrel</v>
+      </c>
+      <c r="R60" s="89" t="str">
+        <f t="shared" si="49"/>
+        <v>all</v>
+      </c>
       <c r="S60" t="s">
-        <v>196</v>
+        <v>353</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -25625,10 +26338,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C61" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D61" s="90"/>
       <c r="E61" s="90"/>
@@ -25636,31 +26349,31 @@
       <c r="G61" s="109"/>
       <c r="H61" s="109"/>
       <c r="I61" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J61" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K61" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L61" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M61" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N61" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O61" s="90"/>
       <c r="P61" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q61" s="90"/>
       <c r="R61" s="90"/>
       <c r="S61" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -25669,10 +26382,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C62" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D62" s="90"/>
       <c r="E62" s="90"/>
@@ -25680,31 +26393,31 @@
       <c r="G62" s="109"/>
       <c r="H62" s="109"/>
       <c r="I62" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J62" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K62" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L62" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M62" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N62" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O62" s="90"/>
       <c r="P62" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q62" s="90"/>
       <c r="R62" s="90"/>
       <c r="S62" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -25713,10 +26426,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C63" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D63" s="90"/>
       <c r="E63" s="90"/>
@@ -25724,31 +26437,31 @@
       <c r="G63" s="109"/>
       <c r="H63" s="109"/>
       <c r="I63" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J63" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K63" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L63" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M63" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N63" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O63" s="90"/>
       <c r="P63" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q63" s="90"/>
       <c r="R63" s="90"/>
       <c r="S63" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -25757,10 +26470,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C64" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D64" s="90"/>
       <c r="E64" s="90"/>
@@ -25768,31 +26481,31 @@
       <c r="G64" s="109"/>
       <c r="H64" s="109"/>
       <c r="I64" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J64" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K64" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L64" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M64" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N64" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O64" s="90"/>
       <c r="P64" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q64" s="90"/>
       <c r="R64" s="90"/>
       <c r="S64" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
@@ -25801,10 +26514,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C65" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D65" s="90"/>
       <c r="E65" s="90"/>
@@ -25812,31 +26525,31 @@
       <c r="G65" s="109"/>
       <c r="H65" s="109"/>
       <c r="I65" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J65" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K65" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L65" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M65" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N65" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O65" s="90"/>
       <c r="P65" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q65" s="90"/>
       <c r="R65" s="90"/>
       <c r="S65" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
@@ -25845,10 +26558,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C66" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D66" s="90"/>
       <c r="E66" s="90"/>
@@ -25856,31 +26569,31 @@
       <c r="G66" s="109"/>
       <c r="H66" s="109"/>
       <c r="I66" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J66" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K66" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L66" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M66" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N66" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O66" s="90"/>
       <c r="P66" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q66" s="90"/>
       <c r="R66" s="90"/>
       <c r="S66" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -25889,10 +26602,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C67" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D67" s="90"/>
       <c r="E67" s="90"/>
@@ -25900,43 +26613,43 @@
       <c r="G67" s="109"/>
       <c r="H67" s="109"/>
       <c r="I67" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J67" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K67" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L67" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M67" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N67" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O67" s="90"/>
       <c r="P67" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q67" s="90"/>
       <c r="R67" s="90"/>
       <c r="S67" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="34">
-        <f t="shared" ref="A68:A100" si="34">A67+1</f>
+        <f t="shared" ref="A68:A100" si="50">A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C68" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D68" s="90"/>
       <c r="E68" s="90"/>
@@ -25944,43 +26657,43 @@
       <c r="G68" s="109"/>
       <c r="H68" s="109"/>
       <c r="I68" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J68" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K68" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L68" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M68" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N68" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O68" s="90"/>
       <c r="P68" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q68" s="90"/>
       <c r="R68" s="90"/>
       <c r="S68" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>68</v>
       </c>
       <c r="B69" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C69" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D69" s="90"/>
       <c r="E69" s="90"/>
@@ -25988,43 +26701,43 @@
       <c r="G69" s="109"/>
       <c r="H69" s="109"/>
       <c r="I69" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J69" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K69" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L69" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M69" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N69" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O69" s="90"/>
       <c r="P69" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q69" s="90"/>
       <c r="R69" s="90"/>
       <c r="S69" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>69</v>
       </c>
       <c r="B70" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C70" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D70" s="90"/>
       <c r="E70" s="90"/>
@@ -26032,43 +26745,43 @@
       <c r="G70" s="109"/>
       <c r="H70" s="109"/>
       <c r="I70" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J70" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K70" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L70" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M70" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N70" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O70" s="90"/>
       <c r="P70" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q70" s="90"/>
       <c r="R70" s="90"/>
       <c r="S70" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>70</v>
       </c>
       <c r="B71" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C71" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D71" s="90"/>
       <c r="E71" s="90"/>
@@ -26076,43 +26789,43 @@
       <c r="G71" s="109"/>
       <c r="H71" s="109"/>
       <c r="I71" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J71" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K71" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L71" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M71" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N71" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O71" s="90"/>
       <c r="P71" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q71" s="90"/>
       <c r="R71" s="90"/>
       <c r="S71" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>71</v>
       </c>
       <c r="B72" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C72" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D72" s="90"/>
       <c r="E72" s="90"/>
@@ -26120,43 +26833,43 @@
       <c r="G72" s="109"/>
       <c r="H72" s="109"/>
       <c r="I72" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J72" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K72" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L72" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M72" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N72" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O72" s="90"/>
       <c r="P72" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q72" s="90"/>
       <c r="R72" s="90"/>
       <c r="S72" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>72</v>
       </c>
       <c r="B73" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C73" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D73" s="90"/>
       <c r="E73" s="90"/>
@@ -26164,43 +26877,43 @@
       <c r="G73" s="109"/>
       <c r="H73" s="109"/>
       <c r="I73" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J73" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K73" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L73" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M73" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N73" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O73" s="90"/>
       <c r="P73" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q73" s="90"/>
       <c r="R73" s="90"/>
       <c r="S73" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>73</v>
       </c>
       <c r="B74" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C74" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D74" s="90"/>
       <c r="E74" s="90"/>
@@ -26208,43 +26921,43 @@
       <c r="G74" s="109"/>
       <c r="H74" s="109"/>
       <c r="I74" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J74" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K74" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L74" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M74" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N74" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O74" s="90"/>
       <c r="P74" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q74" s="90"/>
       <c r="R74" s="90"/>
       <c r="S74" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>74</v>
       </c>
       <c r="B75" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C75" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D75" s="90"/>
       <c r="E75" s="90"/>
@@ -26252,43 +26965,43 @@
       <c r="G75" s="109"/>
       <c r="H75" s="109"/>
       <c r="I75" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J75" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K75" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L75" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M75" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N75" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O75" s="90"/>
       <c r="P75" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q75" s="90"/>
       <c r="R75" s="90"/>
       <c r="S75" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>75</v>
       </c>
       <c r="B76" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C76" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D76" s="90"/>
       <c r="E76" s="90"/>
@@ -26296,43 +27009,43 @@
       <c r="G76" s="109"/>
       <c r="H76" s="109"/>
       <c r="I76" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J76" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K76" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L76" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M76" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N76" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O76" s="90"/>
       <c r="P76" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q76" s="90"/>
       <c r="R76" s="90"/>
       <c r="S76" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>76</v>
       </c>
       <c r="B77" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C77" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D77" s="90"/>
       <c r="E77" s="90"/>
@@ -26340,43 +27053,43 @@
       <c r="G77" s="109"/>
       <c r="H77" s="109"/>
       <c r="I77" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J77" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K77" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L77" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M77" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N77" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O77" s="90"/>
       <c r="P77" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q77" s="90"/>
       <c r="R77" s="90"/>
       <c r="S77" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>77</v>
       </c>
       <c r="B78" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C78" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D78" s="90"/>
       <c r="E78" s="90"/>
@@ -26384,43 +27097,43 @@
       <c r="G78" s="109"/>
       <c r="H78" s="109"/>
       <c r="I78" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J78" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K78" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L78" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M78" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N78" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O78" s="90"/>
       <c r="P78" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q78" s="90"/>
       <c r="R78" s="90"/>
       <c r="S78" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>78</v>
       </c>
       <c r="B79" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C79" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D79" s="90"/>
       <c r="E79" s="90"/>
@@ -26428,43 +27141,43 @@
       <c r="G79" s="109"/>
       <c r="H79" s="109"/>
       <c r="I79" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J79" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K79" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L79" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M79" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N79" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O79" s="90"/>
       <c r="P79" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q79" s="90"/>
       <c r="R79" s="90"/>
       <c r="S79" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>79</v>
       </c>
       <c r="B80" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C80" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D80" s="90"/>
       <c r="E80" s="90"/>
@@ -26472,43 +27185,43 @@
       <c r="G80" s="109"/>
       <c r="H80" s="109"/>
       <c r="I80" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J80" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K80" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L80" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M80" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N80" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O80" s="90"/>
       <c r="P80" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q80" s="90"/>
       <c r="R80" s="90"/>
       <c r="S80" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>80</v>
       </c>
       <c r="B81" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C81" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D81" s="90"/>
       <c r="E81" s="90"/>
@@ -26516,43 +27229,43 @@
       <c r="G81" s="109"/>
       <c r="H81" s="109"/>
       <c r="I81" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J81" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K81" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L81" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M81" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N81" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O81" s="90"/>
       <c r="P81" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q81" s="90"/>
       <c r="R81" s="90"/>
       <c r="S81" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>81</v>
       </c>
       <c r="B82" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C82" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D82" s="90"/>
       <c r="E82" s="90"/>
@@ -26560,43 +27273,43 @@
       <c r="G82" s="109"/>
       <c r="H82" s="109"/>
       <c r="I82" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J82" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K82" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L82" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M82" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N82" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O82" s="90"/>
       <c r="P82" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q82" s="90"/>
       <c r="R82" s="90"/>
       <c r="S82" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>82</v>
       </c>
       <c r="B83" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C83" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D83" s="90"/>
       <c r="E83" s="90"/>
@@ -26604,43 +27317,43 @@
       <c r="G83" s="109"/>
       <c r="H83" s="109"/>
       <c r="I83" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J83" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K83" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L83" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M83" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N83" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O83" s="90"/>
       <c r="P83" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q83" s="90"/>
       <c r="R83" s="90"/>
       <c r="S83" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>83</v>
       </c>
       <c r="B84" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C84" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D84" s="90"/>
       <c r="E84" s="90"/>
@@ -26648,43 +27361,43 @@
       <c r="G84" s="109"/>
       <c r="H84" s="109"/>
       <c r="I84" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J84" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K84" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L84" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M84" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N84" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O84" s="90"/>
       <c r="P84" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q84" s="90"/>
       <c r="R84" s="90"/>
       <c r="S84" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>84</v>
       </c>
       <c r="B85" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C85" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D85" s="90"/>
       <c r="E85" s="90"/>
@@ -26692,43 +27405,43 @@
       <c r="G85" s="109"/>
       <c r="H85" s="109"/>
       <c r="I85" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J85" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K85" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L85" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M85" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N85" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O85" s="90"/>
       <c r="P85" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q85" s="90"/>
       <c r="R85" s="90"/>
       <c r="S85" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>85</v>
       </c>
       <c r="B86" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C86" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D86" s="90"/>
       <c r="E86" s="90"/>
@@ -26736,43 +27449,43 @@
       <c r="G86" s="109"/>
       <c r="H86" s="109"/>
       <c r="I86" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J86" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K86" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L86" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M86" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N86" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O86" s="90"/>
       <c r="P86" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q86" s="90"/>
       <c r="R86" s="90"/>
       <c r="S86" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>86</v>
       </c>
       <c r="B87" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C87" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D87" s="90"/>
       <c r="E87" s="90"/>
@@ -26780,43 +27493,43 @@
       <c r="G87" s="109"/>
       <c r="H87" s="109"/>
       <c r="I87" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J87" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K87" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L87" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M87" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N87" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O87" s="90"/>
       <c r="P87" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q87" s="90"/>
       <c r="R87" s="90"/>
       <c r="S87" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>87</v>
       </c>
       <c r="B88" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C88" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D88" s="90"/>
       <c r="E88" s="90"/>
@@ -26824,44 +27537,44 @@
       <c r="G88" s="109"/>
       <c r="H88" s="109"/>
       <c r="I88" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J88" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K88" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L88" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M88" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N88" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O88" s="90"/>
       <c r="P88" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q88" s="90"/>
       <c r="R88" s="90"/>
       <c r="S88" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>88</v>
       </c>
       <c r="B89" s="48">
-        <f t="shared" ref="B89:P89" si="35">B9</f>
+        <f t="shared" ref="B89:P89" si="51">B9</f>
         <v>10</v>
       </c>
       <c r="C89" s="48">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>0.5</v>
       </c>
       <c r="D89" s="48"/>
@@ -26872,52 +27585,52 @@
       <c r="G89" s="106"/>
       <c r="H89" s="106"/>
       <c r="I89" s="48">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>30</v>
       </c>
       <c r="J89" s="48">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="K89" s="48">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="L89" s="48">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>95</v>
       </c>
       <c r="M89" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N89" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O89" s="48" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>TM</v>
       </c>
       <c r="P89" s="93" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>singlepass_UniProt</v>
       </c>
       <c r="Q89" s="93"/>
       <c r="R89" s="93"/>
       <c r="S89" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>89</v>
       </c>
       <c r="B90" s="88">
-        <f t="shared" ref="B90:P90" si="36">B3</f>
+        <f t="shared" ref="B90:P90" si="52">B3</f>
         <v>10</v>
       </c>
       <c r="C90" s="88">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="D90" s="88"/>
@@ -26928,51 +27641,51 @@
       <c r="G90" s="107"/>
       <c r="H90" s="107"/>
       <c r="I90" s="88">
-        <f t="shared" si="36"/>
-        <v>30</v>
+        <f t="shared" si="52"/>
+        <v>15</v>
       </c>
       <c r="J90" s="88">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="K90" s="88">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>40</v>
       </c>
       <c r="L90" s="88">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>99.5</v>
       </c>
       <c r="M90" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N90" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O90" s="88" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>TM</v>
       </c>
       <c r="P90" s="88" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>multipass</v>
       </c>
       <c r="Q90" s="88"/>
       <c r="R90" s="88"/>
       <c r="S90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>90</v>
       </c>
       <c r="B91" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C91" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D91" s="90"/>
       <c r="E91" s="90"/>
@@ -26980,43 +27693,43 @@
       <c r="G91" s="109"/>
       <c r="H91" s="109"/>
       <c r="I91" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J91" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K91" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L91" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M91" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N91" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O91" s="90"/>
       <c r="P91" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q91" s="90"/>
       <c r="R91" s="90"/>
       <c r="S91" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>91</v>
       </c>
       <c r="B92" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C92" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D92" s="90"/>
       <c r="E92" s="90"/>
@@ -27024,43 +27737,43 @@
       <c r="G92" s="109"/>
       <c r="H92" s="109"/>
       <c r="I92" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J92" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K92" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L92" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M92" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N92" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O92" s="90"/>
       <c r="P92" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q92" s="90"/>
       <c r="R92" s="90"/>
       <c r="S92" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>92</v>
       </c>
       <c r="B93" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C93" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D93" s="90"/>
       <c r="E93" s="90"/>
@@ -27068,43 +27781,43 @@
       <c r="G93" s="109"/>
       <c r="H93" s="109"/>
       <c r="I93" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J93" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K93" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L93" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M93" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N93" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O93" s="90"/>
       <c r="P93" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q93" s="90"/>
       <c r="R93" s="90"/>
       <c r="S93" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>93</v>
       </c>
       <c r="B94" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C94" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D94" s="90"/>
       <c r="E94" s="90"/>
@@ -27112,43 +27825,43 @@
       <c r="G94" s="109"/>
       <c r="H94" s="109"/>
       <c r="I94" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J94" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K94" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L94" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M94" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N94" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O94" s="90"/>
       <c r="P94" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q94" s="90"/>
       <c r="R94" s="90"/>
       <c r="S94" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>94</v>
       </c>
       <c r="B95" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C95" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D95" s="90"/>
       <c r="E95" s="90"/>
@@ -27156,43 +27869,43 @@
       <c r="G95" s="109"/>
       <c r="H95" s="109"/>
       <c r="I95" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J95" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K95" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L95" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M95" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N95" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O95" s="90"/>
       <c r="P95" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q95" s="90"/>
       <c r="R95" s="90"/>
       <c r="S95" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>95</v>
       </c>
       <c r="B96" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C96" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D96" s="90"/>
       <c r="E96" s="90"/>
@@ -27200,43 +27913,43 @@
       <c r="G96" s="109"/>
       <c r="H96" s="109"/>
       <c r="I96" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J96" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K96" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L96" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M96" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N96" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O96" s="90"/>
       <c r="P96" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q96" s="90"/>
       <c r="R96" s="90"/>
       <c r="S96" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>96</v>
       </c>
       <c r="B97" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C97" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D97" s="90"/>
       <c r="E97" s="90"/>
@@ -27244,43 +27957,43 @@
       <c r="G97" s="109"/>
       <c r="H97" s="109"/>
       <c r="I97" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J97" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K97" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L97" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M97" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N97" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O97" s="90"/>
       <c r="P97" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q97" s="90"/>
       <c r="R97" s="90"/>
       <c r="S97" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>97</v>
       </c>
       <c r="B98" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C98" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D98" s="90"/>
       <c r="E98" s="90"/>
@@ -27288,43 +28001,43 @@
       <c r="G98" s="109"/>
       <c r="H98" s="109"/>
       <c r="I98" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J98" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K98" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L98" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M98" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N98" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O98" s="90"/>
       <c r="P98" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q98" s="90"/>
       <c r="R98" s="90"/>
       <c r="S98" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>98</v>
       </c>
       <c r="B99" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C99" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D99" s="90"/>
       <c r="E99" s="90"/>
@@ -27332,36 +28045,36 @@
       <c r="G99" s="109"/>
       <c r="H99" s="109"/>
       <c r="I99" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J99" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K99" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L99" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M99" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N99" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O99" s="90"/>
       <c r="P99" s="90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q99" s="90"/>
       <c r="R99" s="90"/>
       <c r="S99" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>99</v>
       </c>
       <c r="B100" s="88">
@@ -27393,22 +28106,22 @@
         <v>5000</v>
       </c>
       <c r="N100" s="88" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O100" s="88" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="P100" s="88" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="Q100" s="88" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R100" s="88" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="S100" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
